--- a/Gantt_Chart_v1.018.xlsx
+++ b/Gantt_Chart_v1.018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Yaho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95E4BA6-0E79-4BC8-9482-D1315930AFAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13107824-F0CF-474E-AF4D-D9A6050F50FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="510">
   <si>
     <t>4팀 Gantt Chart 양식</t>
   </si>
@@ -1814,6 +1814,18 @@
     <t>1개당 30분 이상 필요</t>
     <phoneticPr fontId="28" type="noConversion"/>
   </si>
+  <si>
+    <t>2020-12-04</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트용 맵 디자인</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현철</t>
+    <phoneticPr fontId="28" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2083,7 +2095,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2183,6 +2195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2659,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="371">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3398,183 +3416,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3584,13 +3425,7 @@
     <xf numFmtId="49" fontId="20" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3602,36 +3437,14 @@
     <xf numFmtId="49" fontId="20" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="17" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="17" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3639,7 +3452,6 @@
     <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3651,9 +3463,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3676,8 +3485,202 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="26" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="18" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3924,14 +3927,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -3960,23 +3963,23 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="286"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
+      <c r="A2" s="291"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="290" t="s">
+      <c r="L2" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="292"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="6"/>
@@ -3988,12 +3991,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="286"/>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -4014,67 +4017,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="283" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="287" t="s">
+      <c r="H4" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="287" t="s">
+      <c r="I4" s="283" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="287" t="s">
+      <c r="J4" s="283" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="287" t="s">
+      <c r="L4" s="283" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="287" t="s">
+      <c r="M4" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="287" t="s">
+      <c r="N4" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="287" t="s">
+      <c r="O4" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="287" t="s">
+      <c r="P4" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="287" t="s">
+      <c r="Q4" s="283" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="283" t="s">
+      <c r="S4" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="287" t="s">
+      <c r="T4" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="283" t="s">
+      <c r="U4" s="281" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="287" t="s">
+      <c r="V4" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="287" t="s">
+      <c r="W4" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="283" t="s">
+      <c r="X4" s="281" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="284"/>
+      <c r="A5" s="282"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
         <v>23</v>
@@ -4089,35 +4092,35 @@
         <v>26</v>
       </c>
       <c r="G5" s="8"/>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284"/>
+      <c r="H5" s="282"/>
+      <c r="I5" s="282"/>
+      <c r="J5" s="282"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="284"/>
+      <c r="L5" s="282"/>
+      <c r="M5" s="282"/>
+      <c r="N5" s="282"/>
+      <c r="O5" s="282"/>
+      <c r="P5" s="282"/>
+      <c r="Q5" s="282"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="284"/>
-      <c r="W5" s="284"/>
-      <c r="X5" s="284"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="282"/>
+      <c r="X5" s="282"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="11">
         <v>1</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="288" t="s">
+      <c r="C6" s="292" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="269"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -4157,19 +4160,19 @@
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="261" t="s">
+      <c r="D7" s="295" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="289" t="s">
+      <c r="E7" s="296" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="258"/>
-      <c r="I7" s="259"/>
-      <c r="J7" s="260"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="286"/>
       <c r="K7" s="23"/>
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
@@ -4197,8 +4200,8 @@
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
       <c r="F8" s="27" t="s">
         <v>36</v>
       </c>
@@ -4243,8 +4246,8 @@
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="262"/>
-      <c r="E9" s="262"/>
+      <c r="D9" s="288"/>
+      <c r="E9" s="288"/>
       <c r="F9" s="28" t="s">
         <v>39</v>
       </c>
@@ -4291,8 +4294,8 @@
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
       <c r="F10" s="28" t="s">
         <v>41</v>
       </c>
@@ -4337,8 +4340,8 @@
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="263"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="289"/>
       <c r="F11" s="28" t="s">
         <v>43</v>
       </c>
@@ -4385,17 +4388,17 @@
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="289" t="s">
+      <c r="D12" s="288"/>
+      <c r="E12" s="296" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="258"/>
-      <c r="I12" s="259"/>
-      <c r="J12" s="260"/>
+      <c r="H12" s="284"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="286"/>
       <c r="K12" s="23"/>
       <c r="L12" s="24"/>
       <c r="M12" s="24"/>
@@ -4423,8 +4426,8 @@
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
+      <c r="D13" s="288"/>
+      <c r="E13" s="288"/>
       <c r="F13" s="28" t="s">
         <v>46</v>
       </c>
@@ -4471,8 +4474,8 @@
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
+      <c r="D14" s="288"/>
+      <c r="E14" s="288"/>
       <c r="F14" s="28" t="s">
         <v>50</v>
       </c>
@@ -4517,8 +4520,8 @@
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
+      <c r="D15" s="288"/>
+      <c r="E15" s="288"/>
       <c r="F15" s="28" t="s">
         <v>52</v>
       </c>
@@ -4563,8 +4566,8 @@
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
+      <c r="D16" s="288"/>
+      <c r="E16" s="288"/>
       <c r="F16" s="28" t="s">
         <v>54</v>
       </c>
@@ -4609,8 +4612,8 @@
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="288"/>
       <c r="F17" s="28" t="s">
         <v>55</v>
       </c>
@@ -4655,8 +4658,8 @@
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
+      <c r="D18" s="288"/>
+      <c r="E18" s="288"/>
       <c r="F18" s="28" t="s">
         <v>56</v>
       </c>
@@ -4701,8 +4704,8 @@
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
+      <c r="D19" s="288"/>
+      <c r="E19" s="288"/>
       <c r="F19" s="28" t="s">
         <v>59</v>
       </c>
@@ -4747,8 +4750,8 @@
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="262"/>
+      <c r="D20" s="288"/>
+      <c r="E20" s="288"/>
       <c r="F20" s="28" t="s">
         <v>60</v>
       </c>
@@ -4793,8 +4796,8 @@
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="262"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
       <c r="F21" s="28" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +4842,8 @@
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="262"/>
+      <c r="D22" s="288"/>
+      <c r="E22" s="288"/>
       <c r="F22" s="28" t="s">
         <v>63</v>
       </c>
@@ -4885,8 +4888,8 @@
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="263"/>
+      <c r="D23" s="288"/>
+      <c r="E23" s="289"/>
       <c r="F23" s="28" t="s">
         <v>65</v>
       </c>
@@ -4933,17 +4936,17 @@
       </c>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="289" t="s">
+      <c r="D24" s="288"/>
+      <c r="E24" s="296" t="s">
         <v>66</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="260"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="285"/>
+      <c r="J24" s="286"/>
       <c r="K24" s="23"/>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -4969,8 +4972,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
+      <c r="D25" s="288"/>
+      <c r="E25" s="288"/>
       <c r="F25" s="28" t="s">
         <v>67</v>
       </c>
@@ -5015,8 +5018,8 @@
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
-      <c r="D26" s="262"/>
-      <c r="E26" s="262"/>
+      <c r="D26" s="288"/>
+      <c r="E26" s="288"/>
       <c r="F26" s="28" t="s">
         <v>69</v>
       </c>
@@ -5061,8 +5064,8 @@
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="262"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="288"/>
       <c r="F27" s="28" t="s">
         <v>70</v>
       </c>
@@ -5107,8 +5110,8 @@
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
-      <c r="D28" s="262"/>
-      <c r="E28" s="262"/>
+      <c r="D28" s="288"/>
+      <c r="E28" s="288"/>
       <c r="F28" s="28" t="s">
         <v>71</v>
       </c>
@@ -5153,8 +5156,8 @@
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
-      <c r="D29" s="262"/>
-      <c r="E29" s="263"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="289"/>
       <c r="F29" s="28" t="s">
         <v>72</v>
       </c>
@@ -5201,17 +5204,17 @@
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="262"/>
-      <c r="E30" s="261" t="s">
+      <c r="D30" s="288"/>
+      <c r="E30" s="295" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G30" s="22"/>
-      <c r="H30" s="281"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="260"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="286"/>
       <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
@@ -5239,8 +5242,8 @@
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
-      <c r="D31" s="262"/>
-      <c r="E31" s="262"/>
+      <c r="D31" s="288"/>
+      <c r="E31" s="288"/>
       <c r="F31" s="28" t="s">
         <v>75</v>
       </c>
@@ -5273,8 +5276,8 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
-      <c r="D32" s="262"/>
-      <c r="E32" s="262"/>
+      <c r="D32" s="288"/>
+      <c r="E32" s="288"/>
       <c r="F32" s="28" t="s">
         <v>76</v>
       </c>
@@ -5313,8 +5316,8 @@
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
+      <c r="D33" s="288"/>
+      <c r="E33" s="288"/>
       <c r="F33" s="28" t="s">
         <v>78</v>
       </c>
@@ -5353,8 +5356,8 @@
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="262"/>
-      <c r="E34" s="262"/>
+      <c r="D34" s="288"/>
+      <c r="E34" s="288"/>
       <c r="F34" s="28" t="s">
         <v>79</v>
       </c>
@@ -5393,8 +5396,8 @@
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="288"/>
       <c r="F35" s="28" t="s">
         <v>80</v>
       </c>
@@ -5433,8 +5436,8 @@
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
-      <c r="D36" s="262"/>
-      <c r="E36" s="262"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="288"/>
       <c r="F36" s="28" t="s">
         <v>81</v>
       </c>
@@ -5473,8 +5476,8 @@
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
-      <c r="D37" s="263"/>
-      <c r="E37" s="263"/>
+      <c r="D37" s="289"/>
+      <c r="E37" s="289"/>
       <c r="F37" s="28" t="s">
         <v>82</v>
       </c>
@@ -5513,19 +5516,19 @@
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="270" t="s">
+      <c r="D38" s="287" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="270" t="s">
+      <c r="E38" s="287" t="s">
         <v>84</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="23"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="259"/>
-      <c r="J38" s="260"/>
+      <c r="H38" s="284"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="286"/>
       <c r="K38" s="23"/>
       <c r="L38" s="24"/>
       <c r="M38" s="24"/>
@@ -5553,8 +5556,8 @@
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="262"/>
-      <c r="E39" s="262"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="288"/>
       <c r="F39" s="28" t="s">
         <v>85</v>
       </c>
@@ -5599,8 +5602,8 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="262"/>
-      <c r="E40" s="262"/>
+      <c r="D40" s="288"/>
+      <c r="E40" s="288"/>
       <c r="F40" s="28" t="s">
         <v>86</v>
       </c>
@@ -5645,8 +5648,8 @@
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="262"/>
-      <c r="E41" s="262"/>
+      <c r="D41" s="288"/>
+      <c r="E41" s="288"/>
       <c r="F41" s="28" t="s">
         <v>87</v>
       </c>
@@ -5691,8 +5694,8 @@
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="263"/>
-      <c r="E42" s="263"/>
+      <c r="D42" s="289"/>
+      <c r="E42" s="289"/>
       <c r="F42" s="28" t="s">
         <v>88</v>
       </c>
@@ -5737,10 +5740,10 @@
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="282" t="s">
+      <c r="D43" s="301" t="s">
         <v>89</v>
       </c>
-      <c r="E43" s="272" t="s">
+      <c r="E43" s="302" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="28" t="s">
@@ -5784,8 +5787,8 @@
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="262"/>
-      <c r="E44" s="263"/>
+      <c r="D44" s="288"/>
+      <c r="E44" s="289"/>
       <c r="F44" s="28" t="s">
         <v>92</v>
       </c>
@@ -5824,8 +5827,8 @@
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="262"/>
-      <c r="E45" s="272" t="s">
+      <c r="D45" s="288"/>
+      <c r="E45" s="302" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="28" t="s">
@@ -5866,8 +5869,8 @@
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="262"/>
-      <c r="E46" s="262"/>
+      <c r="D46" s="288"/>
+      <c r="E46" s="288"/>
       <c r="F46" s="28" t="s">
         <v>95</v>
       </c>
@@ -5906,8 +5909,8 @@
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="263"/>
-      <c r="E47" s="263"/>
+      <c r="D47" s="289"/>
+      <c r="E47" s="289"/>
       <c r="F47" s="28" t="s">
         <v>96</v>
       </c>
@@ -5946,10 +5949,10 @@
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="270" t="s">
+      <c r="D48" s="287" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="270" t="s">
+      <c r="E48" s="287" t="s">
         <v>98</v>
       </c>
       <c r="F48" s="28" t="s">
@@ -5996,8 +5999,8 @@
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="263"/>
+      <c r="D49" s="289"/>
+      <c r="E49" s="289"/>
       <c r="F49" s="28" t="s">
         <v>100</v>
       </c>
@@ -6042,19 +6045,19 @@
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="270" t="s">
+      <c r="D50" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="270" t="s">
+      <c r="E50" s="287" t="s">
         <v>102</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G50" s="23"/>
-      <c r="H50" s="258"/>
-      <c r="I50" s="259"/>
-      <c r="J50" s="260"/>
+      <c r="H50" s="284"/>
+      <c r="I50" s="285"/>
+      <c r="J50" s="286"/>
       <c r="K50" s="22"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -6082,8 +6085,8 @@
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="262"/>
-      <c r="E51" s="262"/>
+      <c r="D51" s="288"/>
+      <c r="E51" s="288"/>
       <c r="F51" s="28" t="s">
         <v>103</v>
       </c>
@@ -6128,8 +6131,8 @@
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="263"/>
-      <c r="E52" s="263"/>
+      <c r="D52" s="289"/>
+      <c r="E52" s="289"/>
       <c r="F52" s="28" t="s">
         <v>105</v>
       </c>
@@ -6218,19 +6221,19 @@
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
-      <c r="D54" s="270" t="s">
+      <c r="D54" s="287" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="270" t="s">
+      <c r="E54" s="287" t="s">
         <v>109</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="23"/>
-      <c r="H54" s="258"/>
-      <c r="I54" s="259"/>
-      <c r="J54" s="260"/>
+      <c r="H54" s="284"/>
+      <c r="I54" s="285"/>
+      <c r="J54" s="286"/>
       <c r="K54" s="42"/>
       <c r="L54" s="25"/>
       <c r="M54" s="25"/>
@@ -6258,8 +6261,8 @@
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="262"/>
-      <c r="E55" s="262"/>
+      <c r="D55" s="288"/>
+      <c r="E55" s="288"/>
       <c r="F55" s="28" t="s">
         <v>110</v>
       </c>
@@ -6304,8 +6307,8 @@
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="262"/>
-      <c r="E56" s="262"/>
+      <c r="D56" s="288"/>
+      <c r="E56" s="288"/>
       <c r="F56" s="28" t="s">
         <v>111</v>
       </c>
@@ -6338,8 +6341,8 @@
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="262"/>
-      <c r="E57" s="262"/>
+      <c r="D57" s="288"/>
+      <c r="E57" s="288"/>
       <c r="F57" s="28" t="s">
         <v>112</v>
       </c>
@@ -6378,8 +6381,8 @@
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="262"/>
-      <c r="E58" s="262"/>
+      <c r="D58" s="288"/>
+      <c r="E58" s="288"/>
       <c r="F58" s="28" t="s">
         <v>113</v>
       </c>
@@ -6418,8 +6421,8 @@
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="262"/>
-      <c r="E59" s="262"/>
+      <c r="D59" s="288"/>
+      <c r="E59" s="288"/>
       <c r="F59" s="28" t="s">
         <v>114</v>
       </c>
@@ -6458,8 +6461,8 @@
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="262"/>
-      <c r="E60" s="262"/>
+      <c r="D60" s="288"/>
+      <c r="E60" s="288"/>
       <c r="F60" s="28" t="s">
         <v>115</v>
       </c>
@@ -6498,8 +6501,8 @@
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="262"/>
-      <c r="E61" s="262"/>
+      <c r="D61" s="288"/>
+      <c r="E61" s="288"/>
       <c r="F61" s="28" t="s">
         <v>116</v>
       </c>
@@ -6538,8 +6541,8 @@
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="262"/>
-      <c r="E62" s="262"/>
+      <c r="D62" s="288"/>
+      <c r="E62" s="288"/>
       <c r="F62" s="28" t="s">
         <v>117</v>
       </c>
@@ -6572,8 +6575,8 @@
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="262"/>
-      <c r="E63" s="262"/>
+      <c r="D63" s="288"/>
+      <c r="E63" s="288"/>
       <c r="F63" s="28" t="s">
         <v>118</v>
       </c>
@@ -6612,8 +6615,8 @@
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="262"/>
-      <c r="E64" s="262"/>
+      <c r="D64" s="288"/>
+      <c r="E64" s="288"/>
       <c r="F64" s="28" t="s">
         <v>119</v>
       </c>
@@ -6652,8 +6655,8 @@
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="262"/>
-      <c r="E65" s="262"/>
+      <c r="D65" s="288"/>
+      <c r="E65" s="288"/>
       <c r="F65" s="28" t="s">
         <v>120</v>
       </c>
@@ -6692,8 +6695,8 @@
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="262"/>
-      <c r="E66" s="262"/>
+      <c r="D66" s="288"/>
+      <c r="E66" s="288"/>
       <c r="F66" s="28" t="s">
         <v>121</v>
       </c>
@@ -6732,8 +6735,8 @@
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="262"/>
-      <c r="E67" s="263"/>
+      <c r="D67" s="288"/>
+      <c r="E67" s="289"/>
       <c r="F67" s="28" t="s">
         <v>122</v>
       </c>
@@ -6772,17 +6775,17 @@
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="262"/>
-      <c r="E68" s="270" t="s">
+      <c r="D68" s="288"/>
+      <c r="E68" s="287" t="s">
         <v>123</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G68" s="23"/>
-      <c r="H68" s="258"/>
-      <c r="I68" s="259"/>
-      <c r="J68" s="260"/>
+      <c r="H68" s="284"/>
+      <c r="I68" s="285"/>
+      <c r="J68" s="286"/>
       <c r="K68" s="42"/>
       <c r="L68" s="25"/>
       <c r="M68" s="25"/>
@@ -6810,8 +6813,8 @@
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="262"/>
-      <c r="E69" s="262"/>
+      <c r="D69" s="288"/>
+      <c r="E69" s="288"/>
       <c r="F69" s="28" t="s">
         <v>124</v>
       </c>
@@ -6856,8 +6859,8 @@
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="263"/>
-      <c r="E70" s="263"/>
+      <c r="D70" s="289"/>
+      <c r="E70" s="289"/>
       <c r="F70" s="28" t="s">
         <v>125</v>
       </c>
@@ -6902,19 +6905,19 @@
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="270" t="s">
+      <c r="D71" s="287" t="s">
         <v>83</v>
       </c>
-      <c r="E71" s="270" t="s">
+      <c r="E71" s="287" t="s">
         <v>126</v>
       </c>
       <c r="F71" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G71" s="23"/>
-      <c r="H71" s="258"/>
-      <c r="I71" s="259"/>
-      <c r="J71" s="260"/>
+      <c r="H71" s="284"/>
+      <c r="I71" s="285"/>
+      <c r="J71" s="286"/>
       <c r="K71" s="42"/>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -6942,8 +6945,8 @@
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="262"/>
-      <c r="E72" s="262"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="288"/>
       <c r="F72" s="28" t="s">
         <v>110</v>
       </c>
@@ -6988,8 +6991,8 @@
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="262"/>
-      <c r="E73" s="262"/>
+      <c r="D73" s="288"/>
+      <c r="E73" s="288"/>
       <c r="F73" s="28" t="s">
         <v>130</v>
       </c>
@@ -7028,8 +7031,8 @@
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="262"/>
-      <c r="E74" s="262"/>
+      <c r="D74" s="288"/>
+      <c r="E74" s="288"/>
       <c r="F74" s="28" t="s">
         <v>131</v>
       </c>
@@ -7068,7 +7071,7 @@
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="279"/>
+      <c r="D75" s="309"/>
       <c r="E75" s="45"/>
       <c r="F75" s="28" t="s">
         <v>132</v>
@@ -7114,8 +7117,8 @@
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="262"/>
-      <c r="E76" s="272" t="s">
+      <c r="D76" s="288"/>
+      <c r="E76" s="302" t="s">
         <v>133</v>
       </c>
       <c r="F76" s="28" t="s">
@@ -7159,8 +7162,8 @@
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="262"/>
-      <c r="E77" s="262"/>
+      <c r="D77" s="288"/>
+      <c r="E77" s="288"/>
       <c r="F77" s="28" t="s">
         <v>135</v>
       </c>
@@ -7199,8 +7202,8 @@
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="263"/>
-      <c r="E78" s="263"/>
+      <c r="D78" s="289"/>
+      <c r="E78" s="289"/>
       <c r="F78" s="28" t="s">
         <v>136</v>
       </c>
@@ -7328,20 +7331,20 @@
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="273" t="s">
+      <c r="D81" s="303" t="s">
         <v>139</v>
       </c>
-      <c r="E81" s="274"/>
-      <c r="F81" s="274"/>
-      <c r="G81" s="274"/>
-      <c r="H81" s="274"/>
-      <c r="I81" s="274"/>
-      <c r="J81" s="274"/>
-      <c r="K81" s="274"/>
-      <c r="L81" s="274"/>
-      <c r="M81" s="274"/>
-      <c r="N81" s="274"/>
-      <c r="O81" s="275"/>
+      <c r="E81" s="304"/>
+      <c r="F81" s="304"/>
+      <c r="G81" s="304"/>
+      <c r="H81" s="304"/>
+      <c r="I81" s="304"/>
+      <c r="J81" s="304"/>
+      <c r="K81" s="304"/>
+      <c r="L81" s="304"/>
+      <c r="M81" s="304"/>
+      <c r="N81" s="304"/>
+      <c r="O81" s="305"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
       <c r="R81" s="16"/>
@@ -7402,19 +7405,19 @@
       <c r="A83" s="19"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="279" t="s">
+      <c r="D83" s="309" t="s">
         <v>142</v>
       </c>
-      <c r="E83" s="280" t="s">
+      <c r="E83" s="310" t="s">
         <v>66</v>
       </c>
       <c r="F83" s="63" t="s">
         <v>34</v>
       </c>
       <c r="G83" s="64"/>
-      <c r="H83" s="276"/>
-      <c r="I83" s="277"/>
-      <c r="J83" s="278"/>
+      <c r="H83" s="306"/>
+      <c r="I83" s="307"/>
+      <c r="J83" s="308"/>
       <c r="K83" s="65"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
@@ -7442,8 +7445,8 @@
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="262"/>
-      <c r="E84" s="262"/>
+      <c r="D84" s="288"/>
+      <c r="E84" s="288"/>
       <c r="F84" s="28" t="s">
         <v>143</v>
       </c>
@@ -7488,8 +7491,8 @@
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="262"/>
-      <c r="E85" s="262"/>
+      <c r="D85" s="288"/>
+      <c r="E85" s="288"/>
       <c r="F85" s="28" t="s">
         <v>130</v>
       </c>
@@ -7528,8 +7531,8 @@
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
-      <c r="D86" s="262"/>
-      <c r="E86" s="263"/>
+      <c r="D86" s="288"/>
+      <c r="E86" s="289"/>
       <c r="F86" s="28" t="s">
         <v>131</v>
       </c>
@@ -7568,17 +7571,17 @@
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="262"/>
-      <c r="E87" s="261" t="s">
+      <c r="D87" s="288"/>
+      <c r="E87" s="295" t="s">
         <v>144</v>
       </c>
       <c r="F87" s="34" t="s">
         <v>34</v>
       </c>
       <c r="G87" s="22"/>
-      <c r="H87" s="281"/>
-      <c r="I87" s="259"/>
-      <c r="J87" s="260"/>
+      <c r="H87" s="300"/>
+      <c r="I87" s="285"/>
+      <c r="J87" s="286"/>
       <c r="K87" s="23"/>
       <c r="L87" s="24"/>
       <c r="M87" s="24"/>
@@ -7606,8 +7609,8 @@
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="262"/>
-      <c r="E88" s="262"/>
+      <c r="D88" s="288"/>
+      <c r="E88" s="288"/>
       <c r="F88" s="67" t="s">
         <v>145</v>
       </c>
@@ -7634,8 +7637,8 @@
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="262"/>
-      <c r="E89" s="262"/>
+      <c r="D89" s="288"/>
+      <c r="E89" s="288"/>
       <c r="F89" s="28" t="s">
         <v>79</v>
       </c>
@@ -7674,8 +7677,8 @@
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="262"/>
-      <c r="E90" s="262"/>
+      <c r="D90" s="288"/>
+      <c r="E90" s="288"/>
       <c r="F90" s="28" t="s">
         <v>80</v>
       </c>
@@ -7714,8 +7717,8 @@
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="262"/>
-      <c r="E91" s="263"/>
+      <c r="D91" s="288"/>
+      <c r="E91" s="289"/>
       <c r="F91" s="28" t="s">
         <v>81</v>
       </c>
@@ -7754,7 +7757,7 @@
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="262"/>
+      <c r="D92" s="288"/>
       <c r="E92" s="74" t="s">
         <v>89</v>
       </c>
@@ -7796,7 +7799,7 @@
       <c r="A93" s="19"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="262"/>
+      <c r="D93" s="288"/>
       <c r="E93" s="74" t="s">
         <v>147</v>
       </c>
@@ -7838,17 +7841,17 @@
       <c r="A94" s="19"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="262"/>
-      <c r="E94" s="270" t="s">
+      <c r="D94" s="288"/>
+      <c r="E94" s="287" t="s">
         <v>102</v>
       </c>
       <c r="F94" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G94" s="23"/>
-      <c r="H94" s="258"/>
-      <c r="I94" s="259"/>
-      <c r="J94" s="260"/>
+      <c r="H94" s="284"/>
+      <c r="I94" s="285"/>
+      <c r="J94" s="286"/>
       <c r="K94" s="22"/>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -7876,8 +7879,8 @@
       <c r="A95" s="19"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="262"/>
-      <c r="E95" s="262"/>
+      <c r="D95" s="288"/>
+      <c r="E95" s="288"/>
       <c r="F95" s="49" t="s">
         <v>150</v>
       </c>
@@ -7916,8 +7919,8 @@
       <c r="A96" s="19"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
-      <c r="D96" s="262"/>
-      <c r="E96" s="262"/>
+      <c r="D96" s="288"/>
+      <c r="E96" s="288"/>
       <c r="F96" s="28" t="s">
         <v>151</v>
       </c>
@@ -7956,8 +7959,8 @@
       <c r="A97" s="19"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
-      <c r="D97" s="262"/>
-      <c r="E97" s="262"/>
+      <c r="D97" s="288"/>
+      <c r="E97" s="288"/>
       <c r="F97" s="28" t="s">
         <v>152</v>
       </c>
@@ -7996,8 +7999,8 @@
       <c r="A98" s="19"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
-      <c r="D98" s="262"/>
-      <c r="E98" s="263"/>
+      <c r="D98" s="288"/>
+      <c r="E98" s="289"/>
       <c r="F98" s="28" t="s">
         <v>153</v>
       </c>
@@ -8036,8 +8039,8 @@
       <c r="A99" s="19"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
-      <c r="D99" s="262"/>
-      <c r="E99" s="270" t="s">
+      <c r="D99" s="288"/>
+      <c r="E99" s="287" t="s">
         <v>154</v>
       </c>
       <c r="F99" s="21" t="s">
@@ -8074,8 +8077,8 @@
       <c r="A100" s="19"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
-      <c r="D100" s="262"/>
-      <c r="E100" s="262"/>
+      <c r="D100" s="288"/>
+      <c r="E100" s="288"/>
       <c r="F100" s="49" t="s">
         <v>110</v>
       </c>
@@ -8108,8 +8111,8 @@
       <c r="A101" s="19"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
-      <c r="D101" s="262"/>
-      <c r="E101" s="262"/>
+      <c r="D101" s="288"/>
+      <c r="E101" s="288"/>
       <c r="F101" s="49" t="s">
         <v>155</v>
       </c>
@@ -8142,8 +8145,8 @@
       <c r="A102" s="19"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
-      <c r="D102" s="262"/>
-      <c r="E102" s="262"/>
+      <c r="D102" s="288"/>
+      <c r="E102" s="288"/>
       <c r="F102" s="28" t="s">
         <v>156</v>
       </c>
@@ -8188,8 +8191,8 @@
       <c r="A103" s="19"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
-      <c r="D103" s="262"/>
-      <c r="E103" s="262"/>
+      <c r="D103" s="288"/>
+      <c r="E103" s="288"/>
       <c r="F103" s="28" t="s">
         <v>157</v>
       </c>
@@ -8228,8 +8231,8 @@
       <c r="A104" s="19"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
-      <c r="D104" s="262"/>
-      <c r="E104" s="262"/>
+      <c r="D104" s="288"/>
+      <c r="E104" s="288"/>
       <c r="F104" s="28" t="s">
         <v>158</v>
       </c>
@@ -8268,8 +8271,8 @@
       <c r="A105" s="19"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="262"/>
-      <c r="E105" s="262"/>
+      <c r="D105" s="288"/>
+      <c r="E105" s="288"/>
       <c r="F105" s="28" t="s">
         <v>159</v>
       </c>
@@ -8308,8 +8311,8 @@
       <c r="A106" s="19"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="262"/>
-      <c r="E106" s="262"/>
+      <c r="D106" s="288"/>
+      <c r="E106" s="288"/>
       <c r="F106" s="28" t="s">
         <v>115</v>
       </c>
@@ -8348,8 +8351,8 @@
       <c r="A107" s="19"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="262"/>
-      <c r="E107" s="262"/>
+      <c r="D107" s="288"/>
+      <c r="E107" s="288"/>
       <c r="F107" s="28" t="s">
         <v>116</v>
       </c>
@@ -8388,8 +8391,8 @@
       <c r="A108" s="19"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="262"/>
-      <c r="E108" s="262"/>
+      <c r="D108" s="288"/>
+      <c r="E108" s="288"/>
       <c r="F108" s="28" t="s">
         <v>114</v>
       </c>
@@ -8428,8 +8431,8 @@
       <c r="A109" s="19"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="262"/>
-      <c r="E109" s="262"/>
+      <c r="D109" s="288"/>
+      <c r="E109" s="288"/>
       <c r="F109" s="28" t="s">
         <v>160</v>
       </c>
@@ -8468,17 +8471,17 @@
       <c r="A110" s="19"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="262"/>
-      <c r="E110" s="270" t="s">
+      <c r="D110" s="288"/>
+      <c r="E110" s="287" t="s">
         <v>126</v>
       </c>
       <c r="F110" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G110" s="23"/>
-      <c r="H110" s="258"/>
-      <c r="I110" s="259"/>
-      <c r="J110" s="260"/>
+      <c r="H110" s="284"/>
+      <c r="I110" s="285"/>
+      <c r="J110" s="286"/>
       <c r="K110" s="42"/>
       <c r="L110" s="25"/>
       <c r="M110" s="25"/>
@@ -8506,8 +8509,8 @@
       <c r="A111" s="19"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
-      <c r="D111" s="262"/>
-      <c r="E111" s="262"/>
+      <c r="D111" s="288"/>
+      <c r="E111" s="288"/>
       <c r="F111" s="28" t="s">
         <v>110</v>
       </c>
@@ -8540,8 +8543,8 @@
       <c r="A112" s="19"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="262"/>
-      <c r="E112" s="262"/>
+      <c r="D112" s="288"/>
+      <c r="E112" s="288"/>
       <c r="F112" s="28" t="s">
         <v>130</v>
       </c>
@@ -8580,8 +8583,8 @@
       <c r="A113" s="19"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
-      <c r="D113" s="263"/>
-      <c r="E113" s="262"/>
+      <c r="D113" s="289"/>
+      <c r="E113" s="288"/>
       <c r="F113" s="28" t="s">
         <v>131</v>
       </c>
@@ -8620,19 +8623,19 @@
       <c r="A114" s="19"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="270" t="s">
+      <c r="D114" s="287" t="s">
         <v>86</v>
       </c>
-      <c r="E114" s="270" t="s">
+      <c r="E114" s="287" t="s">
         <v>161</v>
       </c>
       <c r="F114" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G114" s="23"/>
-      <c r="H114" s="258"/>
-      <c r="I114" s="259"/>
-      <c r="J114" s="260"/>
+      <c r="H114" s="284"/>
+      <c r="I114" s="285"/>
+      <c r="J114" s="286"/>
       <c r="K114" s="42"/>
       <c r="L114" s="25"/>
       <c r="M114" s="25"/>
@@ -8660,8 +8663,8 @@
       <c r="A115" s="19"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
-      <c r="D115" s="262"/>
-      <c r="E115" s="262"/>
+      <c r="D115" s="288"/>
+      <c r="E115" s="288"/>
       <c r="F115" s="28" t="s">
         <v>162</v>
       </c>
@@ -8706,8 +8709,8 @@
       <c r="A116" s="19"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="262"/>
-      <c r="E116" s="263"/>
+      <c r="D116" s="288"/>
+      <c r="E116" s="289"/>
       <c r="F116" s="28" t="s">
         <v>164</v>
       </c>
@@ -8752,17 +8755,17 @@
       <c r="A117" s="19"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
-      <c r="D117" s="262"/>
-      <c r="E117" s="271" t="s">
+      <c r="D117" s="288"/>
+      <c r="E117" s="315" t="s">
         <v>165</v>
       </c>
       <c r="F117" s="21" t="s">
         <v>166</v>
       </c>
       <c r="G117" s="19"/>
-      <c r="H117" s="258"/>
-      <c r="I117" s="259"/>
-      <c r="J117" s="260"/>
+      <c r="H117" s="284"/>
+      <c r="I117" s="285"/>
+      <c r="J117" s="286"/>
       <c r="K117" s="42"/>
       <c r="L117" s="25"/>
       <c r="M117" s="25"/>
@@ -8790,8 +8793,8 @@
       <c r="A118" s="19"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
-      <c r="D118" s="262"/>
-      <c r="E118" s="262"/>
+      <c r="D118" s="288"/>
+      <c r="E118" s="288"/>
       <c r="F118" s="28" t="s">
         <v>167</v>
       </c>
@@ -8836,8 +8839,8 @@
       <c r="A119" s="19"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="262"/>
-      <c r="E119" s="263"/>
+      <c r="D119" s="288"/>
+      <c r="E119" s="289"/>
       <c r="F119" s="28" t="s">
         <v>168</v>
       </c>
@@ -8882,17 +8885,17 @@
       <c r="A120" s="19"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
-      <c r="D120" s="262"/>
-      <c r="E120" s="271" t="s">
+      <c r="D120" s="288"/>
+      <c r="E120" s="315" t="s">
         <v>169</v>
       </c>
       <c r="F120" s="78" t="s">
         <v>34</v>
       </c>
       <c r="G120" s="79"/>
-      <c r="H120" s="258"/>
-      <c r="I120" s="259"/>
-      <c r="J120" s="260"/>
+      <c r="H120" s="284"/>
+      <c r="I120" s="285"/>
+      <c r="J120" s="286"/>
       <c r="K120" s="80"/>
       <c r="L120" s="81"/>
       <c r="M120" s="81"/>
@@ -8920,8 +8923,8 @@
       <c r="A121" s="19"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
-      <c r="D121" s="262"/>
-      <c r="E121" s="262"/>
+      <c r="D121" s="288"/>
+      <c r="E121" s="288"/>
       <c r="F121" s="49" t="s">
         <v>170</v>
       </c>
@@ -8966,8 +8969,8 @@
       <c r="A122" s="19"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
-      <c r="D122" s="262"/>
-      <c r="E122" s="262"/>
+      <c r="D122" s="288"/>
+      <c r="E122" s="288"/>
       <c r="F122" s="49" t="s">
         <v>171</v>
       </c>
@@ -9012,8 +9015,8 @@
       <c r="A123" s="19"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
-      <c r="D123" s="262"/>
-      <c r="E123" s="262"/>
+      <c r="D123" s="288"/>
+      <c r="E123" s="288"/>
       <c r="F123" s="49" t="s">
         <v>172</v>
       </c>
@@ -9058,8 +9061,8 @@
       <c r="A124" s="19"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
-      <c r="D124" s="262"/>
-      <c r="E124" s="262"/>
+      <c r="D124" s="288"/>
+      <c r="E124" s="288"/>
       <c r="F124" s="49" t="s">
         <v>173</v>
       </c>
@@ -9104,8 +9107,8 @@
       <c r="A125" s="19"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
-      <c r="D125" s="262"/>
-      <c r="E125" s="262"/>
+      <c r="D125" s="288"/>
+      <c r="E125" s="288"/>
       <c r="F125" s="49" t="s">
         <v>174</v>
       </c>
@@ -9150,8 +9153,8 @@
       <c r="A126" s="19"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
-      <c r="D126" s="262"/>
-      <c r="E126" s="262"/>
+      <c r="D126" s="288"/>
+      <c r="E126" s="288"/>
       <c r="F126" s="49" t="s">
         <v>175</v>
       </c>
@@ -9196,8 +9199,8 @@
       <c r="A127" s="19"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
-      <c r="D127" s="262"/>
-      <c r="E127" s="262"/>
+      <c r="D127" s="288"/>
+      <c r="E127" s="288"/>
       <c r="F127" s="49" t="s">
         <v>176</v>
       </c>
@@ -9242,8 +9245,8 @@
       <c r="A128" s="19"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
-      <c r="D128" s="262"/>
-      <c r="E128" s="263"/>
+      <c r="D128" s="288"/>
+      <c r="E128" s="289"/>
       <c r="F128" s="49" t="s">
         <v>177</v>
       </c>
@@ -9288,20 +9291,20 @@
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
-      <c r="D129" s="264" t="s">
+      <c r="D129" s="311" t="s">
         <v>178</v>
       </c>
-      <c r="E129" s="265"/>
-      <c r="F129" s="265"/>
-      <c r="G129" s="265"/>
-      <c r="H129" s="265"/>
-      <c r="I129" s="265"/>
-      <c r="J129" s="265"/>
-      <c r="K129" s="265"/>
-      <c r="L129" s="265"/>
-      <c r="M129" s="265"/>
-      <c r="N129" s="265"/>
-      <c r="O129" s="266"/>
+      <c r="E129" s="312"/>
+      <c r="F129" s="312"/>
+      <c r="G129" s="312"/>
+      <c r="H129" s="312"/>
+      <c r="I129" s="312"/>
+      <c r="J129" s="312"/>
+      <c r="K129" s="312"/>
+      <c r="L129" s="312"/>
+      <c r="M129" s="312"/>
+      <c r="N129" s="312"/>
+      <c r="O129" s="313"/>
       <c r="P129" s="82"/>
       <c r="Q129" s="82"/>
       <c r="R129" s="16"/>
@@ -9322,18 +9325,18 @@
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
-      <c r="D130" s="267"/>
-      <c r="E130" s="268"/>
-      <c r="F130" s="268"/>
-      <c r="G130" s="268"/>
-      <c r="H130" s="268"/>
-      <c r="I130" s="268"/>
-      <c r="J130" s="268"/>
-      <c r="K130" s="268"/>
-      <c r="L130" s="268"/>
-      <c r="M130" s="268"/>
-      <c r="N130" s="268"/>
-      <c r="O130" s="269"/>
+      <c r="D130" s="314"/>
+      <c r="E130" s="293"/>
+      <c r="F130" s="293"/>
+      <c r="G130" s="293"/>
+      <c r="H130" s="293"/>
+      <c r="I130" s="293"/>
+      <c r="J130" s="293"/>
+      <c r="K130" s="293"/>
+      <c r="L130" s="293"/>
+      <c r="M130" s="293"/>
+      <c r="N130" s="293"/>
+      <c r="O130" s="294"/>
       <c r="P130" s="82"/>
       <c r="Q130" s="82"/>
       <c r="R130" s="16"/>
@@ -17000,20 +17003,45 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D129:O130"/>
+    <mergeCell ref="D114:D128"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="E120:E128"/>
+    <mergeCell ref="D54:D70"/>
+    <mergeCell ref="E54:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="D81:O81"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="E71:E74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="D83:D113"/>
+    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="E94:E98"/>
+    <mergeCell ref="E99:E109"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H38:J38"/>
     <mergeCell ref="D38:D42"/>
     <mergeCell ref="E38:E42"/>
     <mergeCell ref="X4:X5"/>
@@ -17030,45 +17058,20 @@
     <mergeCell ref="E24:E29"/>
     <mergeCell ref="E30:E37"/>
     <mergeCell ref="T4:T5"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="D81:O81"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="E71:E74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D71:D74"/>
-    <mergeCell ref="D83:D113"/>
-    <mergeCell ref="E83:E86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="E94:E98"/>
-    <mergeCell ref="E99:E109"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="D54:D70"/>
-    <mergeCell ref="E54:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D129:O130"/>
-    <mergeCell ref="D114:D128"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="E120:E128"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -17084,8 +17087,8 @@
   <dimension ref="A1:X313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="5" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17108,14 +17111,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="290" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
       <c r="G1" s="1"/>
       <c r="H1" s="86" t="s">
         <v>179</v>
@@ -17150,12 +17153,12 @@
       <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A2" s="286"/>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
+      <c r="A2" s="291"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
       <c r="G2" s="1"/>
       <c r="H2" s="86" t="s">
         <v>483</v>
@@ -17167,12 +17170,12 @@
         <v>485</v>
       </c>
       <c r="K2" s="1"/>
-      <c r="L2" s="290" t="s">
+      <c r="L2" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="291"/>
-      <c r="N2" s="291"/>
-      <c r="O2" s="292"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="6"/>
@@ -17184,12 +17187,12 @@
       <c r="X2" s="6"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A3" s="286"/>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
+      <c r="A3" s="291"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
       <c r="G3" s="1"/>
       <c r="H3" s="90" t="s">
         <v>182</v>
@@ -17216,67 +17219,67 @@
       <c r="X3" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A4" s="287" t="s">
+      <c r="A4" s="283" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="287" t="s">
+      <c r="C4" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="291"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="287" t="s">
+      <c r="H4" s="283" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="287" t="s">
+      <c r="I4" s="283" t="s">
         <v>459</v>
       </c>
-      <c r="J4" s="287" t="s">
+      <c r="J4" s="283" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="L4" s="287" t="s">
+      <c r="L4" s="283" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="287" t="s">
+      <c r="M4" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="287" t="s">
+      <c r="N4" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="287" t="s">
+      <c r="O4" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="287" t="s">
+      <c r="P4" s="283" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="287" t="s">
+      <c r="Q4" s="283" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="6"/>
-      <c r="S4" s="283" t="s">
+      <c r="S4" s="281" t="s">
         <v>185</v>
       </c>
-      <c r="T4" s="287" t="s">
+      <c r="T4" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="283" t="s">
+      <c r="U4" s="281" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="287" t="s">
+      <c r="V4" s="283" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="287" t="s">
+      <c r="W4" s="283" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="283" t="s">
+      <c r="X4" s="281" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="16.5" customHeight="1">
-      <c r="A5" s="317"/>
+      <c r="A5" s="334"/>
       <c r="B5" s="92"/>
       <c r="C5" s="92" t="s">
         <v>23</v>
@@ -17291,23 +17294,23 @@
         <v>26</v>
       </c>
       <c r="G5" s="92"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
       <c r="K5" s="93"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317"/>
-      <c r="O5" s="317"/>
-      <c r="P5" s="317"/>
-      <c r="Q5" s="317"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="334"/>
+      <c r="N5" s="334"/>
+      <c r="O5" s="334"/>
+      <c r="P5" s="334"/>
+      <c r="Q5" s="334"/>
       <c r="R5" s="94"/>
-      <c r="S5" s="317"/>
-      <c r="T5" s="317"/>
-      <c r="U5" s="317"/>
-      <c r="V5" s="317"/>
-      <c r="W5" s="317"/>
-      <c r="X5" s="317"/>
+      <c r="S5" s="334"/>
+      <c r="T5" s="334"/>
+      <c r="U5" s="334"/>
+      <c r="V5" s="334"/>
+      <c r="W5" s="334"/>
+      <c r="X5" s="334"/>
     </row>
     <row r="6" spans="1:24" ht="16.5" customHeight="1">
       <c r="A6" s="16"/>
@@ -17338,14 +17341,14 @@
     <row r="7" spans="1:24" ht="16.5" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="145"/>
-      <c r="C7" s="354"/>
-      <c r="D7" s="355" t="s">
+      <c r="C7" s="352"/>
+      <c r="D7" s="268" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="355" t="s">
+      <c r="E7" s="268" t="s">
         <v>188</v>
       </c>
-      <c r="F7" s="356" t="s">
+      <c r="F7" s="269" t="s">
         <v>189</v>
       </c>
       <c r="G7" s="159"/>
@@ -17382,11 +17385,11 @@
     <row r="8" spans="1:24" s="147" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="148"/>
       <c r="B8" s="145"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="355" t="s">
+      <c r="C8" s="352"/>
+      <c r="D8" s="268" t="s">
         <v>442</v>
       </c>
-      <c r="E8" s="355" t="s">
+      <c r="E8" s="268" t="s">
         <v>441</v>
       </c>
       <c r="F8" s="218" t="s">
@@ -17426,9 +17429,9 @@
     <row r="9" spans="1:24" ht="16.5" customHeight="1">
       <c r="A9" s="103"/>
       <c r="B9" s="103"/>
-      <c r="C9" s="357"/>
-      <c r="D9" s="294"/>
-      <c r="E9" s="299" t="s">
+      <c r="C9" s="353"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="316" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="184" t="s">
@@ -17468,10 +17471,10 @@
     <row r="10" spans="1:24" ht="16.5" customHeight="1">
       <c r="A10" s="103"/>
       <c r="B10" s="103"/>
-      <c r="C10" s="357"/>
-      <c r="D10" s="294"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="358" t="s">
+      <c r="C10" s="353"/>
+      <c r="D10" s="317"/>
+      <c r="E10" s="317"/>
+      <c r="F10" s="270" t="s">
         <v>193</v>
       </c>
       <c r="G10" s="159"/>
@@ -17508,10 +17511,10 @@
     <row r="11" spans="1:24" ht="16.5" customHeight="1">
       <c r="A11" s="103"/>
       <c r="B11" s="103"/>
-      <c r="C11" s="357"/>
-      <c r="D11" s="294"/>
-      <c r="E11" s="294"/>
-      <c r="F11" s="359" t="s">
+      <c r="C11" s="353"/>
+      <c r="D11" s="317"/>
+      <c r="E11" s="317"/>
+      <c r="F11" s="271" t="s">
         <v>194</v>
       </c>
       <c r="G11" s="159"/>
@@ -17548,35 +17551,35 @@
     <row r="12" spans="1:24" ht="16.5" customHeight="1">
       <c r="A12" s="83"/>
       <c r="B12" s="83"/>
-      <c r="C12" s="357"/>
-      <c r="D12" s="299" t="s">
+      <c r="C12" s="353"/>
+      <c r="D12" s="316" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="306" t="s">
+      <c r="E12" s="336" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="360" t="s">
+      <c r="F12" s="272" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="342"/>
-      <c r="H12" s="339" t="s">
+      <c r="G12" s="263"/>
+      <c r="H12" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="339" t="s">
+      <c r="I12" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="342"/>
-      <c r="K12" s="342"/>
-      <c r="L12" s="343" t="s">
+      <c r="J12" s="263"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="M12" s="343" t="s">
+      <c r="M12" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="N12" s="343" t="s">
+      <c r="N12" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="O12" s="343"/>
+      <c r="O12" s="264"/>
       <c r="P12" s="85"/>
       <c r="Q12" s="85"/>
       <c r="R12" s="16"/>
@@ -17590,31 +17593,31 @@
     <row r="13" spans="1:24" ht="16.5" customHeight="1">
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
-      <c r="C13" s="357"/>
-      <c r="D13" s="294"/>
-      <c r="E13" s="294"/>
-      <c r="F13" s="360" t="s">
+      <c r="C13" s="353"/>
+      <c r="D13" s="317"/>
+      <c r="E13" s="317"/>
+      <c r="F13" s="272" t="s">
         <v>198</v>
       </c>
-      <c r="G13" s="342"/>
-      <c r="H13" s="339" t="s">
+      <c r="G13" s="263"/>
+      <c r="H13" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="339" t="s">
+      <c r="I13" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="342"/>
-      <c r="K13" s="342"/>
-      <c r="L13" s="343" t="s">
+      <c r="J13" s="263"/>
+      <c r="K13" s="263"/>
+      <c r="L13" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="M13" s="343" t="s">
+      <c r="M13" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="N13" s="343" t="s">
+      <c r="N13" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="O13" s="343"/>
+      <c r="O13" s="264"/>
       <c r="P13" s="85"/>
       <c r="Q13" s="85"/>
       <c r="R13" s="16"/>
@@ -17628,31 +17631,31 @@
     <row r="14" spans="1:24" ht="16.5" customHeight="1">
       <c r="A14" s="83"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="357"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="294"/>
-      <c r="F14" s="360" t="s">
+      <c r="C14" s="353"/>
+      <c r="D14" s="317"/>
+      <c r="E14" s="317"/>
+      <c r="F14" s="272" t="s">
         <v>199</v>
       </c>
-      <c r="G14" s="342"/>
-      <c r="H14" s="339" t="s">
+      <c r="G14" s="263"/>
+      <c r="H14" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="339" t="s">
+      <c r="I14" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="342"/>
-      <c r="K14" s="342"/>
-      <c r="L14" s="343" t="s">
+      <c r="J14" s="263"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="M14" s="343" t="s">
+      <c r="M14" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="N14" s="343" t="s">
+      <c r="N14" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="O14" s="343"/>
+      <c r="O14" s="264"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="85"/>
       <c r="R14" s="16"/>
@@ -17666,31 +17669,31 @@
     <row r="15" spans="1:24" ht="16.5" customHeight="1">
       <c r="A15" s="83"/>
       <c r="B15" s="83"/>
-      <c r="C15" s="357"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="360" t="s">
+      <c r="C15" s="353"/>
+      <c r="D15" s="317"/>
+      <c r="E15" s="317"/>
+      <c r="F15" s="272" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="342"/>
-      <c r="H15" s="339" t="s">
+      <c r="G15" s="263"/>
+      <c r="H15" s="261" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="339" t="s">
+      <c r="I15" s="261" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="342"/>
-      <c r="K15" s="342"/>
-      <c r="L15" s="343" t="s">
+      <c r="J15" s="263"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="M15" s="343" t="s">
+      <c r="M15" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="N15" s="343" t="s">
+      <c r="N15" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="O15" s="343"/>
+      <c r="O15" s="264"/>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
       <c r="R15" s="16"/>
@@ -17704,31 +17707,31 @@
     <row r="16" spans="1:24" ht="16.5" customHeight="1">
       <c r="A16" s="83"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="357"/>
-      <c r="D16" s="294"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="360" t="s">
+      <c r="C16" s="353"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="318"/>
+      <c r="F16" s="272" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="342"/>
-      <c r="H16" s="339" t="s">
+      <c r="G16" s="263"/>
+      <c r="H16" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="339" t="s">
+      <c r="I16" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="342"/>
-      <c r="K16" s="342"/>
-      <c r="L16" s="343" t="s">
+      <c r="J16" s="263"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="M16" s="343" t="s">
+      <c r="M16" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="N16" s="343" t="s">
+      <c r="N16" s="264" t="s">
         <v>493</v>
       </c>
-      <c r="O16" s="343"/>
+      <c r="O16" s="264"/>
       <c r="P16" s="85"/>
       <c r="Q16" s="85"/>
       <c r="R16" s="16"/>
@@ -17742,12 +17745,12 @@
     <row r="17" spans="1:24" ht="16.5" customHeight="1">
       <c r="A17" s="83"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="357"/>
-      <c r="D17" s="294"/>
-      <c r="E17" s="299" t="s">
+      <c r="C17" s="353"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="316" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="361" t="s">
+      <c r="F17" s="273" t="s">
         <v>197</v>
       </c>
       <c r="G17" s="102"/>
@@ -17774,10 +17777,10 @@
     <row r="18" spans="1:24" ht="16.5" customHeight="1">
       <c r="A18" s="83"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="357"/>
-      <c r="D18" s="294"/>
-      <c r="E18" s="294"/>
-      <c r="F18" s="361" t="s">
+      <c r="C18" s="353"/>
+      <c r="D18" s="317"/>
+      <c r="E18" s="317"/>
+      <c r="F18" s="273" t="s">
         <v>198</v>
       </c>
       <c r="G18" s="102"/>
@@ -17804,10 +17807,10 @@
     <row r="19" spans="1:24" ht="16.5" customHeight="1">
       <c r="A19" s="83"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="357"/>
-      <c r="D19" s="294"/>
-      <c r="E19" s="294"/>
-      <c r="F19" s="361" t="s">
+      <c r="C19" s="353"/>
+      <c r="D19" s="317"/>
+      <c r="E19" s="317"/>
+      <c r="F19" s="273" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="102"/>
@@ -17834,10 +17837,10 @@
     <row r="20" spans="1:24" ht="16.5" customHeight="1">
       <c r="A20" s="83"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="357"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="294"/>
-      <c r="F20" s="361" t="s">
+      <c r="C20" s="353"/>
+      <c r="D20" s="317"/>
+      <c r="E20" s="317"/>
+      <c r="F20" s="273" t="s">
         <v>200</v>
       </c>
       <c r="G20" s="102"/>
@@ -17864,10 +17867,10 @@
     <row r="21" spans="1:24" ht="16.5" customHeight="1">
       <c r="A21" s="83"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="357"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="295"/>
-      <c r="F21" s="361" t="s">
+      <c r="C21" s="353"/>
+      <c r="D21" s="317"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="273" t="s">
         <v>201</v>
       </c>
       <c r="G21" s="102"/>
@@ -17894,11 +17897,11 @@
     <row r="22" spans="1:24" ht="16.5" customHeight="1">
       <c r="A22" s="83"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="296"/>
-      <c r="D22" s="362" t="s">
+      <c r="C22" s="320"/>
+      <c r="D22" s="335" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="363" t="s">
+      <c r="E22" s="274" t="s">
         <v>202</v>
       </c>
       <c r="F22" s="174"/>
@@ -17926,8 +17929,8 @@
     <row r="23" spans="1:24" ht="16.5" customHeight="1">
       <c r="A23" s="83"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
       <c r="E23" s="174" t="s">
         <v>203</v>
       </c>
@@ -17956,14 +17959,14 @@
     <row r="24" spans="1:24" ht="16.5" customHeight="1">
       <c r="A24" s="103"/>
       <c r="B24" s="103"/>
-      <c r="C24" s="296" t="s">
+      <c r="C24" s="320" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="299"/>
-      <c r="E24" s="306" t="s">
+      <c r="D24" s="316"/>
+      <c r="E24" s="336" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="364" t="s">
+      <c r="F24" s="275" t="s">
         <v>206</v>
       </c>
       <c r="G24" s="155"/>
@@ -17990,10 +17993,10 @@
     <row r="25" spans="1:24" ht="16.5" customHeight="1">
       <c r="A25" s="83"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="293"/>
-      <c r="F25" s="365" t="s">
+      <c r="C25" s="317"/>
+      <c r="D25" s="317"/>
+      <c r="E25" s="319"/>
+      <c r="F25" s="276" t="s">
         <v>207</v>
       </c>
       <c r="G25" s="151"/>
@@ -18030,10 +18033,10 @@
     <row r="26" spans="1:24" ht="24">
       <c r="A26" s="83"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="293"/>
-      <c r="F26" s="366" t="s">
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="277" t="s">
         <v>208</v>
       </c>
       <c r="G26" s="151"/>
@@ -18070,10 +18073,10 @@
     <row r="27" spans="1:24" ht="24">
       <c r="A27" s="83"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
-      <c r="E27" s="293"/>
-      <c r="F27" s="366" t="s">
+      <c r="C27" s="317"/>
+      <c r="D27" s="317"/>
+      <c r="E27" s="319"/>
+      <c r="F27" s="277" t="s">
         <v>209</v>
       </c>
       <c r="G27" s="151"/>
@@ -18110,31 +18113,29 @@
     <row r="28" spans="1:24" s="143" customFormat="1" ht="24">
       <c r="A28" s="135"/>
       <c r="B28" s="135"/>
-      <c r="C28" s="294"/>
+      <c r="C28" s="317"/>
       <c r="D28" s="241"/>
-      <c r="E28" s="293"/>
-      <c r="F28" s="367" t="s">
+      <c r="E28" s="319"/>
+      <c r="F28" s="278" t="s">
         <v>500</v>
       </c>
-      <c r="G28" s="335"/>
-      <c r="H28" s="336" t="s">
+      <c r="G28" s="258"/>
+      <c r="H28" s="259" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="336"/>
-      <c r="J28" s="335"/>
-      <c r="K28" s="335"/>
-      <c r="L28" s="337" t="s">
+      <c r="I28" s="259"/>
+      <c r="J28" s="258"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="260" t="s">
         <v>427</v>
       </c>
-      <c r="M28" s="337" t="s">
+      <c r="M28" s="260" t="s">
         <v>427</v>
       </c>
-      <c r="N28" s="337" t="s">
+      <c r="N28" s="260" t="s">
         <v>427</v>
       </c>
-      <c r="O28" s="337" t="s">
-        <v>493</v>
-      </c>
+      <c r="O28" s="260"/>
       <c r="P28" s="85"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="144"/>
@@ -18148,10 +18149,10 @@
     <row r="29" spans="1:24" s="156" customFormat="1" ht="13.5">
       <c r="A29" s="135"/>
       <c r="B29" s="135"/>
-      <c r="C29" s="294"/>
+      <c r="C29" s="317"/>
       <c r="D29" s="241"/>
-      <c r="E29" s="293"/>
-      <c r="F29" s="366" t="s">
+      <c r="E29" s="319"/>
+      <c r="F29" s="277" t="s">
         <v>501</v>
       </c>
       <c r="G29" s="151"/>
@@ -18188,10 +18189,10 @@
     <row r="30" spans="1:24" s="143" customFormat="1" ht="24">
       <c r="A30" s="135"/>
       <c r="B30" s="135"/>
-      <c r="C30" s="294"/>
+      <c r="C30" s="317"/>
       <c r="D30" s="241"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="366" t="s">
+      <c r="E30" s="319"/>
+      <c r="F30" s="277" t="s">
         <v>502</v>
       </c>
       <c r="G30" s="151"/>
@@ -18228,10 +18229,10 @@
     <row r="31" spans="1:24" s="164" customFormat="1" ht="60">
       <c r="A31" s="135"/>
       <c r="B31" s="135"/>
-      <c r="C31" s="294"/>
+      <c r="C31" s="317"/>
       <c r="D31" s="241"/>
-      <c r="E31" s="310"/>
-      <c r="F31" s="366" t="s">
+      <c r="E31" s="337"/>
+      <c r="F31" s="277" t="s">
         <v>503</v>
       </c>
       <c r="G31" s="151"/>
@@ -18268,12 +18269,12 @@
     <row r="32" spans="1:24" ht="16.5" customHeight="1">
       <c r="A32" s="83"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="294"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299" t="s">
+      <c r="C32" s="317"/>
+      <c r="D32" s="316"/>
+      <c r="E32" s="316" t="s">
         <v>210</v>
       </c>
-      <c r="F32" s="368" t="s">
+      <c r="F32" s="279" t="s">
         <v>211</v>
       </c>
       <c r="G32" s="153"/>
@@ -18310,10 +18311,10 @@
     <row r="33" spans="1:24" ht="12.75">
       <c r="A33" s="83"/>
       <c r="B33" s="83"/>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
-      <c r="E33" s="294"/>
-      <c r="F33" s="368" t="s">
+      <c r="C33" s="317"/>
+      <c r="D33" s="317"/>
+      <c r="E33" s="317"/>
+      <c r="F33" s="279" t="s">
         <v>212</v>
       </c>
       <c r="G33" s="153"/>
@@ -18350,10 +18351,10 @@
     <row r="34" spans="1:24" ht="24">
       <c r="A34" s="83"/>
       <c r="B34" s="83"/>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="368" t="s">
+      <c r="C34" s="317"/>
+      <c r="D34" s="317"/>
+      <c r="E34" s="317"/>
+      <c r="F34" s="279" t="s">
         <v>213</v>
       </c>
       <c r="G34" s="153"/>
@@ -18390,10 +18391,10 @@
     <row r="35" spans="1:24" s="156" customFormat="1" ht="12.75">
       <c r="A35" s="135"/>
       <c r="B35" s="135"/>
-      <c r="C35" s="294"/>
-      <c r="D35" s="294"/>
-      <c r="E35" s="294"/>
-      <c r="F35" s="368" t="s">
+      <c r="C35" s="317"/>
+      <c r="D35" s="317"/>
+      <c r="E35" s="317"/>
+      <c r="F35" s="279" t="s">
         <v>504</v>
       </c>
       <c r="G35" s="153"/>
@@ -18430,10 +18431,10 @@
     <row r="36" spans="1:24" s="164" customFormat="1" ht="60">
       <c r="A36" s="135"/>
       <c r="B36" s="135"/>
-      <c r="C36" s="294"/>
-      <c r="D36" s="294"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="368" t="s">
+      <c r="C36" s="317"/>
+      <c r="D36" s="317"/>
+      <c r="E36" s="317"/>
+      <c r="F36" s="279" t="s">
         <v>505</v>
       </c>
       <c r="G36" s="153"/>
@@ -18470,10 +18471,10 @@
     <row r="37" spans="1:24" ht="24">
       <c r="A37" s="83"/>
       <c r="B37" s="83"/>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
-      <c r="E37" s="294"/>
-      <c r="F37" s="368" t="s">
+      <c r="C37" s="317"/>
+      <c r="D37" s="317"/>
+      <c r="E37" s="317"/>
+      <c r="F37" s="279" t="s">
         <v>214</v>
       </c>
       <c r="G37" s="153"/>
@@ -18510,12 +18511,12 @@
     <row r="38" spans="1:24" ht="24">
       <c r="A38" s="83"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299" t="s">
+      <c r="C38" s="317"/>
+      <c r="D38" s="316"/>
+      <c r="E38" s="316" t="s">
         <v>215</v>
       </c>
-      <c r="F38" s="369" t="s">
+      <c r="F38" s="280" t="s">
         <v>216</v>
       </c>
       <c r="G38" s="107"/>
@@ -18542,10 +18543,10 @@
     <row r="39" spans="1:24" ht="12.75">
       <c r="A39" s="83"/>
       <c r="B39" s="83"/>
-      <c r="C39" s="294"/>
-      <c r="D39" s="294"/>
-      <c r="E39" s="294"/>
-      <c r="F39" s="368" t="s">
+      <c r="C39" s="317"/>
+      <c r="D39" s="317"/>
+      <c r="E39" s="317"/>
+      <c r="F39" s="279" t="s">
         <v>217</v>
       </c>
       <c r="G39" s="153"/>
@@ -18555,16 +18556,16 @@
       <c r="I39" s="154"/>
       <c r="J39" s="153"/>
       <c r="K39" s="153"/>
-      <c r="L39" s="341" t="s">
+      <c r="L39" s="262" t="s">
         <v>495</v>
       </c>
-      <c r="M39" s="341" t="s">
+      <c r="M39" s="262" t="s">
         <v>495</v>
       </c>
-      <c r="N39" s="341" t="s">
+      <c r="N39" s="262" t="s">
         <v>495</v>
       </c>
-      <c r="O39" s="341" t="s">
+      <c r="O39" s="262" t="s">
         <v>495</v>
       </c>
       <c r="P39" s="85"/>
@@ -18580,33 +18581,35 @@
     <row r="40" spans="1:24" ht="12.75">
       <c r="A40" s="83"/>
       <c r="B40" s="83"/>
-      <c r="C40" s="294"/>
+      <c r="C40" s="317"/>
       <c r="D40" s="240"/>
       <c r="E40" s="240" t="s">
         <v>492</v>
       </c>
-      <c r="F40" s="370" t="s">
+      <c r="F40" s="279" t="s">
         <v>506</v>
       </c>
-      <c r="G40" s="338"/>
-      <c r="H40" s="339" t="s">
+      <c r="G40" s="153"/>
+      <c r="H40" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="339" t="s">
+      <c r="I40" s="154" t="s">
         <v>494</v>
       </c>
-      <c r="J40" s="338"/>
-      <c r="K40" s="338"/>
-      <c r="L40" s="340" t="s">
+      <c r="J40" s="153"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="262" t="s">
         <v>493</v>
       </c>
-      <c r="M40" s="340" t="s">
+      <c r="M40" s="262" t="s">
         <v>493</v>
       </c>
-      <c r="N40" s="340" t="s">
+      <c r="N40" s="262" t="s">
         <v>493</v>
       </c>
-      <c r="O40" s="340"/>
+      <c r="O40" s="262" t="s">
+        <v>507</v>
+      </c>
       <c r="P40" s="85"/>
       <c r="Q40" s="85"/>
       <c r="R40" s="16"/>
@@ -18646,12 +18649,12 @@
     <row r="42" spans="1:24" ht="16.5" customHeight="1">
       <c r="A42" s="114"/>
       <c r="B42" s="114"/>
-      <c r="C42" s="307" t="s">
+      <c r="C42" s="354" t="s">
         <v>218</v>
       </c>
-      <c r="D42" s="308"/>
-      <c r="E42" s="308"/>
-      <c r="F42" s="309"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="355"/>
+      <c r="F42" s="324"/>
       <c r="G42" s="175"/>
       <c r="H42" s="176"/>
       <c r="I42" s="176"/>
@@ -18674,13 +18677,13 @@
     <row r="43" spans="1:24" ht="16.5" customHeight="1">
       <c r="A43" s="118"/>
       <c r="B43" s="118"/>
-      <c r="C43" s="299" t="s">
+      <c r="C43" s="316" t="s">
         <v>219</v>
       </c>
-      <c r="D43" s="299" t="s">
+      <c r="D43" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="320" t="s">
+      <c r="E43" s="321" t="s">
         <v>220</v>
       </c>
       <c r="F43" s="178" t="s">
@@ -18720,9 +18723,9 @@
     <row r="44" spans="1:24" ht="16.5" customHeight="1">
       <c r="A44" s="118"/>
       <c r="B44" s="118"/>
-      <c r="C44" s="294"/>
-      <c r="D44" s="294"/>
-      <c r="E44" s="294"/>
+      <c r="C44" s="317"/>
+      <c r="D44" s="317"/>
+      <c r="E44" s="317"/>
       <c r="F44" s="178" t="s">
         <v>222</v>
       </c>
@@ -18760,9 +18763,9 @@
     <row r="45" spans="1:24" ht="16.5" customHeight="1">
       <c r="A45" s="118"/>
       <c r="B45" s="118"/>
-      <c r="C45" s="294"/>
-      <c r="D45" s="294"/>
-      <c r="E45" s="295"/>
+      <c r="C45" s="317"/>
+      <c r="D45" s="317"/>
+      <c r="E45" s="318"/>
       <c r="F45" s="178" t="s">
         <v>223</v>
       </c>
@@ -18800,9 +18803,9 @@
     <row r="46" spans="1:24" ht="16.5" customHeight="1">
       <c r="A46" s="118"/>
       <c r="B46" s="118"/>
-      <c r="C46" s="294"/>
-      <c r="D46" s="294"/>
-      <c r="E46" s="296" t="s">
+      <c r="C46" s="317"/>
+      <c r="D46" s="317"/>
+      <c r="E46" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F46" s="181" t="s">
@@ -18834,9 +18837,9 @@
     <row r="47" spans="1:24" ht="12.75">
       <c r="A47" s="118"/>
       <c r="B47" s="118"/>
-      <c r="C47" s="294"/>
-      <c r="D47" s="294"/>
-      <c r="E47" s="295"/>
+      <c r="C47" s="317"/>
+      <c r="D47" s="317"/>
+      <c r="E47" s="318"/>
       <c r="F47" s="181" t="s">
         <v>226</v>
       </c>
@@ -18866,8 +18869,8 @@
     <row r="48" spans="1:24" ht="12.75">
       <c r="A48" s="103"/>
       <c r="B48" s="103"/>
-      <c r="C48" s="294"/>
-      <c r="D48" s="294"/>
+      <c r="C48" s="317"/>
+      <c r="D48" s="317"/>
       <c r="E48" s="174" t="s">
         <v>126</v>
       </c>
@@ -18908,8 +18911,8 @@
     <row r="49" spans="1:24" s="156" customFormat="1" ht="12.75">
       <c r="A49" s="136"/>
       <c r="B49" s="136"/>
-      <c r="C49" s="294"/>
-      <c r="D49" s="294"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
       <c r="E49" s="174"/>
       <c r="F49" s="184" t="s">
         <v>450</v>
@@ -18948,8 +18951,8 @@
     <row r="50" spans="1:24" ht="16.5" customHeight="1">
       <c r="A50" s="103"/>
       <c r="B50" s="103"/>
-      <c r="C50" s="294"/>
-      <c r="D50" s="294"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="317"/>
       <c r="E50" s="174" t="s">
         <v>228</v>
       </c>
@@ -18990,8 +18993,8 @@
     <row r="51" spans="1:24" ht="16.5" customHeight="1">
       <c r="A51" s="103"/>
       <c r="B51" s="103"/>
-      <c r="C51" s="294"/>
-      <c r="D51" s="299" t="s">
+      <c r="C51" s="317"/>
+      <c r="D51" s="316" t="s">
         <v>86</v>
       </c>
       <c r="E51" s="188" t="s">
@@ -19034,8 +19037,8 @@
     <row r="52" spans="1:24" ht="16.5" customHeight="1">
       <c r="A52" s="103"/>
       <c r="B52" s="103"/>
-      <c r="C52" s="294"/>
-      <c r="D52" s="294"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="317"/>
       <c r="E52" s="174" t="s">
         <v>228</v>
       </c>
@@ -19076,9 +19079,9 @@
     <row r="53" spans="1:24" ht="16.5" customHeight="1">
       <c r="A53" s="103"/>
       <c r="B53" s="103"/>
-      <c r="C53" s="294"/>
-      <c r="D53" s="294"/>
-      <c r="E53" s="299" t="s">
+      <c r="C53" s="317"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="316" t="s">
         <v>231</v>
       </c>
       <c r="F53" s="184" t="s">
@@ -19118,9 +19121,9 @@
     <row r="54" spans="1:24" ht="16.5" customHeight="1">
       <c r="A54" s="103"/>
       <c r="B54" s="103"/>
-      <c r="C54" s="294"/>
-      <c r="D54" s="294"/>
-      <c r="E54" s="294"/>
+      <c r="C54" s="317"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="317"/>
       <c r="F54" s="184" t="s">
         <v>453</v>
       </c>
@@ -19158,8 +19161,8 @@
     <row r="55" spans="1:24" ht="16.5" customHeight="1">
       <c r="A55" s="103"/>
       <c r="B55" s="103"/>
-      <c r="C55" s="294"/>
-      <c r="D55" s="299" t="s">
+      <c r="C55" s="317"/>
+      <c r="D55" s="316" t="s">
         <v>235</v>
       </c>
       <c r="E55" s="174" t="s">
@@ -19202,8 +19205,8 @@
     <row r="56" spans="1:24" ht="16.5" customHeight="1">
       <c r="A56" s="103"/>
       <c r="B56" s="103"/>
-      <c r="C56" s="294"/>
-      <c r="D56" s="294"/>
+      <c r="C56" s="317"/>
+      <c r="D56" s="317"/>
       <c r="E56" s="174" t="s">
         <v>238</v>
       </c>
@@ -19244,8 +19247,8 @@
     <row r="57" spans="1:24" ht="16.5" customHeight="1">
       <c r="A57" s="103"/>
       <c r="B57" s="103"/>
-      <c r="C57" s="294"/>
-      <c r="D57" s="294"/>
+      <c r="C57" s="317"/>
+      <c r="D57" s="317"/>
       <c r="E57" s="174" t="s">
         <v>239</v>
       </c>
@@ -19286,33 +19289,33 @@
     <row r="58" spans="1:24" ht="16.5" customHeight="1">
       <c r="A58" s="103"/>
       <c r="B58" s="103"/>
-      <c r="C58" s="294"/>
-      <c r="D58" s="295"/>
+      <c r="C58" s="317"/>
+      <c r="D58" s="318"/>
       <c r="E58" s="223" t="s">
         <v>473</v>
       </c>
-      <c r="F58" s="346" t="s">
+      <c r="F58" s="266" t="s">
         <v>237</v>
       </c>
-      <c r="G58" s="346"/>
-      <c r="H58" s="345" t="s">
+      <c r="G58" s="266"/>
+      <c r="H58" s="265" t="s">
         <v>430</v>
       </c>
-      <c r="I58" s="345" t="s">
+      <c r="I58" s="265" t="s">
         <v>498</v>
       </c>
-      <c r="J58" s="346"/>
-      <c r="K58" s="346"/>
-      <c r="L58" s="353" t="s">
+      <c r="J58" s="266"/>
+      <c r="K58" s="266"/>
+      <c r="L58" s="267" t="s">
         <v>462</v>
       </c>
-      <c r="M58" s="353" t="s">
+      <c r="M58" s="267" t="s">
         <v>462</v>
       </c>
-      <c r="N58" s="353" t="s">
+      <c r="N58" s="267" t="s">
         <v>462</v>
       </c>
-      <c r="O58" s="353"/>
+      <c r="O58" s="267"/>
       <c r="P58" s="104"/>
       <c r="Q58" s="104"/>
       <c r="R58" s="105"/>
@@ -19326,11 +19329,11 @@
     <row r="59" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="136"/>
       <c r="B59" s="136"/>
-      <c r="C59" s="294"/>
-      <c r="D59" s="314" t="s">
+      <c r="C59" s="317"/>
+      <c r="D59" s="346" t="s">
         <v>467</v>
       </c>
-      <c r="E59" s="306" t="s">
+      <c r="E59" s="336" t="s">
         <v>109</v>
       </c>
       <c r="F59" s="218" t="s">
@@ -19370,9 +19373,9 @@
     <row r="60" spans="1:24" ht="16.5" customHeight="1">
       <c r="A60" s="103"/>
       <c r="B60" s="103"/>
-      <c r="C60" s="294"/>
-      <c r="D60" s="314"/>
-      <c r="E60" s="293"/>
+      <c r="C60" s="317"/>
+      <c r="D60" s="346"/>
+      <c r="E60" s="319"/>
       <c r="F60" s="184" t="s">
         <v>455</v>
       </c>
@@ -19410,9 +19413,9 @@
     <row r="61" spans="1:24" ht="16.5" customHeight="1">
       <c r="A61" s="103"/>
       <c r="B61" s="103"/>
-      <c r="C61" s="294"/>
-      <c r="D61" s="314"/>
-      <c r="E61" s="293"/>
+      <c r="C61" s="317"/>
+      <c r="D61" s="346"/>
+      <c r="E61" s="319"/>
       <c r="F61" s="174" t="s">
         <v>247</v>
       </c>
@@ -19442,9 +19445,9 @@
     <row r="62" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="136"/>
       <c r="B62" s="136"/>
-      <c r="C62" s="294"/>
-      <c r="D62" s="314"/>
-      <c r="E62" s="293" t="s">
+      <c r="C62" s="317"/>
+      <c r="D62" s="346"/>
+      <c r="E62" s="319" t="s">
         <v>456</v>
       </c>
       <c r="F62" s="184" t="s">
@@ -19484,9 +19487,9 @@
     <row r="63" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A63" s="136"/>
       <c r="B63" s="136"/>
-      <c r="C63" s="294"/>
-      <c r="D63" s="314"/>
-      <c r="E63" s="293"/>
+      <c r="C63" s="317"/>
+      <c r="D63" s="346"/>
+      <c r="E63" s="319"/>
       <c r="F63" s="184" t="s">
         <v>455</v>
       </c>
@@ -19524,9 +19527,9 @@
     <row r="64" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="136"/>
       <c r="B64" s="136"/>
-      <c r="C64" s="294"/>
-      <c r="D64" s="314"/>
-      <c r="E64" s="293"/>
+      <c r="C64" s="317"/>
+      <c r="D64" s="346"/>
+      <c r="E64" s="319"/>
       <c r="F64" s="184" t="s">
         <v>457</v>
       </c>
@@ -19564,9 +19567,9 @@
     <row r="65" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A65" s="136"/>
       <c r="B65" s="136"/>
-      <c r="C65" s="294"/>
-      <c r="D65" s="314"/>
-      <c r="E65" s="310"/>
+      <c r="C65" s="317"/>
+      <c r="D65" s="346"/>
+      <c r="E65" s="337"/>
       <c r="F65" s="174" t="s">
         <v>247</v>
       </c>
@@ -19596,9 +19599,9 @@
     <row r="66" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="136"/>
       <c r="B66" s="136"/>
-      <c r="C66" s="294"/>
-      <c r="D66" s="314"/>
-      <c r="E66" s="306" t="s">
+      <c r="C66" s="317"/>
+      <c r="D66" s="346"/>
+      <c r="E66" s="336" t="s">
         <v>458</v>
       </c>
       <c r="F66" s="184" t="s">
@@ -19638,9 +19641,9 @@
     <row r="67" spans="1:24" ht="16.5" customHeight="1">
       <c r="A67" s="103"/>
       <c r="B67" s="103"/>
-      <c r="C67" s="294"/>
-      <c r="D67" s="314"/>
-      <c r="E67" s="293"/>
+      <c r="C67" s="317"/>
+      <c r="D67" s="346"/>
+      <c r="E67" s="319"/>
       <c r="F67" s="184" t="s">
         <v>246</v>
       </c>
@@ -19678,9 +19681,9 @@
     <row r="68" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A68" s="136"/>
       <c r="B68" s="136"/>
-      <c r="C68" s="294"/>
-      <c r="D68" s="314"/>
-      <c r="E68" s="293"/>
+      <c r="C68" s="317"/>
+      <c r="D68" s="346"/>
+      <c r="E68" s="319"/>
       <c r="F68" s="184" t="s">
         <v>457</v>
       </c>
@@ -19718,9 +19721,9 @@
     <row r="69" spans="1:24" ht="16.5" customHeight="1">
       <c r="A69" s="103"/>
       <c r="B69" s="103"/>
-      <c r="C69" s="294"/>
-      <c r="D69" s="314"/>
-      <c r="E69" s="310"/>
+      <c r="C69" s="317"/>
+      <c r="D69" s="346"/>
+      <c r="E69" s="337"/>
       <c r="F69" s="174" t="s">
         <v>247</v>
       </c>
@@ -19750,11 +19753,11 @@
     <row r="70" spans="1:24" s="224" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="236"/>
       <c r="B70" s="236"/>
-      <c r="C70" s="294"/>
-      <c r="D70" s="314" t="s">
+      <c r="C70" s="317"/>
+      <c r="D70" s="346" t="s">
         <v>476</v>
       </c>
-      <c r="E70" s="315"/>
+      <c r="E70" s="350"/>
       <c r="F70" s="242" t="s">
         <v>475</v>
       </c>
@@ -19792,9 +19795,9 @@
     <row r="71" spans="1:24" s="224" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="236"/>
       <c r="B71" s="236"/>
-      <c r="C71" s="294"/>
-      <c r="D71" s="314"/>
-      <c r="E71" s="316"/>
+      <c r="C71" s="317"/>
+      <c r="D71" s="346"/>
+      <c r="E71" s="351"/>
       <c r="F71" s="242" t="s">
         <v>482</v>
       </c>
@@ -19832,33 +19835,35 @@
     <row r="72" spans="1:24" s="224" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="236"/>
       <c r="B72" s="236"/>
-      <c r="C72" s="294"/>
-      <c r="D72" s="314" t="s">
+      <c r="C72" s="317"/>
+      <c r="D72" s="346" t="s">
         <v>479</v>
       </c>
-      <c r="E72" s="315"/>
-      <c r="F72" s="351" t="s">
+      <c r="E72" s="350"/>
+      <c r="F72" s="242" t="s">
         <v>480</v>
       </c>
-      <c r="G72" s="351"/>
-      <c r="H72" s="352" t="s">
+      <c r="G72" s="242"/>
+      <c r="H72" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="I72" s="352" t="s">
+      <c r="I72" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="J72" s="351"/>
-      <c r="K72" s="351"/>
-      <c r="L72" s="348" t="s">
+      <c r="J72" s="242"/>
+      <c r="K72" s="242"/>
+      <c r="L72" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="M72" s="348" t="s">
+      <c r="M72" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="N72" s="348" t="s">
+      <c r="N72" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="O72" s="348"/>
+      <c r="O72" s="244" t="s">
+        <v>507</v>
+      </c>
       <c r="P72" s="104"/>
       <c r="Q72" s="104"/>
       <c r="R72" s="105"/>
@@ -19872,31 +19877,33 @@
     <row r="73" spans="1:24" s="224" customFormat="1" ht="16.5" customHeight="1">
       <c r="A73" s="236"/>
       <c r="B73" s="236"/>
-      <c r="C73" s="294"/>
-      <c r="D73" s="314"/>
-      <c r="E73" s="316"/>
-      <c r="F73" s="351" t="s">
+      <c r="C73" s="317"/>
+      <c r="D73" s="346"/>
+      <c r="E73" s="351"/>
+      <c r="F73" s="242" t="s">
         <v>481</v>
       </c>
-      <c r="G73" s="351"/>
-      <c r="H73" s="352" t="s">
+      <c r="G73" s="242"/>
+      <c r="H73" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="I73" s="352" t="s">
+      <c r="I73" s="243" t="s">
         <v>486</v>
       </c>
-      <c r="J73" s="351"/>
-      <c r="K73" s="351"/>
-      <c r="L73" s="348" t="s">
+      <c r="J73" s="242"/>
+      <c r="K73" s="242"/>
+      <c r="L73" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="M73" s="348" t="s">
+      <c r="M73" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="N73" s="348" t="s">
+      <c r="N73" s="244" t="s">
         <v>478</v>
       </c>
-      <c r="O73" s="348"/>
+      <c r="O73" s="244" t="s">
+        <v>507</v>
+      </c>
       <c r="P73" s="104"/>
       <c r="Q73" s="104"/>
       <c r="R73" s="105"/>
@@ -19910,8 +19917,8 @@
     <row r="74" spans="1:24" ht="16.5" customHeight="1">
       <c r="A74" s="119"/>
       <c r="B74" s="119"/>
-      <c r="C74" s="294"/>
-      <c r="D74" s="293" t="s">
+      <c r="C74" s="317"/>
+      <c r="D74" s="319" t="s">
         <v>251</v>
       </c>
       <c r="E74" s="190" t="s">
@@ -19954,8 +19961,8 @@
     <row r="75" spans="1:24" ht="16.5" customHeight="1">
       <c r="A75" s="119"/>
       <c r="B75" s="119"/>
-      <c r="C75" s="294"/>
-      <c r="D75" s="294"/>
+      <c r="C75" s="317"/>
+      <c r="D75" s="317"/>
       <c r="E75" s="190" t="s">
         <v>253</v>
       </c>
@@ -19996,8 +20003,8 @@
     <row r="76" spans="1:24" ht="16.5" customHeight="1">
       <c r="A76" s="103"/>
       <c r="B76" s="122"/>
-      <c r="C76" s="294"/>
-      <c r="D76" s="295"/>
+      <c r="C76" s="317"/>
+      <c r="D76" s="318"/>
       <c r="E76" s="190" t="s">
         <v>255</v>
       </c>
@@ -20038,11 +20045,11 @@
     <row r="77" spans="1:24" ht="16.5" customHeight="1">
       <c r="A77" s="103"/>
       <c r="B77" s="122"/>
-      <c r="C77" s="294"/>
-      <c r="D77" s="293" t="s">
+      <c r="C77" s="317"/>
+      <c r="D77" s="319" t="s">
         <v>257</v>
       </c>
-      <c r="E77" s="293"/>
+      <c r="E77" s="319"/>
       <c r="F77" s="231" t="s">
         <v>258</v>
       </c>
@@ -20080,31 +20087,33 @@
     <row r="78" spans="1:24" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="136"/>
       <c r="B78" s="122"/>
-      <c r="C78" s="294"/>
-      <c r="D78" s="293"/>
-      <c r="E78" s="293"/>
-      <c r="F78" s="350" t="s">
+      <c r="C78" s="317"/>
+      <c r="D78" s="319"/>
+      <c r="E78" s="319"/>
+      <c r="F78" s="361" t="s">
         <v>496</v>
       </c>
-      <c r="G78" s="344"/>
-      <c r="H78" s="345" t="s">
+      <c r="G78" s="232"/>
+      <c r="H78" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="I78" s="345" t="s">
+      <c r="I78" s="168" t="s">
         <v>445</v>
       </c>
-      <c r="J78" s="346"/>
-      <c r="K78" s="344"/>
-      <c r="L78" s="347">
+      <c r="J78" s="184"/>
+      <c r="K78" s="232"/>
+      <c r="L78" s="362">
         <v>44168</v>
       </c>
-      <c r="M78" s="347">
+      <c r="M78" s="362">
         <v>44169</v>
       </c>
-      <c r="N78" s="347">
+      <c r="N78" s="362">
         <v>44168</v>
       </c>
-      <c r="O78" s="348"/>
+      <c r="O78" s="244" t="s">
+        <v>507</v>
+      </c>
       <c r="P78" s="136"/>
       <c r="Q78" s="136"/>
       <c r="R78" s="121"/>
@@ -20118,31 +20127,33 @@
     <row r="79" spans="1:24" ht="16.5" customHeight="1">
       <c r="A79" s="103"/>
       <c r="B79" s="122"/>
-      <c r="C79" s="294"/>
-      <c r="D79" s="294"/>
-      <c r="E79" s="294"/>
-      <c r="F79" s="349" t="s">
+      <c r="C79" s="317"/>
+      <c r="D79" s="317"/>
+      <c r="E79" s="317"/>
+      <c r="F79" s="231" t="s">
         <v>259</v>
       </c>
-      <c r="G79" s="344"/>
-      <c r="H79" s="345" t="s">
+      <c r="G79" s="232"/>
+      <c r="H79" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="I79" s="345" t="s">
+      <c r="I79" s="168" t="s">
         <v>468</v>
       </c>
-      <c r="J79" s="346"/>
-      <c r="K79" s="344"/>
-      <c r="L79" s="347">
+      <c r="J79" s="184"/>
+      <c r="K79" s="232"/>
+      <c r="L79" s="362">
         <v>44167</v>
       </c>
-      <c r="M79" s="347">
+      <c r="M79" s="362">
         <v>44167</v>
       </c>
-      <c r="N79" s="347">
+      <c r="N79" s="362">
         <v>44167</v>
       </c>
-      <c r="O79" s="348"/>
+      <c r="O79" s="244" t="s">
+        <v>507</v>
+      </c>
       <c r="P79" s="103"/>
       <c r="Q79" s="103"/>
       <c r="R79" s="121"/>
@@ -20156,31 +20167,33 @@
     <row r="80" spans="1:24" ht="16.5" customHeight="1">
       <c r="A80" s="119"/>
       <c r="B80" s="122"/>
-      <c r="C80" s="295"/>
-      <c r="D80" s="295"/>
-      <c r="E80" s="295"/>
-      <c r="F80" s="349" t="s">
+      <c r="C80" s="318"/>
+      <c r="D80" s="318"/>
+      <c r="E80" s="318"/>
+      <c r="F80" s="231" t="s">
         <v>497</v>
       </c>
-      <c r="G80" s="344"/>
-      <c r="H80" s="345" t="s">
+      <c r="G80" s="232"/>
+      <c r="H80" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="I80" s="345" t="s">
+      <c r="I80" s="168" t="s">
         <v>468</v>
       </c>
-      <c r="J80" s="346"/>
-      <c r="K80" s="344"/>
-      <c r="L80" s="347">
+      <c r="J80" s="184"/>
+      <c r="K80" s="232"/>
+      <c r="L80" s="362">
         <v>44168</v>
       </c>
-      <c r="M80" s="347">
+      <c r="M80" s="362">
         <v>44169</v>
       </c>
-      <c r="N80" s="347">
+      <c r="N80" s="362">
         <v>44168</v>
       </c>
-      <c r="O80" s="347"/>
+      <c r="O80" s="244" t="s">
+        <v>507</v>
+      </c>
       <c r="P80" s="103"/>
       <c r="Q80" s="103"/>
       <c r="R80" s="121"/>
@@ -20194,21 +20207,21 @@
     <row r="81" spans="1:24" s="217" customFormat="1" ht="16.5" customHeight="1">
       <c r="A81" s="221"/>
       <c r="B81" s="122"/>
-      <c r="C81" s="321" t="s">
+      <c r="C81" s="338" t="s">
         <v>460</v>
       </c>
-      <c r="D81" s="322"/>
-      <c r="E81" s="322"/>
-      <c r="F81" s="322"/>
-      <c r="G81" s="322"/>
-      <c r="H81" s="322"/>
-      <c r="I81" s="322"/>
-      <c r="J81" s="322"/>
-      <c r="K81" s="322"/>
-      <c r="L81" s="322"/>
-      <c r="M81" s="322"/>
-      <c r="N81" s="322"/>
-      <c r="O81" s="323"/>
+      <c r="D81" s="339"/>
+      <c r="E81" s="339"/>
+      <c r="F81" s="339"/>
+      <c r="G81" s="339"/>
+      <c r="H81" s="339"/>
+      <c r="I81" s="339"/>
+      <c r="J81" s="339"/>
+      <c r="K81" s="339"/>
+      <c r="L81" s="339"/>
+      <c r="M81" s="339"/>
+      <c r="N81" s="339"/>
+      <c r="O81" s="340"/>
       <c r="P81" s="222"/>
       <c r="Q81" s="222"/>
       <c r="R81" s="121"/>
@@ -20222,19 +20235,19 @@
     <row r="82" spans="1:24" s="217" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A82" s="221"/>
       <c r="B82" s="122"/>
-      <c r="C82" s="324"/>
-      <c r="D82" s="325"/>
-      <c r="E82" s="325"/>
-      <c r="F82" s="325"/>
-      <c r="G82" s="325"/>
-      <c r="H82" s="325"/>
-      <c r="I82" s="325"/>
-      <c r="J82" s="325"/>
-      <c r="K82" s="325"/>
-      <c r="L82" s="325"/>
-      <c r="M82" s="325"/>
-      <c r="N82" s="325"/>
-      <c r="O82" s="326"/>
+      <c r="C82" s="341"/>
+      <c r="D82" s="342"/>
+      <c r="E82" s="342"/>
+      <c r="F82" s="342"/>
+      <c r="G82" s="342"/>
+      <c r="H82" s="342"/>
+      <c r="I82" s="342"/>
+      <c r="J82" s="342"/>
+      <c r="K82" s="342"/>
+      <c r="L82" s="342"/>
+      <c r="M82" s="342"/>
+      <c r="N82" s="342"/>
+      <c r="O82" s="343"/>
       <c r="P82" s="222"/>
       <c r="Q82" s="222"/>
       <c r="R82" s="121"/>
@@ -20248,12 +20261,12 @@
     <row r="83" spans="1:24" ht="16.5" customHeight="1">
       <c r="A83" s="114"/>
       <c r="B83" s="114"/>
-      <c r="C83" s="302" t="s">
+      <c r="C83" s="331" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="318"/>
-      <c r="E83" s="318"/>
-      <c r="F83" s="319"/>
+      <c r="D83" s="344"/>
+      <c r="E83" s="344"/>
+      <c r="F83" s="345"/>
       <c r="G83" s="175"/>
       <c r="H83" s="192"/>
       <c r="I83" s="176"/>
@@ -20276,13 +20289,13 @@
     <row r="84" spans="1:24" ht="16.5" customHeight="1">
       <c r="A84" s="118"/>
       <c r="B84" s="118"/>
-      <c r="C84" s="299" t="s">
+      <c r="C84" s="316" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="306" t="s">
+      <c r="D84" s="336" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="320" t="s">
+      <c r="E84" s="321" t="s">
         <v>220</v>
       </c>
       <c r="F84" s="178" t="s">
@@ -20322,9 +20335,9 @@
     <row r="85" spans="1:24" ht="16.5" customHeight="1">
       <c r="A85" s="118"/>
       <c r="B85" s="118"/>
-      <c r="C85" s="294"/>
-      <c r="D85" s="293"/>
-      <c r="E85" s="295"/>
+      <c r="C85" s="317"/>
+      <c r="D85" s="319"/>
+      <c r="E85" s="318"/>
       <c r="F85" s="178" t="s">
         <v>264</v>
       </c>
@@ -20362,9 +20375,9 @@
     <row r="86" spans="1:24" ht="16.5" customHeight="1">
       <c r="A86" s="118"/>
       <c r="B86" s="118"/>
-      <c r="C86" s="294"/>
-      <c r="D86" s="293"/>
-      <c r="E86" s="296" t="s">
+      <c r="C86" s="317"/>
+      <c r="D86" s="319"/>
+      <c r="E86" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F86" s="195" t="s">
@@ -20394,9 +20407,9 @@
     <row r="87" spans="1:24" ht="16.5" customHeight="1">
       <c r="A87" s="118"/>
       <c r="B87" s="118"/>
-      <c r="C87" s="294"/>
-      <c r="D87" s="293"/>
-      <c r="E87" s="295"/>
+      <c r="C87" s="317"/>
+      <c r="D87" s="319"/>
+      <c r="E87" s="318"/>
       <c r="F87" s="195" t="s">
         <v>226</v>
       </c>
@@ -20424,8 +20437,8 @@
     <row r="88" spans="1:24" ht="16.5" customHeight="1">
       <c r="A88" s="103"/>
       <c r="B88" s="103"/>
-      <c r="C88" s="294"/>
-      <c r="D88" s="293"/>
+      <c r="C88" s="317"/>
+      <c r="D88" s="319"/>
       <c r="E88" s="174" t="s">
         <v>126</v>
       </c>
@@ -20466,29 +20479,33 @@
     <row r="89" spans="1:24" s="239" customFormat="1" ht="16.5" customHeight="1">
       <c r="A89" s="136"/>
       <c r="B89" s="136"/>
-      <c r="C89" s="294"/>
-      <c r="D89" s="293"/>
+      <c r="C89" s="317"/>
+      <c r="D89" s="319"/>
       <c r="E89" s="174"/>
-      <c r="F89" s="346" t="s">
+      <c r="F89" s="184" t="s">
         <v>490</v>
       </c>
-      <c r="G89" s="346"/>
-      <c r="H89" s="345" t="s">
+      <c r="G89" s="184"/>
+      <c r="H89" s="168" t="s">
         <v>435</v>
       </c>
-      <c r="I89" s="345" t="s">
+      <c r="I89" s="168" t="s">
         <v>435</v>
       </c>
-      <c r="J89" s="346"/>
-      <c r="K89" s="346"/>
-      <c r="L89" s="353" t="s">
+      <c r="J89" s="184"/>
+      <c r="K89" s="184"/>
+      <c r="L89" s="185" t="s">
         <v>491</v>
       </c>
-      <c r="M89" s="353"/>
-      <c r="N89" s="353" t="s">
+      <c r="M89" s="185" t="s">
+        <v>507</v>
+      </c>
+      <c r="N89" s="185" t="s">
         <v>491</v>
       </c>
-      <c r="O89" s="353"/>
+      <c r="O89" s="185" t="s">
+        <v>507</v>
+      </c>
       <c r="P89" s="104"/>
       <c r="Q89" s="104"/>
       <c r="R89" s="105"/>
@@ -20502,8 +20519,8 @@
     <row r="90" spans="1:24" ht="16.5" customHeight="1">
       <c r="A90" s="103"/>
       <c r="B90" s="103"/>
-      <c r="C90" s="294"/>
-      <c r="D90" s="293"/>
+      <c r="C90" s="317"/>
+      <c r="D90" s="319"/>
       <c r="E90" s="174" t="s">
         <v>228</v>
       </c>
@@ -20534,8 +20551,8 @@
     <row r="91" spans="1:24" ht="16.5" customHeight="1">
       <c r="A91" s="103"/>
       <c r="B91" s="103"/>
-      <c r="C91" s="294"/>
-      <c r="D91" s="299" t="s">
+      <c r="C91" s="317"/>
+      <c r="D91" s="316" t="s">
         <v>86</v>
       </c>
       <c r="E91" s="198" t="s">
@@ -20578,8 +20595,8 @@
     <row r="92" spans="1:24" ht="16.5" customHeight="1">
       <c r="A92" s="103"/>
       <c r="B92" s="103"/>
-      <c r="C92" s="294"/>
-      <c r="D92" s="294"/>
+      <c r="C92" s="317"/>
+      <c r="D92" s="317"/>
       <c r="E92" s="174" t="s">
         <v>228</v>
       </c>
@@ -20620,9 +20637,9 @@
     <row r="93" spans="1:24" ht="16.5" customHeight="1">
       <c r="A93" s="103"/>
       <c r="B93" s="103"/>
-      <c r="C93" s="294"/>
-      <c r="D93" s="294"/>
-      <c r="E93" s="299" t="s">
+      <c r="C93" s="317"/>
+      <c r="D93" s="317"/>
+      <c r="E93" s="316" t="s">
         <v>231</v>
       </c>
       <c r="F93" s="184" t="s">
@@ -20662,9 +20679,9 @@
     <row r="94" spans="1:24" ht="16.5" customHeight="1">
       <c r="A94" s="103"/>
       <c r="B94" s="103"/>
-      <c r="C94" s="294"/>
-      <c r="D94" s="294"/>
-      <c r="E94" s="294"/>
+      <c r="C94" s="317"/>
+      <c r="D94" s="317"/>
+      <c r="E94" s="317"/>
       <c r="F94" s="184" t="s">
         <v>233</v>
       </c>
@@ -20702,9 +20719,9 @@
     <row r="95" spans="1:24" ht="16.5" customHeight="1">
       <c r="A95" s="103"/>
       <c r="B95" s="103"/>
-      <c r="C95" s="294"/>
-      <c r="D95" s="295"/>
-      <c r="E95" s="295"/>
+      <c r="C95" s="317"/>
+      <c r="D95" s="318"/>
+      <c r="E95" s="318"/>
       <c r="F95" s="197" t="s">
         <v>234</v>
       </c>
@@ -20734,8 +20751,8 @@
     <row r="96" spans="1:24" ht="16.5" customHeight="1">
       <c r="A96" s="103"/>
       <c r="B96" s="103"/>
-      <c r="C96" s="294"/>
-      <c r="D96" s="299" t="s">
+      <c r="C96" s="317"/>
+      <c r="D96" s="316" t="s">
         <v>235</v>
       </c>
       <c r="E96" s="174" t="s">
@@ -20778,8 +20795,8 @@
     <row r="97" spans="1:24" ht="16.5" customHeight="1">
       <c r="A97" s="103"/>
       <c r="B97" s="103"/>
-      <c r="C97" s="294"/>
-      <c r="D97" s="294"/>
+      <c r="C97" s="317"/>
+      <c r="D97" s="317"/>
       <c r="E97" s="174" t="s">
         <v>266</v>
       </c>
@@ -20808,9 +20825,9 @@
     <row r="98" spans="1:24" ht="16.5" customHeight="1">
       <c r="A98" s="103"/>
       <c r="B98" s="103"/>
-      <c r="C98" s="294"/>
-      <c r="D98" s="294"/>
-      <c r="E98" s="299" t="s">
+      <c r="C98" s="317"/>
+      <c r="D98" s="317"/>
+      <c r="E98" s="316" t="s">
         <v>240</v>
       </c>
       <c r="F98" s="174" t="s">
@@ -20838,9 +20855,9 @@
     <row r="99" spans="1:24" ht="16.5" customHeight="1">
       <c r="A99" s="103"/>
       <c r="B99" s="103"/>
-      <c r="C99" s="294"/>
-      <c r="D99" s="295"/>
-      <c r="E99" s="295"/>
+      <c r="C99" s="317"/>
+      <c r="D99" s="318"/>
+      <c r="E99" s="318"/>
       <c r="F99" s="174" t="s">
         <v>237</v>
       </c>
@@ -20866,8 +20883,8 @@
     <row r="100" spans="1:24" ht="16.5" customHeight="1">
       <c r="A100" s="103"/>
       <c r="B100" s="103"/>
-      <c r="C100" s="294"/>
-      <c r="D100" s="299" t="s">
+      <c r="C100" s="317"/>
+      <c r="D100" s="316" t="s">
         <v>242</v>
       </c>
       <c r="E100" s="174" t="s">
@@ -20898,8 +20915,8 @@
     <row r="101" spans="1:24" ht="16.5" customHeight="1">
       <c r="A101" s="103"/>
       <c r="B101" s="103"/>
-      <c r="C101" s="294"/>
-      <c r="D101" s="294"/>
+      <c r="C101" s="317"/>
+      <c r="D101" s="317"/>
       <c r="E101" s="174" t="s">
         <v>244</v>
       </c>
@@ -20934,9 +20951,9 @@
     <row r="102" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A102" s="136"/>
       <c r="B102" s="136"/>
-      <c r="C102" s="294"/>
-      <c r="D102" s="294"/>
-      <c r="E102" s="311" t="s">
+      <c r="C102" s="317"/>
+      <c r="D102" s="317"/>
+      <c r="E102" s="347" t="s">
         <v>109</v>
       </c>
       <c r="F102" s="184" t="s">
@@ -20976,21 +20993,29 @@
     <row r="103" spans="1:24" ht="16.5" customHeight="1">
       <c r="A103" s="103"/>
       <c r="B103" s="103"/>
-      <c r="C103" s="294"/>
-      <c r="D103" s="294"/>
-      <c r="E103" s="312"/>
-      <c r="F103" s="174" t="s">
+      <c r="C103" s="317"/>
+      <c r="D103" s="317"/>
+      <c r="E103" s="348"/>
+      <c r="F103" s="363" t="s">
         <v>455</v>
       </c>
-      <c r="G103" s="174"/>
-      <c r="H103" s="167"/>
-      <c r="I103" s="167"/>
-      <c r="J103" s="174"/>
-      <c r="K103" s="174"/>
-      <c r="L103" s="187"/>
-      <c r="M103" s="187"/>
-      <c r="N103" s="187"/>
-      <c r="O103" s="187"/>
+      <c r="G103" s="363"/>
+      <c r="H103" s="364" t="s">
+        <v>509</v>
+      </c>
+      <c r="I103" s="364" t="s">
+        <v>37</v>
+      </c>
+      <c r="J103" s="363"/>
+      <c r="K103" s="363"/>
+      <c r="L103" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="M103" s="365"/>
+      <c r="N103" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="O103" s="365"/>
       <c r="P103" s="104"/>
       <c r="Q103" s="104"/>
       <c r="R103" s="105"/>
@@ -21004,9 +21029,9 @@
     <row r="104" spans="1:24" ht="16.5" customHeight="1">
       <c r="A104" s="103"/>
       <c r="B104" s="103"/>
-      <c r="C104" s="294"/>
-      <c r="D104" s="294"/>
-      <c r="E104" s="312"/>
+      <c r="C104" s="317"/>
+      <c r="D104" s="317"/>
+      <c r="E104" s="348"/>
       <c r="F104" s="174" t="s">
         <v>247</v>
       </c>
@@ -21032,9 +21057,9 @@
     <row r="105" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A105" s="136"/>
       <c r="B105" s="136"/>
-      <c r="C105" s="294"/>
-      <c r="D105" s="294"/>
-      <c r="E105" s="293" t="s">
+      <c r="C105" s="317"/>
+      <c r="D105" s="317"/>
+      <c r="E105" s="319" t="s">
         <v>123</v>
       </c>
       <c r="F105" s="174" t="s">
@@ -21062,21 +21087,29 @@
     <row r="106" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A106" s="136"/>
       <c r="B106" s="136"/>
-      <c r="C106" s="294"/>
-      <c r="D106" s="294"/>
-      <c r="E106" s="293"/>
-      <c r="F106" s="197" t="s">
+      <c r="C106" s="317"/>
+      <c r="D106" s="317"/>
+      <c r="E106" s="319"/>
+      <c r="F106" s="363" t="s">
         <v>455</v>
       </c>
-      <c r="G106" s="197"/>
-      <c r="H106" s="173"/>
-      <c r="I106" s="173"/>
-      <c r="J106" s="197"/>
-      <c r="K106" s="197"/>
-      <c r="L106" s="199"/>
-      <c r="M106" s="199"/>
-      <c r="N106" s="199"/>
-      <c r="O106" s="199"/>
+      <c r="G106" s="363"/>
+      <c r="H106" s="364" t="s">
+        <v>37</v>
+      </c>
+      <c r="I106" s="364" t="s">
+        <v>37</v>
+      </c>
+      <c r="J106" s="363"/>
+      <c r="K106" s="363"/>
+      <c r="L106" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="M106" s="365"/>
+      <c r="N106" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="O106" s="365"/>
       <c r="P106" s="104"/>
       <c r="Q106" s="104"/>
       <c r="R106" s="105"/>
@@ -21090,9 +21123,9 @@
     <row r="107" spans="1:24" s="169" customFormat="1" ht="16.5" customHeight="1">
       <c r="A107" s="136"/>
       <c r="B107" s="136"/>
-      <c r="C107" s="294"/>
-      <c r="D107" s="294"/>
-      <c r="E107" s="293"/>
+      <c r="C107" s="317"/>
+      <c r="D107" s="317"/>
+      <c r="E107" s="319"/>
       <c r="F107" s="184" t="s">
         <v>457</v>
       </c>
@@ -21130,9 +21163,9 @@
     <row r="108" spans="1:24" ht="16.5" customHeight="1">
       <c r="A108" s="103"/>
       <c r="B108" s="103"/>
-      <c r="C108" s="294"/>
-      <c r="D108" s="294"/>
-      <c r="E108" s="310"/>
+      <c r="C108" s="317"/>
+      <c r="D108" s="317"/>
+      <c r="E108" s="337"/>
       <c r="F108" s="174" t="s">
         <v>247</v>
       </c>
@@ -21164,9 +21197,9 @@
     <row r="109" spans="1:24" ht="16.5" customHeight="1">
       <c r="A109" s="103"/>
       <c r="B109" s="103"/>
-      <c r="C109" s="294"/>
-      <c r="D109" s="294"/>
-      <c r="E109" s="306" t="s">
+      <c r="C109" s="317"/>
+      <c r="D109" s="317"/>
+      <c r="E109" s="336" t="s">
         <v>191</v>
       </c>
       <c r="F109" s="174" t="s">
@@ -21200,21 +21233,29 @@
     <row r="110" spans="1:24" s="170" customFormat="1" ht="16.5" customHeight="1">
       <c r="A110" s="136"/>
       <c r="B110" s="136"/>
-      <c r="C110" s="294"/>
-      <c r="D110" s="294"/>
-      <c r="E110" s="293"/>
-      <c r="F110" s="197" t="s">
+      <c r="C110" s="317"/>
+      <c r="D110" s="317"/>
+      <c r="E110" s="319"/>
+      <c r="F110" s="363" t="s">
         <v>246</v>
       </c>
-      <c r="G110" s="197"/>
-      <c r="H110" s="173"/>
-      <c r="I110" s="173"/>
-      <c r="J110" s="197"/>
-      <c r="K110" s="197"/>
-      <c r="L110" s="199"/>
-      <c r="M110" s="199"/>
-      <c r="N110" s="199"/>
-      <c r="O110" s="199"/>
+      <c r="G110" s="363"/>
+      <c r="H110" s="364" t="s">
+        <v>37</v>
+      </c>
+      <c r="I110" s="364" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" s="363"/>
+      <c r="K110" s="363"/>
+      <c r="L110" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="M110" s="365"/>
+      <c r="N110" s="365" t="s">
+        <v>507</v>
+      </c>
+      <c r="O110" s="365"/>
       <c r="P110" s="104"/>
       <c r="Q110" s="104"/>
       <c r="R110" s="105"/>
@@ -21228,9 +21269,9 @@
     <row r="111" spans="1:24" ht="16.5" customHeight="1">
       <c r="A111" s="103"/>
       <c r="B111" s="103"/>
-      <c r="C111" s="294"/>
-      <c r="D111" s="294"/>
-      <c r="E111" s="293"/>
+      <c r="C111" s="317"/>
+      <c r="D111" s="317"/>
+      <c r="E111" s="319"/>
       <c r="F111" s="184" t="s">
         <v>457</v>
       </c>
@@ -21274,9 +21315,9 @@
     <row r="112" spans="1:24" ht="16.5" customHeight="1">
       <c r="A112" s="103"/>
       <c r="B112" s="103"/>
-      <c r="C112" s="294"/>
-      <c r="D112" s="295"/>
-      <c r="E112" s="310"/>
+      <c r="C112" s="317"/>
+      <c r="D112" s="318"/>
+      <c r="E112" s="337"/>
       <c r="F112" s="174" t="s">
         <v>247</v>
       </c>
@@ -21310,8 +21351,8 @@
     <row r="113" spans="1:24" ht="16.5" customHeight="1">
       <c r="A113" s="123"/>
       <c r="B113" s="123"/>
-      <c r="C113" s="294"/>
-      <c r="D113" s="293" t="s">
+      <c r="C113" s="317"/>
+      <c r="D113" s="319" t="s">
         <v>251</v>
       </c>
       <c r="E113" s="190" t="s">
@@ -21344,8 +21385,8 @@
     <row r="114" spans="1:24" ht="16.5" customHeight="1">
       <c r="A114" s="123"/>
       <c r="B114" s="123"/>
-      <c r="C114" s="294"/>
-      <c r="D114" s="294"/>
+      <c r="C114" s="317"/>
+      <c r="D114" s="317"/>
       <c r="E114" s="190" t="s">
         <v>253</v>
       </c>
@@ -21376,8 +21417,8 @@
     <row r="115" spans="1:24" ht="16.5" customHeight="1">
       <c r="A115" s="123"/>
       <c r="B115" s="123"/>
-      <c r="C115" s="294"/>
-      <c r="D115" s="295"/>
+      <c r="C115" s="317"/>
+      <c r="D115" s="318"/>
       <c r="E115" s="195" t="s">
         <v>255</v>
       </c>
@@ -21408,11 +21449,11 @@
     <row r="116" spans="1:24" ht="16.5" customHeight="1">
       <c r="A116" s="103"/>
       <c r="B116" s="122"/>
-      <c r="C116" s="294"/>
-      <c r="D116" s="293" t="s">
+      <c r="C116" s="317"/>
+      <c r="D116" s="319" t="s">
         <v>257</v>
       </c>
-      <c r="E116" s="293"/>
+      <c r="E116" s="319"/>
       <c r="F116" s="190" t="s">
         <v>258</v>
       </c>
@@ -21440,9 +21481,9 @@
     <row r="117" spans="1:24" ht="16.5" customHeight="1">
       <c r="A117" s="103"/>
       <c r="B117" s="122"/>
-      <c r="C117" s="294"/>
-      <c r="D117" s="294"/>
-      <c r="E117" s="294"/>
+      <c r="C117" s="317"/>
+      <c r="D117" s="317"/>
+      <c r="E117" s="317"/>
       <c r="F117" s="190" t="s">
         <v>259</v>
       </c>
@@ -21470,9 +21511,9 @@
     <row r="118" spans="1:24" ht="16.5" customHeight="1">
       <c r="A118" s="119"/>
       <c r="B118" s="122"/>
-      <c r="C118" s="294"/>
-      <c r="D118" s="295"/>
-      <c r="E118" s="295"/>
+      <c r="C118" s="317"/>
+      <c r="D118" s="318"/>
+      <c r="E118" s="318"/>
       <c r="F118" s="190" t="s">
         <v>260</v>
       </c>
@@ -21500,12 +21541,12 @@
     <row r="119" spans="1:24" ht="16.5" customHeight="1">
       <c r="A119" s="123"/>
       <c r="B119" s="123"/>
-      <c r="C119" s="327" t="s">
+      <c r="C119" s="325" t="s">
         <v>267</v>
       </c>
-      <c r="D119" s="328"/>
-      <c r="E119" s="328"/>
-      <c r="F119" s="329"/>
+      <c r="D119" s="326"/>
+      <c r="E119" s="326"/>
+      <c r="F119" s="327"/>
       <c r="G119" s="195"/>
       <c r="H119" s="172"/>
       <c r="I119" s="172"/>
@@ -21528,13 +21569,13 @@
     <row r="120" spans="1:24" ht="16.5" customHeight="1">
       <c r="A120" s="118"/>
       <c r="B120" s="118"/>
-      <c r="C120" s="299" t="s">
+      <c r="C120" s="316" t="s">
         <v>268</v>
       </c>
-      <c r="D120" s="299" t="s">
+      <c r="D120" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="296" t="s">
+      <c r="E120" s="320" t="s">
         <v>220</v>
       </c>
       <c r="F120" s="178" t="s">
@@ -21564,9 +21605,9 @@
     <row r="121" spans="1:24" ht="16.5" customHeight="1">
       <c r="A121" s="118"/>
       <c r="B121" s="118"/>
-      <c r="C121" s="294"/>
-      <c r="D121" s="294"/>
-      <c r="E121" s="295"/>
+      <c r="C121" s="317"/>
+      <c r="D121" s="317"/>
+      <c r="E121" s="318"/>
       <c r="F121" s="195" t="s">
         <v>270</v>
       </c>
@@ -21592,9 +21633,9 @@
     <row r="122" spans="1:24" ht="16.5" customHeight="1">
       <c r="A122" s="118"/>
       <c r="B122" s="118"/>
-      <c r="C122" s="294"/>
-      <c r="D122" s="294"/>
-      <c r="E122" s="296" t="s">
+      <c r="C122" s="317"/>
+      <c r="D122" s="317"/>
+      <c r="E122" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F122" s="195" t="s">
@@ -21622,9 +21663,9 @@
     <row r="123" spans="1:24" ht="16.5" customHeight="1">
       <c r="A123" s="118"/>
       <c r="B123" s="118"/>
-      <c r="C123" s="294"/>
-      <c r="D123" s="294"/>
-      <c r="E123" s="295"/>
+      <c r="C123" s="317"/>
+      <c r="D123" s="317"/>
+      <c r="E123" s="318"/>
       <c r="F123" s="195" t="s">
         <v>226</v>
       </c>
@@ -21650,8 +21691,8 @@
     <row r="124" spans="1:24" ht="16.5" customHeight="1">
       <c r="A124" s="103"/>
       <c r="B124" s="103"/>
-      <c r="C124" s="294"/>
-      <c r="D124" s="294"/>
+      <c r="C124" s="317"/>
+      <c r="D124" s="317"/>
       <c r="E124" s="174" t="s">
         <v>126</v>
       </c>
@@ -21686,8 +21727,8 @@
     <row r="125" spans="1:24" ht="16.5" customHeight="1">
       <c r="A125" s="103"/>
       <c r="B125" s="103"/>
-      <c r="C125" s="294"/>
-      <c r="D125" s="294"/>
+      <c r="C125" s="317"/>
+      <c r="D125" s="317"/>
       <c r="E125" s="174" t="s">
         <v>228</v>
       </c>
@@ -21722,14 +21763,14 @@
     <row r="126" spans="1:24" ht="16.5" customHeight="1">
       <c r="A126" s="103"/>
       <c r="B126" s="103"/>
-      <c r="C126" s="294"/>
-      <c r="D126" s="299" t="s">
+      <c r="C126" s="317"/>
+      <c r="D126" s="316" t="s">
         <v>86</v>
       </c>
-      <c r="E126" s="300" t="s">
+      <c r="E126" s="328" t="s">
         <v>230</v>
       </c>
-      <c r="F126" s="301"/>
+      <c r="F126" s="329"/>
       <c r="G126" s="174"/>
       <c r="H126" s="167"/>
       <c r="I126" s="167"/>
@@ -21758,33 +21799,35 @@
     <row r="127" spans="1:24" ht="16.5" customHeight="1">
       <c r="A127" s="103"/>
       <c r="B127" s="103"/>
-      <c r="C127" s="294"/>
-      <c r="D127" s="294"/>
+      <c r="C127" s="317"/>
+      <c r="D127" s="317"/>
       <c r="E127" s="174" t="s">
         <v>228</v>
       </c>
-      <c r="F127" s="346" t="s">
+      <c r="F127" s="184" t="s">
         <v>452</v>
       </c>
-      <c r="G127" s="346"/>
-      <c r="H127" s="345" t="s">
+      <c r="G127" s="184"/>
+      <c r="H127" s="168" t="s">
         <v>489</v>
       </c>
-      <c r="I127" s="345" t="s">
+      <c r="I127" s="168" t="s">
         <v>489</v>
       </c>
-      <c r="J127" s="346"/>
-      <c r="K127" s="346"/>
-      <c r="L127" s="353" t="s">
+      <c r="J127" s="184"/>
+      <c r="K127" s="184"/>
+      <c r="L127" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="M127" s="353" t="s">
+      <c r="M127" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="N127" s="353" t="s">
+      <c r="N127" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="O127" s="353"/>
+      <c r="O127" s="185" t="s">
+        <v>493</v>
+      </c>
       <c r="P127" s="104"/>
       <c r="Q127" s="104"/>
       <c r="R127" s="105"/>
@@ -21804,33 +21847,35 @@
     <row r="128" spans="1:24" ht="16.5" customHeight="1">
       <c r="A128" s="103"/>
       <c r="B128" s="103"/>
-      <c r="C128" s="294"/>
-      <c r="D128" s="294"/>
-      <c r="E128" s="299" t="s">
+      <c r="C128" s="317"/>
+      <c r="D128" s="317"/>
+      <c r="E128" s="316" t="s">
         <v>231</v>
       </c>
-      <c r="F128" s="346" t="s">
+      <c r="F128" s="184" t="s">
         <v>232</v>
       </c>
-      <c r="G128" s="346"/>
-      <c r="H128" s="345" t="s">
+      <c r="G128" s="184"/>
+      <c r="H128" s="168" t="s">
         <v>489</v>
       </c>
-      <c r="I128" s="345" t="s">
+      <c r="I128" s="168" t="s">
         <v>489</v>
       </c>
-      <c r="J128" s="346"/>
-      <c r="K128" s="346"/>
-      <c r="L128" s="353" t="s">
+      <c r="J128" s="184"/>
+      <c r="K128" s="184"/>
+      <c r="L128" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="M128" s="353" t="s">
+      <c r="M128" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="N128" s="353" t="s">
+      <c r="N128" s="185" t="s">
         <v>493</v>
       </c>
-      <c r="O128" s="353"/>
+      <c r="O128" s="185" t="s">
+        <v>493</v>
+      </c>
       <c r="P128" s="104"/>
       <c r="Q128" s="104"/>
       <c r="R128" s="105"/>
@@ -21850,31 +21895,31 @@
     <row r="129" spans="1:24" ht="16.5" customHeight="1">
       <c r="A129" s="103"/>
       <c r="B129" s="103"/>
-      <c r="C129" s="294"/>
-      <c r="D129" s="294"/>
-      <c r="E129" s="294"/>
-      <c r="F129" s="346" t="s">
+      <c r="C129" s="317"/>
+      <c r="D129" s="317"/>
+      <c r="E129" s="317"/>
+      <c r="F129" s="266" t="s">
         <v>233</v>
       </c>
-      <c r="G129" s="346"/>
-      <c r="H129" s="345" t="s">
+      <c r="G129" s="266"/>
+      <c r="H129" s="265" t="s">
         <v>489</v>
       </c>
-      <c r="I129" s="345" t="s">
+      <c r="I129" s="265" t="s">
         <v>489</v>
       </c>
-      <c r="J129" s="346"/>
-      <c r="K129" s="346"/>
-      <c r="L129" s="353" t="s">
+      <c r="J129" s="266"/>
+      <c r="K129" s="266"/>
+      <c r="L129" s="267" t="s">
         <v>493</v>
       </c>
-      <c r="M129" s="353" t="s">
+      <c r="M129" s="267" t="s">
         <v>493</v>
       </c>
-      <c r="N129" s="353" t="s">
+      <c r="N129" s="267" t="s">
         <v>493</v>
       </c>
-      <c r="O129" s="353"/>
+      <c r="O129" s="267"/>
       <c r="P129" s="104"/>
       <c r="Q129" s="104"/>
       <c r="R129" s="105"/>
@@ -21894,11 +21939,11 @@
     <row r="130" spans="1:24" ht="16.5" customHeight="1">
       <c r="A130" s="103"/>
       <c r="B130" s="103"/>
-      <c r="C130" s="294"/>
-      <c r="D130" s="295"/>
-      <c r="E130" s="295"/>
+      <c r="C130" s="317"/>
+      <c r="D130" s="318"/>
+      <c r="E130" s="318"/>
       <c r="F130" s="174" t="s">
-        <v>234</v>
+        <v>508</v>
       </c>
       <c r="G130" s="174"/>
       <c r="H130" s="167"/>
@@ -21928,8 +21973,8 @@
     <row r="131" spans="1:24" ht="16.5" customHeight="1">
       <c r="A131" s="103"/>
       <c r="B131" s="103"/>
-      <c r="C131" s="294"/>
-      <c r="D131" s="299" t="s">
+      <c r="C131" s="317"/>
+      <c r="D131" s="316" t="s">
         <v>235</v>
       </c>
       <c r="E131" s="174" t="s">
@@ -21966,8 +22011,8 @@
     <row r="132" spans="1:24" ht="16.5" customHeight="1">
       <c r="A132" s="103"/>
       <c r="B132" s="103"/>
-      <c r="C132" s="294"/>
-      <c r="D132" s="294"/>
+      <c r="C132" s="317"/>
+      <c r="D132" s="317"/>
       <c r="E132" s="174" t="s">
         <v>272</v>
       </c>
@@ -22002,9 +22047,9 @@
     <row r="133" spans="1:24" ht="16.5" customHeight="1">
       <c r="A133" s="103"/>
       <c r="B133" s="103"/>
-      <c r="C133" s="294"/>
-      <c r="D133" s="294"/>
-      <c r="E133" s="299" t="s">
+      <c r="C133" s="317"/>
+      <c r="D133" s="317"/>
+      <c r="E133" s="316" t="s">
         <v>240</v>
       </c>
       <c r="F133" s="174" t="s">
@@ -22038,9 +22083,9 @@
     <row r="134" spans="1:24" ht="16.5" customHeight="1">
       <c r="A134" s="103"/>
       <c r="B134" s="103"/>
-      <c r="C134" s="294"/>
-      <c r="D134" s="295"/>
-      <c r="E134" s="295"/>
+      <c r="C134" s="317"/>
+      <c r="D134" s="318"/>
+      <c r="E134" s="318"/>
       <c r="F134" s="174" t="s">
         <v>237</v>
       </c>
@@ -22072,8 +22117,8 @@
     <row r="135" spans="1:24" ht="16.5" customHeight="1">
       <c r="A135" s="103"/>
       <c r="B135" s="103"/>
-      <c r="C135" s="294"/>
-      <c r="D135" s="299" t="s">
+      <c r="C135" s="317"/>
+      <c r="D135" s="316" t="s">
         <v>242</v>
       </c>
       <c r="E135" s="174" t="s">
@@ -22110,8 +22155,8 @@
     <row r="136" spans="1:24" ht="16.5" customHeight="1">
       <c r="A136" s="103"/>
       <c r="B136" s="103"/>
-      <c r="C136" s="294"/>
-      <c r="D136" s="294"/>
+      <c r="C136" s="317"/>
+      <c r="D136" s="317"/>
       <c r="E136" s="174" t="s">
         <v>244</v>
       </c>
@@ -22146,9 +22191,9 @@
     <row r="137" spans="1:24" ht="16.5" customHeight="1">
       <c r="A137" s="103"/>
       <c r="B137" s="103"/>
-      <c r="C137" s="294"/>
-      <c r="D137" s="294"/>
-      <c r="E137" s="306" t="s">
+      <c r="C137" s="317"/>
+      <c r="D137" s="317"/>
+      <c r="E137" s="336" t="s">
         <v>109</v>
       </c>
       <c r="F137" s="174" t="s">
@@ -22176,9 +22221,9 @@
     <row r="138" spans="1:24" ht="16.5" customHeight="1">
       <c r="A138" s="103"/>
       <c r="B138" s="103"/>
-      <c r="C138" s="294"/>
-      <c r="D138" s="294"/>
-      <c r="E138" s="295"/>
+      <c r="C138" s="317"/>
+      <c r="D138" s="317"/>
+      <c r="E138" s="318"/>
       <c r="F138" s="174" t="s">
         <v>247</v>
       </c>
@@ -22204,9 +22249,9 @@
     <row r="139" spans="1:24" ht="16.5" customHeight="1">
       <c r="A139" s="103"/>
       <c r="B139" s="103"/>
-      <c r="C139" s="294"/>
-      <c r="D139" s="294"/>
-      <c r="E139" s="299" t="s">
+      <c r="C139" s="317"/>
+      <c r="D139" s="317"/>
+      <c r="E139" s="316" t="s">
         <v>248</v>
       </c>
       <c r="F139" s="174" t="s">
@@ -22240,9 +22285,9 @@
     <row r="140" spans="1:24" ht="16.5" customHeight="1">
       <c r="A140" s="103"/>
       <c r="B140" s="103"/>
-      <c r="C140" s="294"/>
-      <c r="D140" s="294"/>
-      <c r="E140" s="295"/>
+      <c r="C140" s="317"/>
+      <c r="D140" s="317"/>
+      <c r="E140" s="318"/>
       <c r="F140" s="174" t="s">
         <v>247</v>
       </c>
@@ -22274,9 +22319,9 @@
     <row r="141" spans="1:24" ht="16.5" customHeight="1">
       <c r="A141" s="103"/>
       <c r="B141" s="103"/>
-      <c r="C141" s="294"/>
-      <c r="D141" s="294"/>
-      <c r="E141" s="299" t="s">
+      <c r="C141" s="317"/>
+      <c r="D141" s="317"/>
+      <c r="E141" s="316" t="s">
         <v>126</v>
       </c>
       <c r="F141" s="174" t="s">
@@ -22310,9 +22355,9 @@
     <row r="142" spans="1:24" ht="16.5" customHeight="1">
       <c r="A142" s="103"/>
       <c r="B142" s="103"/>
-      <c r="C142" s="294"/>
-      <c r="D142" s="295"/>
-      <c r="E142" s="295"/>
+      <c r="C142" s="317"/>
+      <c r="D142" s="318"/>
+      <c r="E142" s="318"/>
       <c r="F142" s="174" t="s">
         <v>250</v>
       </c>
@@ -22344,8 +22389,8 @@
     <row r="143" spans="1:24" ht="16.5" customHeight="1">
       <c r="A143" s="123"/>
       <c r="B143" s="123"/>
-      <c r="C143" s="294"/>
-      <c r="D143" s="293" t="s">
+      <c r="C143" s="317"/>
+      <c r="D143" s="319" t="s">
         <v>251</v>
       </c>
       <c r="E143" s="190" t="s">
@@ -22376,8 +22421,8 @@
     <row r="144" spans="1:24" ht="16.5" customHeight="1">
       <c r="A144" s="123"/>
       <c r="B144" s="123"/>
-      <c r="C144" s="294"/>
-      <c r="D144" s="294"/>
+      <c r="C144" s="317"/>
+      <c r="D144" s="317"/>
       <c r="E144" s="190" t="s">
         <v>253</v>
       </c>
@@ -22406,8 +22451,8 @@
     <row r="145" spans="1:24" ht="16.5" customHeight="1">
       <c r="A145" s="123"/>
       <c r="B145" s="123"/>
-      <c r="C145" s="294"/>
-      <c r="D145" s="295"/>
+      <c r="C145" s="317"/>
+      <c r="D145" s="318"/>
       <c r="E145" s="191" t="s">
         <v>255</v>
       </c>
@@ -22436,11 +22481,11 @@
     <row r="146" spans="1:24" ht="16.5" customHeight="1">
       <c r="A146" s="125"/>
       <c r="B146" s="126"/>
-      <c r="C146" s="294"/>
-      <c r="D146" s="313" t="s">
+      <c r="C146" s="317"/>
+      <c r="D146" s="349" t="s">
         <v>257</v>
       </c>
-      <c r="E146" s="297"/>
+      <c r="E146" s="322"/>
       <c r="F146" s="204" t="s">
         <v>258</v>
       </c>
@@ -22466,9 +22511,9 @@
     <row r="147" spans="1:24" ht="16.5" customHeight="1">
       <c r="A147" s="129"/>
       <c r="B147" s="126"/>
-      <c r="C147" s="294"/>
-      <c r="D147" s="298"/>
-      <c r="E147" s="298"/>
+      <c r="C147" s="317"/>
+      <c r="D147" s="323"/>
+      <c r="E147" s="323"/>
       <c r="F147" s="208" t="s">
         <v>259</v>
       </c>
@@ -22494,9 +22539,9 @@
     <row r="148" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A148" s="131"/>
       <c r="B148" s="132"/>
-      <c r="C148" s="294"/>
-      <c r="D148" s="309"/>
-      <c r="E148" s="305"/>
+      <c r="C148" s="317"/>
+      <c r="D148" s="324"/>
+      <c r="E148" s="330"/>
       <c r="F148" s="190" t="s">
         <v>260</v>
       </c>
@@ -22522,12 +22567,12 @@
     <row r="149" spans="1:24" ht="16.5" customHeight="1">
       <c r="A149" s="114"/>
       <c r="B149" s="114"/>
-      <c r="C149" s="302" t="s">
+      <c r="C149" s="331" t="s">
         <v>273</v>
       </c>
-      <c r="D149" s="303"/>
-      <c r="E149" s="303"/>
-      <c r="F149" s="304"/>
+      <c r="D149" s="332"/>
+      <c r="E149" s="332"/>
+      <c r="F149" s="333"/>
       <c r="G149" s="175"/>
       <c r="H149" s="176"/>
       <c r="I149" s="176"/>
@@ -22551,10 +22596,10 @@
       <c r="A150" s="118"/>
       <c r="B150" s="118"/>
       <c r="C150" s="214"/>
-      <c r="D150" s="299" t="s">
+      <c r="D150" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="E150" s="296" t="s">
+      <c r="E150" s="320" t="s">
         <v>220</v>
       </c>
       <c r="F150" s="195" t="s">
@@ -22582,11 +22627,11 @@
     <row r="151" spans="1:24" ht="16.5" customHeight="1">
       <c r="A151" s="118"/>
       <c r="B151" s="118"/>
-      <c r="C151" s="299" t="s">
+      <c r="C151" s="316" t="s">
         <v>275</v>
       </c>
-      <c r="D151" s="294"/>
-      <c r="E151" s="295"/>
+      <c r="D151" s="317"/>
+      <c r="E151" s="318"/>
       <c r="F151" s="195" t="s">
         <v>276</v>
       </c>
@@ -22612,9 +22657,9 @@
     <row r="152" spans="1:24" ht="16.5" customHeight="1">
       <c r="A152" s="118"/>
       <c r="B152" s="118"/>
-      <c r="C152" s="294"/>
-      <c r="D152" s="294"/>
-      <c r="E152" s="296" t="s">
+      <c r="C152" s="317"/>
+      <c r="D152" s="317"/>
+      <c r="E152" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F152" s="195" t="s">
@@ -22642,9 +22687,9 @@
     <row r="153" spans="1:24" ht="16.5" customHeight="1">
       <c r="A153" s="118"/>
       <c r="B153" s="118"/>
-      <c r="C153" s="294"/>
-      <c r="D153" s="294"/>
-      <c r="E153" s="295"/>
+      <c r="C153" s="317"/>
+      <c r="D153" s="317"/>
+      <c r="E153" s="318"/>
       <c r="F153" s="195" t="s">
         <v>226</v>
       </c>
@@ -22670,8 +22715,8 @@
     <row r="154" spans="1:24" ht="16.5" customHeight="1">
       <c r="A154" s="103"/>
       <c r="B154" s="103"/>
-      <c r="C154" s="294"/>
-      <c r="D154" s="294"/>
+      <c r="C154" s="317"/>
+      <c r="D154" s="317"/>
       <c r="E154" s="174" t="s">
         <v>126</v>
       </c>
@@ -22706,8 +22751,8 @@
     <row r="155" spans="1:24" ht="16.5" customHeight="1">
       <c r="A155" s="103"/>
       <c r="B155" s="103"/>
-      <c r="C155" s="294"/>
-      <c r="D155" s="294"/>
+      <c r="C155" s="317"/>
+      <c r="D155" s="317"/>
       <c r="E155" s="174" t="s">
         <v>228</v>
       </c>
@@ -22742,14 +22787,14 @@
     <row r="156" spans="1:24" ht="16.5" customHeight="1">
       <c r="A156" s="103"/>
       <c r="B156" s="103"/>
-      <c r="C156" s="294"/>
-      <c r="D156" s="299" t="s">
+      <c r="C156" s="317"/>
+      <c r="D156" s="316" t="s">
         <v>86</v>
       </c>
-      <c r="E156" s="300" t="s">
+      <c r="E156" s="328" t="s">
         <v>230</v>
       </c>
-      <c r="F156" s="301"/>
+      <c r="F156" s="329"/>
       <c r="G156" s="174"/>
       <c r="H156" s="167"/>
       <c r="I156" s="167"/>
@@ -22778,8 +22823,8 @@
     <row r="157" spans="1:24" ht="16.5" customHeight="1">
       <c r="A157" s="103"/>
       <c r="B157" s="103"/>
-      <c r="C157" s="294"/>
-      <c r="D157" s="294"/>
+      <c r="C157" s="317"/>
+      <c r="D157" s="317"/>
       <c r="E157" s="174" t="s">
         <v>228</v>
       </c>
@@ -22814,9 +22859,9 @@
     <row r="158" spans="1:24" ht="16.5" customHeight="1">
       <c r="A158" s="103"/>
       <c r="B158" s="103"/>
-      <c r="C158" s="294"/>
-      <c r="D158" s="294"/>
-      <c r="E158" s="299" t="s">
+      <c r="C158" s="317"/>
+      <c r="D158" s="317"/>
+      <c r="E158" s="316" t="s">
         <v>231</v>
       </c>
       <c r="F158" s="174" t="s">
@@ -22850,9 +22895,9 @@
     <row r="159" spans="1:24" ht="16.5" customHeight="1">
       <c r="A159" s="103"/>
       <c r="B159" s="103"/>
-      <c r="C159" s="294"/>
-      <c r="D159" s="294"/>
-      <c r="E159" s="294"/>
+      <c r="C159" s="317"/>
+      <c r="D159" s="317"/>
+      <c r="E159" s="317"/>
       <c r="F159" s="174" t="s">
         <v>233</v>
       </c>
@@ -22884,9 +22929,9 @@
     <row r="160" spans="1:24" ht="16.5" customHeight="1">
       <c r="A160" s="103"/>
       <c r="B160" s="103"/>
-      <c r="C160" s="294"/>
-      <c r="D160" s="295"/>
-      <c r="E160" s="295"/>
+      <c r="C160" s="317"/>
+      <c r="D160" s="318"/>
+      <c r="E160" s="318"/>
       <c r="F160" s="174" t="s">
         <v>234</v>
       </c>
@@ -22918,8 +22963,8 @@
     <row r="161" spans="1:24" ht="16.5" customHeight="1">
       <c r="A161" s="103"/>
       <c r="B161" s="103"/>
-      <c r="C161" s="294"/>
-      <c r="D161" s="299" t="s">
+      <c r="C161" s="317"/>
+      <c r="D161" s="316" t="s">
         <v>235</v>
       </c>
       <c r="E161" s="174" t="s">
@@ -22956,8 +23001,8 @@
     <row r="162" spans="1:24" ht="16.5" customHeight="1">
       <c r="A162" s="103"/>
       <c r="B162" s="103"/>
-      <c r="C162" s="294"/>
-      <c r="D162" s="294"/>
+      <c r="C162" s="317"/>
+      <c r="D162" s="317"/>
       <c r="E162" s="174" t="s">
         <v>278</v>
       </c>
@@ -22992,9 +23037,9 @@
     <row r="163" spans="1:24" ht="16.5" customHeight="1">
       <c r="A163" s="103"/>
       <c r="B163" s="103"/>
-      <c r="C163" s="294"/>
-      <c r="D163" s="294"/>
-      <c r="E163" s="299" t="s">
+      <c r="C163" s="317"/>
+      <c r="D163" s="317"/>
+      <c r="E163" s="316" t="s">
         <v>240</v>
       </c>
       <c r="F163" s="174" t="s">
@@ -23028,9 +23073,9 @@
     <row r="164" spans="1:24" ht="16.5" customHeight="1">
       <c r="A164" s="103"/>
       <c r="B164" s="103"/>
-      <c r="C164" s="294"/>
-      <c r="D164" s="295"/>
-      <c r="E164" s="295"/>
+      <c r="C164" s="317"/>
+      <c r="D164" s="318"/>
+      <c r="E164" s="318"/>
       <c r="F164" s="174" t="s">
         <v>237</v>
       </c>
@@ -23062,8 +23107,8 @@
     <row r="165" spans="1:24" ht="16.5" customHeight="1">
       <c r="A165" s="103"/>
       <c r="B165" s="103"/>
-      <c r="C165" s="294"/>
-      <c r="D165" s="299" t="s">
+      <c r="C165" s="317"/>
+      <c r="D165" s="316" t="s">
         <v>242</v>
       </c>
       <c r="E165" s="174" t="s">
@@ -23100,8 +23145,8 @@
     <row r="166" spans="1:24" ht="16.5" customHeight="1">
       <c r="A166" s="103"/>
       <c r="B166" s="103"/>
-      <c r="C166" s="294"/>
-      <c r="D166" s="294"/>
+      <c r="C166" s="317"/>
+      <c r="D166" s="317"/>
       <c r="E166" s="174" t="s">
         <v>244</v>
       </c>
@@ -23136,9 +23181,9 @@
     <row r="167" spans="1:24" ht="16.5" customHeight="1">
       <c r="A167" s="103"/>
       <c r="B167" s="103"/>
-      <c r="C167" s="294"/>
-      <c r="D167" s="294"/>
-      <c r="E167" s="306" t="s">
+      <c r="C167" s="317"/>
+      <c r="D167" s="317"/>
+      <c r="E167" s="336" t="s">
         <v>109</v>
       </c>
       <c r="F167" s="174" t="s">
@@ -23166,9 +23211,9 @@
     <row r="168" spans="1:24" ht="16.5" customHeight="1">
       <c r="A168" s="103"/>
       <c r="B168" s="103"/>
-      <c r="C168" s="294"/>
-      <c r="D168" s="294"/>
-      <c r="E168" s="295"/>
+      <c r="C168" s="317"/>
+      <c r="D168" s="317"/>
+      <c r="E168" s="318"/>
       <c r="F168" s="174" t="s">
         <v>247</v>
       </c>
@@ -23194,9 +23239,9 @@
     <row r="169" spans="1:24" ht="16.5" customHeight="1">
       <c r="A169" s="103"/>
       <c r="B169" s="103"/>
-      <c r="C169" s="294"/>
-      <c r="D169" s="294"/>
-      <c r="E169" s="299" t="s">
+      <c r="C169" s="317"/>
+      <c r="D169" s="317"/>
+      <c r="E169" s="316" t="s">
         <v>248</v>
       </c>
       <c r="F169" s="174" t="s">
@@ -23230,9 +23275,9 @@
     <row r="170" spans="1:24" ht="16.5" customHeight="1">
       <c r="A170" s="103"/>
       <c r="B170" s="103"/>
-      <c r="C170" s="294"/>
-      <c r="D170" s="294"/>
-      <c r="E170" s="295"/>
+      <c r="C170" s="317"/>
+      <c r="D170" s="317"/>
+      <c r="E170" s="318"/>
       <c r="F170" s="174" t="s">
         <v>247</v>
       </c>
@@ -23264,9 +23309,9 @@
     <row r="171" spans="1:24" ht="16.5" customHeight="1">
       <c r="A171" s="103"/>
       <c r="B171" s="103"/>
-      <c r="C171" s="294"/>
-      <c r="D171" s="294"/>
-      <c r="E171" s="299" t="s">
+      <c r="C171" s="317"/>
+      <c r="D171" s="317"/>
+      <c r="E171" s="316" t="s">
         <v>126</v>
       </c>
       <c r="F171" s="174" t="s">
@@ -23300,9 +23345,9 @@
     <row r="172" spans="1:24" ht="16.5" customHeight="1">
       <c r="A172" s="103"/>
       <c r="B172" s="103"/>
-      <c r="C172" s="294"/>
-      <c r="D172" s="295"/>
-      <c r="E172" s="295"/>
+      <c r="C172" s="317"/>
+      <c r="D172" s="318"/>
+      <c r="E172" s="318"/>
       <c r="F172" s="174" t="s">
         <v>250</v>
       </c>
@@ -23334,8 +23379,8 @@
     <row r="173" spans="1:24" ht="16.5" customHeight="1">
       <c r="A173" s="123"/>
       <c r="B173" s="123"/>
-      <c r="C173" s="294"/>
-      <c r="D173" s="293" t="s">
+      <c r="C173" s="317"/>
+      <c r="D173" s="319" t="s">
         <v>251</v>
       </c>
       <c r="E173" s="190" t="s">
@@ -23366,8 +23411,8 @@
     <row r="174" spans="1:24" ht="16.5" customHeight="1">
       <c r="A174" s="123"/>
       <c r="B174" s="123"/>
-      <c r="C174" s="294"/>
-      <c r="D174" s="294"/>
+      <c r="C174" s="317"/>
+      <c r="D174" s="317"/>
       <c r="E174" s="190" t="s">
         <v>253</v>
       </c>
@@ -23396,8 +23441,8 @@
     <row r="175" spans="1:24" ht="16.5" customHeight="1">
       <c r="A175" s="123"/>
       <c r="B175" s="123"/>
-      <c r="C175" s="294"/>
-      <c r="D175" s="295"/>
+      <c r="C175" s="317"/>
+      <c r="D175" s="318"/>
       <c r="E175" s="191" t="s">
         <v>255</v>
       </c>
@@ -23426,11 +23471,11 @@
     <row r="176" spans="1:24" ht="16.5" customHeight="1">
       <c r="A176" s="125"/>
       <c r="B176" s="126"/>
-      <c r="C176" s="294"/>
-      <c r="D176" s="297" t="s">
+      <c r="C176" s="317"/>
+      <c r="D176" s="322" t="s">
         <v>257</v>
       </c>
-      <c r="E176" s="297"/>
+      <c r="E176" s="322"/>
       <c r="F176" s="204" t="s">
         <v>258</v>
       </c>
@@ -23456,9 +23501,9 @@
     <row r="177" spans="1:24" ht="16.5" customHeight="1">
       <c r="A177" s="129"/>
       <c r="B177" s="126"/>
-      <c r="C177" s="294"/>
-      <c r="D177" s="298"/>
-      <c r="E177" s="298"/>
+      <c r="C177" s="317"/>
+      <c r="D177" s="323"/>
+      <c r="E177" s="323"/>
       <c r="F177" s="208" t="s">
         <v>259</v>
       </c>
@@ -23484,9 +23529,9 @@
     <row r="178" spans="1:24" ht="16.5" customHeight="1" thickBot="1">
       <c r="A178" s="131"/>
       <c r="B178" s="132"/>
-      <c r="C178" s="295"/>
-      <c r="D178" s="309"/>
-      <c r="E178" s="305"/>
+      <c r="C178" s="318"/>
+      <c r="D178" s="324"/>
+      <c r="E178" s="330"/>
       <c r="F178" s="190" t="s">
         <v>260</v>
       </c>
@@ -23512,12 +23557,12 @@
     <row r="179" spans="1:24" ht="16.5" customHeight="1">
       <c r="A179" s="114"/>
       <c r="B179" s="114"/>
-      <c r="C179" s="302" t="s">
+      <c r="C179" s="331" t="s">
         <v>487</v>
       </c>
-      <c r="D179" s="303"/>
-      <c r="E179" s="303"/>
-      <c r="F179" s="304"/>
+      <c r="D179" s="332"/>
+      <c r="E179" s="332"/>
+      <c r="F179" s="333"/>
       <c r="G179" s="175"/>
       <c r="H179" s="176"/>
       <c r="I179" s="176"/>
@@ -23540,13 +23585,13 @@
     <row r="180" spans="1:24" ht="16.5" customHeight="1">
       <c r="A180" s="118"/>
       <c r="B180" s="118"/>
-      <c r="C180" s="299" t="s">
+      <c r="C180" s="316" t="s">
         <v>488</v>
       </c>
-      <c r="D180" s="299" t="s">
+      <c r="D180" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="E180" s="296" t="s">
+      <c r="E180" s="320" t="s">
         <v>220</v>
       </c>
       <c r="F180" s="195" t="s">
@@ -23574,9 +23619,9 @@
     <row r="181" spans="1:24" ht="16.5" customHeight="1">
       <c r="A181" s="118"/>
       <c r="B181" s="118"/>
-      <c r="C181" s="294"/>
-      <c r="D181" s="294"/>
-      <c r="E181" s="294"/>
+      <c r="C181" s="317"/>
+      <c r="D181" s="317"/>
+      <c r="E181" s="317"/>
       <c r="F181" s="195" t="s">
         <v>280</v>
       </c>
@@ -23602,9 +23647,9 @@
     <row r="182" spans="1:24" ht="16.5" customHeight="1">
       <c r="A182" s="118"/>
       <c r="B182" s="118"/>
-      <c r="C182" s="294"/>
-      <c r="D182" s="294"/>
-      <c r="E182" s="296" t="s">
+      <c r="C182" s="317"/>
+      <c r="D182" s="317"/>
+      <c r="E182" s="320" t="s">
         <v>224</v>
       </c>
       <c r="F182" s="195" t="s">
@@ -23632,9 +23677,9 @@
     <row r="183" spans="1:24" ht="16.5" customHeight="1">
       <c r="A183" s="118"/>
       <c r="B183" s="118"/>
-      <c r="C183" s="294"/>
-      <c r="D183" s="294"/>
-      <c r="E183" s="295"/>
+      <c r="C183" s="317"/>
+      <c r="D183" s="317"/>
+      <c r="E183" s="318"/>
       <c r="F183" s="195" t="s">
         <v>226</v>
       </c>
@@ -23660,8 +23705,8 @@
     <row r="184" spans="1:24" ht="16.5" customHeight="1">
       <c r="A184" s="103"/>
       <c r="B184" s="103"/>
-      <c r="C184" s="294"/>
-      <c r="D184" s="294"/>
+      <c r="C184" s="317"/>
+      <c r="D184" s="317"/>
       <c r="E184" s="174" t="s">
         <v>126</v>
       </c>
@@ -23696,8 +23741,8 @@
     <row r="185" spans="1:24" ht="16.5" customHeight="1">
       <c r="A185" s="103"/>
       <c r="B185" s="103"/>
-      <c r="C185" s="294"/>
-      <c r="D185" s="294"/>
+      <c r="C185" s="317"/>
+      <c r="D185" s="317"/>
       <c r="E185" s="174" t="s">
         <v>228</v>
       </c>
@@ -23732,14 +23777,14 @@
     <row r="186" spans="1:24" ht="16.5" customHeight="1">
       <c r="A186" s="103"/>
       <c r="B186" s="103"/>
-      <c r="C186" s="294"/>
-      <c r="D186" s="299" t="s">
+      <c r="C186" s="317"/>
+      <c r="D186" s="316" t="s">
         <v>86</v>
       </c>
-      <c r="E186" s="300" t="s">
+      <c r="E186" s="328" t="s">
         <v>230</v>
       </c>
-      <c r="F186" s="301"/>
+      <c r="F186" s="329"/>
       <c r="G186" s="174"/>
       <c r="H186" s="167"/>
       <c r="I186" s="167"/>
@@ -23768,8 +23813,8 @@
     <row r="187" spans="1:24" ht="16.5" customHeight="1">
       <c r="A187" s="103"/>
       <c r="B187" s="103"/>
-      <c r="C187" s="294"/>
-      <c r="D187" s="294"/>
+      <c r="C187" s="317"/>
+      <c r="D187" s="317"/>
       <c r="E187" s="174" t="s">
         <v>228</v>
       </c>
@@ -23804,9 +23849,9 @@
     <row r="188" spans="1:24" ht="16.5" customHeight="1">
       <c r="A188" s="103"/>
       <c r="B188" s="103"/>
-      <c r="C188" s="294"/>
-      <c r="D188" s="294"/>
-      <c r="E188" s="299" t="s">
+      <c r="C188" s="317"/>
+      <c r="D188" s="317"/>
+      <c r="E188" s="316" t="s">
         <v>231</v>
       </c>
       <c r="F188" s="174" t="s">
@@ -23840,9 +23885,9 @@
     <row r="189" spans="1:24" ht="16.5" customHeight="1">
       <c r="A189" s="103"/>
       <c r="B189" s="103"/>
-      <c r="C189" s="294"/>
-      <c r="D189" s="294"/>
-      <c r="E189" s="294"/>
+      <c r="C189" s="317"/>
+      <c r="D189" s="317"/>
+      <c r="E189" s="317"/>
       <c r="F189" s="174" t="s">
         <v>233</v>
       </c>
@@ -23874,9 +23919,9 @@
     <row r="190" spans="1:24" ht="16.5" customHeight="1">
       <c r="A190" s="103"/>
       <c r="B190" s="103"/>
-      <c r="C190" s="294"/>
-      <c r="D190" s="295"/>
-      <c r="E190" s="295"/>
+      <c r="C190" s="317"/>
+      <c r="D190" s="318"/>
+      <c r="E190" s="318"/>
       <c r="F190" s="174" t="s">
         <v>234</v>
       </c>
@@ -23908,8 +23953,8 @@
     <row r="191" spans="1:24" ht="16.5" customHeight="1">
       <c r="A191" s="103"/>
       <c r="B191" s="103"/>
-      <c r="C191" s="294"/>
-      <c r="D191" s="299" t="s">
+      <c r="C191" s="317"/>
+      <c r="D191" s="316" t="s">
         <v>235</v>
       </c>
       <c r="E191" s="174" t="s">
@@ -23946,8 +23991,8 @@
     <row r="192" spans="1:24" ht="16.5" customHeight="1">
       <c r="A192" s="103"/>
       <c r="B192" s="103"/>
-      <c r="C192" s="294"/>
-      <c r="D192" s="294"/>
+      <c r="C192" s="317"/>
+      <c r="D192" s="317"/>
       <c r="E192" s="174" t="s">
         <v>282</v>
       </c>
@@ -23982,8 +24027,8 @@
     <row r="193" spans="1:24" ht="16.5" customHeight="1">
       <c r="A193" s="103"/>
       <c r="B193" s="103"/>
-      <c r="C193" s="294"/>
-      <c r="D193" s="294"/>
+      <c r="C193" s="317"/>
+      <c r="D193" s="317"/>
       <c r="E193" s="174" t="s">
         <v>283</v>
       </c>
@@ -24018,9 +24063,9 @@
     <row r="194" spans="1:24" ht="16.5" customHeight="1">
       <c r="A194" s="103"/>
       <c r="B194" s="103"/>
-      <c r="C194" s="294"/>
-      <c r="D194" s="294"/>
-      <c r="E194" s="299" t="s">
+      <c r="C194" s="317"/>
+      <c r="D194" s="317"/>
+      <c r="E194" s="316" t="s">
         <v>240</v>
       </c>
       <c r="F194" s="174" t="s">
@@ -24054,9 +24099,9 @@
     <row r="195" spans="1:24" ht="16.5" customHeight="1">
       <c r="A195" s="103"/>
       <c r="B195" s="103"/>
-      <c r="C195" s="294"/>
-      <c r="D195" s="295"/>
-      <c r="E195" s="295"/>
+      <c r="C195" s="317"/>
+      <c r="D195" s="318"/>
+      <c r="E195" s="318"/>
       <c r="F195" s="174" t="s">
         <v>237</v>
       </c>
@@ -24088,8 +24133,8 @@
     <row r="196" spans="1:24" ht="16.5" customHeight="1">
       <c r="A196" s="103"/>
       <c r="B196" s="103"/>
-      <c r="C196" s="294"/>
-      <c r="D196" s="299" t="s">
+      <c r="C196" s="317"/>
+      <c r="D196" s="316" t="s">
         <v>242</v>
       </c>
       <c r="E196" s="174" t="s">
@@ -24126,8 +24171,8 @@
     <row r="197" spans="1:24" ht="16.5" customHeight="1">
       <c r="A197" s="103"/>
       <c r="B197" s="103"/>
-      <c r="C197" s="294"/>
-      <c r="D197" s="294"/>
+      <c r="C197" s="317"/>
+      <c r="D197" s="317"/>
       <c r="E197" s="174" t="s">
         <v>244</v>
       </c>
@@ -24162,9 +24207,9 @@
     <row r="198" spans="1:24" ht="16.5" customHeight="1">
       <c r="A198" s="103"/>
       <c r="B198" s="103"/>
-      <c r="C198" s="294"/>
-      <c r="D198" s="294"/>
-      <c r="E198" s="306" t="s">
+      <c r="C198" s="317"/>
+      <c r="D198" s="317"/>
+      <c r="E198" s="336" t="s">
         <v>109</v>
       </c>
       <c r="F198" s="174" t="s">
@@ -24192,9 +24237,9 @@
     <row r="199" spans="1:24" ht="16.5" customHeight="1">
       <c r="A199" s="103"/>
       <c r="B199" s="103"/>
-      <c r="C199" s="294"/>
-      <c r="D199" s="294"/>
-      <c r="E199" s="295"/>
+      <c r="C199" s="317"/>
+      <c r="D199" s="317"/>
+      <c r="E199" s="318"/>
       <c r="F199" s="174" t="s">
         <v>247</v>
       </c>
@@ -24220,9 +24265,9 @@
     <row r="200" spans="1:24" ht="16.5" customHeight="1">
       <c r="A200" s="103"/>
       <c r="B200" s="103"/>
-      <c r="C200" s="294"/>
-      <c r="D200" s="294"/>
-      <c r="E200" s="299" t="s">
+      <c r="C200" s="317"/>
+      <c r="D200" s="317"/>
+      <c r="E200" s="316" t="s">
         <v>248</v>
       </c>
       <c r="F200" s="174" t="s">
@@ -24256,9 +24301,9 @@
     <row r="201" spans="1:24" ht="16.5" customHeight="1">
       <c r="A201" s="103"/>
       <c r="B201" s="103"/>
-      <c r="C201" s="294"/>
-      <c r="D201" s="294"/>
-      <c r="E201" s="295"/>
+      <c r="C201" s="317"/>
+      <c r="D201" s="317"/>
+      <c r="E201" s="318"/>
       <c r="F201" s="174" t="s">
         <v>247</v>
       </c>
@@ -24290,9 +24335,9 @@
     <row r="202" spans="1:24" ht="16.5" customHeight="1">
       <c r="A202" s="103"/>
       <c r="B202" s="103"/>
-      <c r="C202" s="294"/>
-      <c r="D202" s="294"/>
-      <c r="E202" s="299" t="s">
+      <c r="C202" s="317"/>
+      <c r="D202" s="317"/>
+      <c r="E202" s="316" t="s">
         <v>126</v>
       </c>
       <c r="F202" s="174" t="s">
@@ -24326,9 +24371,9 @@
     <row r="203" spans="1:24" ht="16.5" customHeight="1">
       <c r="A203" s="103"/>
       <c r="B203" s="103"/>
-      <c r="C203" s="294"/>
-      <c r="D203" s="295"/>
-      <c r="E203" s="295"/>
+      <c r="C203" s="317"/>
+      <c r="D203" s="318"/>
+      <c r="E203" s="318"/>
       <c r="F203" s="174" t="s">
         <v>250</v>
       </c>
@@ -24360,8 +24405,8 @@
     <row r="204" spans="1:24" ht="16.5" customHeight="1">
       <c r="A204" s="123"/>
       <c r="B204" s="123"/>
-      <c r="C204" s="294"/>
-      <c r="D204" s="293" t="s">
+      <c r="C204" s="317"/>
+      <c r="D204" s="319" t="s">
         <v>251</v>
       </c>
       <c r="E204" s="190" t="s">
@@ -24392,8 +24437,8 @@
     <row r="205" spans="1:24" ht="16.5" customHeight="1">
       <c r="A205" s="123"/>
       <c r="B205" s="123"/>
-      <c r="C205" s="294"/>
-      <c r="D205" s="294"/>
+      <c r="C205" s="317"/>
+      <c r="D205" s="317"/>
       <c r="E205" s="190" t="s">
         <v>253</v>
       </c>
@@ -24422,8 +24467,8 @@
     <row r="206" spans="1:24" ht="16.5" customHeight="1">
       <c r="A206" s="123"/>
       <c r="B206" s="123"/>
-      <c r="C206" s="294"/>
-      <c r="D206" s="295"/>
+      <c r="C206" s="317"/>
+      <c r="D206" s="318"/>
       <c r="E206" s="191" t="s">
         <v>255</v>
       </c>
@@ -24452,11 +24497,11 @@
     <row r="207" spans="1:24" ht="16.5" customHeight="1">
       <c r="A207" s="125"/>
       <c r="B207" s="126"/>
-      <c r="C207" s="294"/>
-      <c r="D207" s="297" t="s">
+      <c r="C207" s="317"/>
+      <c r="D207" s="322" t="s">
         <v>257</v>
       </c>
-      <c r="E207" s="297"/>
+      <c r="E207" s="322"/>
       <c r="F207" s="204" t="s">
         <v>258</v>
       </c>
@@ -24482,9 +24527,9 @@
     <row r="208" spans="1:24" ht="16.5" customHeight="1">
       <c r="A208" s="129"/>
       <c r="B208" s="126"/>
-      <c r="C208" s="294"/>
-      <c r="D208" s="298"/>
-      <c r="E208" s="298"/>
+      <c r="C208" s="317"/>
+      <c r="D208" s="323"/>
+      <c r="E208" s="323"/>
       <c r="F208" s="208" t="s">
         <v>259</v>
       </c>
@@ -24510,9 +24555,9 @@
     <row r="209" spans="1:24" ht="16.5" customHeight="1">
       <c r="A209" s="245"/>
       <c r="B209" s="126"/>
-      <c r="C209" s="294"/>
-      <c r="D209" s="298"/>
-      <c r="E209" s="298"/>
+      <c r="C209" s="317"/>
+      <c r="D209" s="323"/>
+      <c r="E209" s="323"/>
       <c r="F209" s="238" t="s">
         <v>260</v>
       </c>
@@ -27865,58 +27910,45 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C151:C178"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="D150:D155"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="D120:D125"/>
-    <mergeCell ref="C120:C148"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="D135:D142"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="D156:D160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="D126:D130"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="D43:D50"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="C81:O82"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="D207:D209"/>
+    <mergeCell ref="D204:D206"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="C7:C21"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E32:E37"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="C179:F179"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="E207:E209"/>
+    <mergeCell ref="D186:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="D196:D203"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="D180:D185"/>
+    <mergeCell ref="C180:C209"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="E163:E164"/>
+    <mergeCell ref="D165:D172"/>
+    <mergeCell ref="E167:E168"/>
+    <mergeCell ref="E169:E170"/>
+    <mergeCell ref="D161:D164"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D84:D90"/>
+    <mergeCell ref="E105:E108"/>
+    <mergeCell ref="E109:E112"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="D100:D112"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="E122:E123"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="D32:D37"/>
@@ -27940,52 +27972,65 @@
     <mergeCell ref="D59:D69"/>
     <mergeCell ref="C84:C118"/>
     <mergeCell ref="C43:C80"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="E163:E164"/>
-    <mergeCell ref="D165:D172"/>
-    <mergeCell ref="E167:E168"/>
-    <mergeCell ref="E169:E170"/>
-    <mergeCell ref="D161:D164"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D84:D90"/>
-    <mergeCell ref="E105:E108"/>
-    <mergeCell ref="E109:E112"/>
-    <mergeCell ref="E102:E104"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D91:D95"/>
-    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="D43:D50"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="C81:O82"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E116:E118"/>
     <mergeCell ref="D70:D71"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="E72:E73"/>
-    <mergeCell ref="D100:D112"/>
     <mergeCell ref="D74:D76"/>
     <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="D207:D209"/>
-    <mergeCell ref="D204:D206"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="C7:C21"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E32:E37"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="C179:F179"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="E207:E209"/>
-    <mergeCell ref="D186:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="D196:D203"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="D180:D185"/>
-    <mergeCell ref="C180:C209"/>
-    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="C151:C178"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="D150:D155"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D120:D125"/>
+    <mergeCell ref="C120:C148"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="D135:D142"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="D156:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="D126:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E139:E140"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -28032,10 +28077,10 @@
       <c r="D3" s="137"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="330" t="s">
+      <c r="B4" s="356" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="332" t="s">
+      <c r="C4" s="358" t="s">
         <v>287</v>
       </c>
       <c r="D4" s="137" t="s">
@@ -28043,15 +28088,15 @@
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
       <c r="D5" s="137" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="286"/>
-      <c r="C6" s="332" t="s">
+      <c r="B6" s="291"/>
+      <c r="C6" s="358" t="s">
         <v>290</v>
       </c>
       <c r="D6" s="137" t="s">
@@ -28059,15 +28104,15 @@
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
+      <c r="B7" s="291"/>
+      <c r="C7" s="291"/>
       <c r="D7" s="137" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="286"/>
-      <c r="C8" s="332" t="s">
+      <c r="B8" s="291"/>
+      <c r="C8" s="358" t="s">
         <v>293</v>
       </c>
       <c r="D8" s="137" t="s">
@@ -28075,29 +28120,29 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="286"/>
-      <c r="C9" s="286"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="291"/>
       <c r="D9" s="137" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="286"/>
-      <c r="C10" s="286"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
       <c r="D10" s="137" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="286"/>
-      <c r="C11" s="286"/>
+      <c r="B11" s="291"/>
+      <c r="C11" s="291"/>
       <c r="D11" s="137" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="286"/>
-      <c r="C12" s="332" t="s">
+      <c r="B12" s="291"/>
+      <c r="C12" s="358" t="s">
         <v>298</v>
       </c>
       <c r="D12" s="137" t="s">
@@ -28105,43 +28150,43 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="286"/>
-      <c r="C13" s="286"/>
+      <c r="B13" s="291"/>
+      <c r="C13" s="291"/>
       <c r="D13" s="137" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="286"/>
-      <c r="C14" s="286"/>
+      <c r="B14" s="291"/>
+      <c r="C14" s="291"/>
       <c r="D14" s="137" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="286"/>
-      <c r="C15" s="286"/>
+      <c r="B15" s="291"/>
+      <c r="C15" s="291"/>
       <c r="D15" s="137" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="286"/>
-      <c r="C16" s="286"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
       <c r="D16" s="137" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="286"/>
-      <c r="C17" s="286"/>
+      <c r="B17" s="291"/>
+      <c r="C17" s="291"/>
       <c r="D17" s="137" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="286"/>
-      <c r="C18" s="332" t="s">
+      <c r="B18" s="291"/>
+      <c r="C18" s="358" t="s">
         <v>305</v>
       </c>
       <c r="D18" s="137" t="s">
@@ -28149,15 +28194,15 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="286"/>
-      <c r="C19" s="286"/>
+      <c r="B19" s="291"/>
+      <c r="C19" s="291"/>
       <c r="D19" s="137" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="286"/>
-      <c r="C20" s="332" t="s">
+      <c r="B20" s="291"/>
+      <c r="C20" s="358" t="s">
         <v>308</v>
       </c>
       <c r="D20" s="137" t="s">
@@ -28165,15 +28210,15 @@
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="286"/>
-      <c r="C21" s="286"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
       <c r="D21" s="137" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="286"/>
-      <c r="C22" s="332" t="s">
+      <c r="B22" s="291"/>
+      <c r="C22" s="358" t="s">
         <v>311</v>
       </c>
       <c r="D22" s="137" t="s">
@@ -28181,15 +28226,15 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="286"/>
-      <c r="C23" s="286"/>
+      <c r="B23" s="291"/>
+      <c r="C23" s="291"/>
       <c r="D23" s="137" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="286"/>
-      <c r="C24" s="332" t="s">
+      <c r="B24" s="291"/>
+      <c r="C24" s="358" t="s">
         <v>314</v>
       </c>
       <c r="D24" s="137" t="s">
@@ -28197,36 +28242,36 @@
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
+      <c r="B25" s="291"/>
+      <c r="C25" s="291"/>
       <c r="D25" s="137" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="286"/>
-      <c r="C26" s="286"/>
+      <c r="B26" s="291"/>
+      <c r="C26" s="291"/>
       <c r="D26" s="137" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="286"/>
-      <c r="C27" s="286"/>
+      <c r="B27" s="291"/>
+      <c r="C27" s="291"/>
       <c r="D27" s="137" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="286"/>
-      <c r="C28" s="286"/>
+      <c r="B28" s="291"/>
+      <c r="C28" s="291"/>
       <c r="D28" s="137" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="331"/>
-      <c r="C29" s="286"/>
+      <c r="B29" s="357"/>
+      <c r="C29" s="291"/>
       <c r="D29" s="137" t="s">
         <v>320</v>
       </c>
@@ -28271,15 +28316,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1" s="283" t="s">
+      <c r="A1" s="281" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="283" t="s">
+      <c r="C1" s="281" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -28303,7 +28348,7 @@
       <c r="Z1" s="138"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A2" s="331"/>
+      <c r="A2" s="357"/>
       <c r="B2" s="139"/>
       <c r="C2" s="139" t="s">
         <v>24</v>
@@ -28339,10 +28384,10 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
-      <c r="C3" s="332" t="s">
+      <c r="C3" s="358" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="332" t="s">
+      <c r="D3" s="358" t="s">
         <v>322</v>
       </c>
       <c r="E3" s="140" t="s">
@@ -28373,8 +28418,8 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
       <c r="E4" s="137" t="s">
         <v>324</v>
       </c>
@@ -28403,8 +28448,8 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
       <c r="E5" s="137" t="s">
         <v>325</v>
       </c>
@@ -28433,8 +28478,8 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
       <c r="E6" s="137" t="s">
         <v>326</v>
       </c>
@@ -28463,8 +28508,8 @@
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="334" t="s">
+      <c r="C7" s="291"/>
+      <c r="D7" s="359" t="s">
         <v>327</v>
       </c>
       <c r="E7" s="140" t="s">
@@ -28495,8 +28540,8 @@
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
       <c r="E8" s="140" t="s">
         <v>329</v>
       </c>
@@ -28525,8 +28570,8 @@
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="286"/>
-      <c r="D9" s="286"/>
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
       <c r="E9" s="137" t="s">
         <v>330</v>
       </c>
@@ -28555,8 +28600,8 @@
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="332" t="s">
+      <c r="C10" s="291"/>
+      <c r="D10" s="358" t="s">
         <v>326</v>
       </c>
       <c r="E10" s="137" t="s">
@@ -28587,8 +28632,8 @@
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="286"/>
-      <c r="D11" s="286"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="291"/>
       <c r="E11" s="137" t="s">
         <v>331</v>
       </c>
@@ -28617,8 +28662,8 @@
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="286"/>
-      <c r="D12" s="286"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="291"/>
       <c r="E12" s="137" t="s">
         <v>332</v>
       </c>
@@ -28647,8 +28692,8 @@
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
+      <c r="C13" s="291"/>
+      <c r="D13" s="291"/>
       <c r="E13" s="137" t="s">
         <v>333</v>
       </c>
@@ -28677,8 +28722,8 @@
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="286"/>
-      <c r="D14" s="286"/>
+      <c r="C14" s="291"/>
+      <c r="D14" s="291"/>
       <c r="E14" s="137" t="s">
         <v>334</v>
       </c>
@@ -28707,8 +28752,8 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="286"/>
-      <c r="D15" s="286"/>
+      <c r="C15" s="291"/>
+      <c r="D15" s="291"/>
       <c r="E15" s="137" t="s">
         <v>335</v>
       </c>
@@ -28737,8 +28782,8 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="286"/>
-      <c r="D16" s="286"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
       <c r="E16" s="137" t="s">
         <v>336</v>
       </c>
@@ -28767,8 +28812,8 @@
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="286"/>
+      <c r="C17" s="291"/>
+      <c r="D17" s="291"/>
       <c r="E17" s="137" t="s">
         <v>337</v>
       </c>
@@ -28797,8 +28842,8 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="286"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="291"/>
       <c r="E18" s="137" t="s">
         <v>338</v>
       </c>
@@ -28827,8 +28872,8 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="286"/>
-      <c r="D19" s="286"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="291"/>
       <c r="E19" s="137" t="s">
         <v>339</v>
       </c>
@@ -28857,8 +28902,8 @@
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="286"/>
+      <c r="C20" s="291"/>
+      <c r="D20" s="291"/>
       <c r="E20" s="137" t="s">
         <v>340</v>
       </c>
@@ -28887,8 +28932,8 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
       <c r="E21" s="137" t="s">
         <v>341</v>
       </c>
@@ -28917,8 +28962,8 @@
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
-      <c r="C22" s="286"/>
-      <c r="D22" s="332" t="s">
+      <c r="C22" s="291"/>
+      <c r="D22" s="358" t="s">
         <v>342</v>
       </c>
       <c r="E22" s="137" t="s">
@@ -28949,8 +28994,8 @@
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="286"/>
-      <c r="D23" s="286"/>
+      <c r="C23" s="291"/>
+      <c r="D23" s="291"/>
       <c r="E23" s="137" t="s">
         <v>344</v>
       </c>
@@ -28979,8 +29024,8 @@
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="286"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
       <c r="E24" s="137" t="s">
         <v>345</v>
       </c>
@@ -29009,8 +29054,8 @@
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="286"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="137" t="s">
         <v>346</v>
       </c>
@@ -29039,8 +29084,8 @@
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="286"/>
-      <c r="D26" s="286"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
       <c r="E26" s="137" t="s">
         <v>347</v>
       </c>
@@ -29069,8 +29114,8 @@
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="286"/>
-      <c r="D27" s="286"/>
+      <c r="C27" s="291"/>
+      <c r="D27" s="291"/>
       <c r="E27" s="137" t="s">
         <v>348</v>
       </c>
@@ -29099,8 +29144,8 @@
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="286"/>
-      <c r="D28" s="286"/>
+      <c r="C28" s="291"/>
+      <c r="D28" s="291"/>
       <c r="E28" s="137" t="s">
         <v>349</v>
       </c>
@@ -29129,8 +29174,8 @@
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="286"/>
-      <c r="D29" s="286"/>
+      <c r="C29" s="291"/>
+      <c r="D29" s="291"/>
       <c r="E29" s="140" t="s">
         <v>350</v>
       </c>
@@ -29159,8 +29204,8 @@
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
-      <c r="C30" s="286"/>
-      <c r="D30" s="286"/>
+      <c r="C30" s="291"/>
+      <c r="D30" s="291"/>
       <c r="E30" s="140" t="s">
         <v>351</v>
       </c>
@@ -29189,8 +29234,8 @@
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
-      <c r="C31" s="286"/>
-      <c r="D31" s="286"/>
+      <c r="C31" s="291"/>
+      <c r="D31" s="291"/>
       <c r="E31" s="137" t="s">
         <v>352</v>
       </c>
@@ -29219,8 +29264,8 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
-      <c r="C32" s="286"/>
-      <c r="D32" s="332" t="s">
+      <c r="C32" s="291"/>
+      <c r="D32" s="358" t="s">
         <v>109</v>
       </c>
       <c r="E32" s="137" t="s">
@@ -29251,8 +29296,8 @@
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
-      <c r="C33" s="286"/>
-      <c r="D33" s="286"/>
+      <c r="C33" s="291"/>
+      <c r="D33" s="291"/>
       <c r="E33" s="137" t="s">
         <v>354</v>
       </c>
@@ -29281,8 +29326,8 @@
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
-      <c r="C34" s="286"/>
-      <c r="D34" s="286"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="291"/>
       <c r="E34" s="137" t="s">
         <v>355</v>
       </c>
@@ -29311,8 +29356,8 @@
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
-      <c r="C35" s="286"/>
-      <c r="D35" s="286"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
       <c r="E35" s="137" t="s">
         <v>356</v>
       </c>
@@ -29341,8 +29386,8 @@
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="286"/>
-      <c r="D36" s="286"/>
+      <c r="C36" s="291"/>
+      <c r="D36" s="291"/>
       <c r="E36" s="137" t="s">
         <v>357</v>
       </c>
@@ -29371,8 +29416,8 @@
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
-      <c r="C37" s="286"/>
-      <c r="D37" s="286"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
       <c r="E37" s="137" t="s">
         <v>358</v>
       </c>
@@ -29401,8 +29446,8 @@
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
-      <c r="C38" s="286"/>
-      <c r="D38" s="332" t="s">
+      <c r="C38" s="291"/>
+      <c r="D38" s="358" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="137" t="s">
@@ -29433,8 +29478,8 @@
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
-      <c r="C39" s="286"/>
-      <c r="D39" s="286"/>
+      <c r="C39" s="291"/>
+      <c r="D39" s="291"/>
       <c r="E39" s="137" t="s">
         <v>354</v>
       </c>
@@ -29463,8 +29508,8 @@
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
-      <c r="C40" s="286"/>
-      <c r="D40" s="286"/>
+      <c r="C40" s="291"/>
+      <c r="D40" s="291"/>
       <c r="E40" s="137" t="s">
         <v>355</v>
       </c>
@@ -29493,8 +29538,8 @@
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
-      <c r="C41" s="286"/>
-      <c r="D41" s="286"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
       <c r="E41" s="137" t="s">
         <v>356</v>
       </c>
@@ -29523,8 +29568,8 @@
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
-      <c r="C42" s="286"/>
-      <c r="D42" s="286"/>
+      <c r="C42" s="291"/>
+      <c r="D42" s="291"/>
       <c r="E42" s="137" t="s">
         <v>357</v>
       </c>
@@ -29553,8 +29598,8 @@
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="286"/>
-      <c r="D43" s="286"/>
+      <c r="C43" s="291"/>
+      <c r="D43" s="291"/>
       <c r="E43" s="137" t="s">
         <v>358</v>
       </c>
@@ -29583,8 +29628,8 @@
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="286"/>
-      <c r="D44" s="332" t="s">
+      <c r="C44" s="291"/>
+      <c r="D44" s="358" t="s">
         <v>191</v>
       </c>
       <c r="E44" s="137" t="s">
@@ -29615,8 +29660,8 @@
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="286"/>
-      <c r="D45" s="286"/>
+      <c r="C45" s="291"/>
+      <c r="D45" s="291"/>
       <c r="E45" s="137" t="s">
         <v>361</v>
       </c>
@@ -29645,8 +29690,8 @@
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="286"/>
-      <c r="D46" s="286"/>
+      <c r="C46" s="291"/>
+      <c r="D46" s="291"/>
       <c r="E46" s="137"/>
       <c r="F46" s="16"/>
       <c r="G46" s="16"/>
@@ -29673,8 +29718,8 @@
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="286"/>
-      <c r="D47" s="286"/>
+      <c r="C47" s="291"/>
+      <c r="D47" s="291"/>
       <c r="E47" s="137"/>
       <c r="F47" s="16"/>
       <c r="G47" s="16"/>
@@ -29701,8 +29746,8 @@
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="141"/>
       <c r="B48" s="141"/>
-      <c r="C48" s="331"/>
-      <c r="D48" s="331"/>
+      <c r="C48" s="357"/>
+      <c r="D48" s="357"/>
       <c r="E48" s="142" t="s">
         <v>362</v>
       </c>
@@ -29731,10 +29776,10 @@
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="332" t="s">
+      <c r="C49" s="358" t="s">
         <v>86</v>
       </c>
-      <c r="D49" s="332" t="s">
+      <c r="D49" s="358" t="s">
         <v>363</v>
       </c>
       <c r="E49" s="137" t="s">
@@ -29765,8 +29810,8 @@
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="286"/>
-      <c r="D50" s="286"/>
+      <c r="C50" s="291"/>
+      <c r="D50" s="291"/>
       <c r="E50" s="140" t="s">
         <v>365</v>
       </c>
@@ -29795,8 +29840,8 @@
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="286"/>
-      <c r="D51" s="286"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291"/>
       <c r="E51" s="137" t="s">
         <v>366</v>
       </c>
@@ -29825,8 +29870,8 @@
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="286"/>
-      <c r="D52" s="286"/>
+      <c r="C52" s="291"/>
+      <c r="D52" s="291"/>
       <c r="E52" s="137" t="s">
         <v>164</v>
       </c>
@@ -29855,8 +29900,8 @@
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
-      <c r="C53" s="286"/>
-      <c r="D53" s="332" t="s">
+      <c r="C53" s="291"/>
+      <c r="D53" s="358" t="s">
         <v>367</v>
       </c>
       <c r="E53" s="137" t="s">
@@ -29887,8 +29932,8 @@
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="286"/>
-      <c r="D54" s="286"/>
+      <c r="C54" s="291"/>
+      <c r="D54" s="291"/>
       <c r="E54" s="137" t="s">
         <v>172</v>
       </c>
@@ -29917,8 +29962,8 @@
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
-      <c r="C55" s="286"/>
-      <c r="D55" s="286"/>
+      <c r="C55" s="291"/>
+      <c r="D55" s="291"/>
       <c r="E55" s="140" t="s">
         <v>173</v>
       </c>
@@ -29947,8 +29992,8 @@
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="286"/>
-      <c r="D56" s="286"/>
+      <c r="C56" s="291"/>
+      <c r="D56" s="291"/>
       <c r="E56" s="140" t="s">
         <v>174</v>
       </c>
@@ -29977,8 +30022,8 @@
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
-      <c r="C57" s="286"/>
-      <c r="D57" s="286"/>
+      <c r="C57" s="291"/>
+      <c r="D57" s="291"/>
       <c r="E57" s="140" t="s">
         <v>175</v>
       </c>
@@ -30007,8 +30052,8 @@
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
-      <c r="C58" s="286"/>
-      <c r="D58" s="286"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="291"/>
       <c r="E58" s="137" t="s">
         <v>176</v>
       </c>
@@ -30037,8 +30082,8 @@
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="286"/>
-      <c r="D59" s="286"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="291"/>
       <c r="E59" s="137" t="s">
         <v>177</v>
       </c>
@@ -30067,8 +30112,8 @@
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="286"/>
-      <c r="D60" s="332" t="s">
+      <c r="C60" s="291"/>
+      <c r="D60" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E60" s="137" t="s">
@@ -30099,8 +30144,8 @@
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
-      <c r="C61" s="286"/>
-      <c r="D61" s="286"/>
+      <c r="C61" s="291"/>
+      <c r="D61" s="291"/>
       <c r="E61" s="137" t="s">
         <v>168</v>
       </c>
@@ -30129,8 +30174,8 @@
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
-      <c r="C62" s="286"/>
-      <c r="D62" s="332" t="s">
+      <c r="C62" s="291"/>
+      <c r="D62" s="358" t="s">
         <v>368</v>
       </c>
       <c r="E62" s="137" t="s">
@@ -30161,8 +30206,8 @@
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
-      <c r="C63" s="286"/>
-      <c r="D63" s="286"/>
+      <c r="C63" s="291"/>
+      <c r="D63" s="291"/>
       <c r="E63" s="140" t="s">
         <v>365</v>
       </c>
@@ -30191,8 +30236,8 @@
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
-      <c r="C64" s="286"/>
-      <c r="D64" s="286"/>
+      <c r="C64" s="291"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="137" t="s">
         <v>366</v>
       </c>
@@ -30221,8 +30266,8 @@
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="286"/>
-      <c r="D65" s="286"/>
+      <c r="C65" s="291"/>
+      <c r="D65" s="291"/>
       <c r="E65" s="137" t="s">
         <v>164</v>
       </c>
@@ -30251,8 +30296,8 @@
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="286"/>
-      <c r="D66" s="332" t="s">
+      <c r="C66" s="291"/>
+      <c r="D66" s="358" t="s">
         <v>369</v>
       </c>
       <c r="E66" s="137" t="s">
@@ -30283,8 +30328,8 @@
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
-      <c r="C67" s="286"/>
-      <c r="D67" s="286"/>
+      <c r="C67" s="291"/>
+      <c r="D67" s="291"/>
       <c r="E67" s="137" t="s">
         <v>172</v>
       </c>
@@ -30313,8 +30358,8 @@
     <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
-      <c r="C68" s="286"/>
-      <c r="D68" s="286"/>
+      <c r="C68" s="291"/>
+      <c r="D68" s="291"/>
       <c r="E68" s="140" t="s">
         <v>173</v>
       </c>
@@ -30343,8 +30388,8 @@
     <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="286"/>
-      <c r="D69" s="286"/>
+      <c r="C69" s="291"/>
+      <c r="D69" s="291"/>
       <c r="E69" s="140" t="s">
         <v>174</v>
       </c>
@@ -30373,8 +30418,8 @@
     <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
-      <c r="C70" s="286"/>
-      <c r="D70" s="286"/>
+      <c r="C70" s="291"/>
+      <c r="D70" s="291"/>
       <c r="E70" s="140" t="s">
         <v>175</v>
       </c>
@@ -30403,8 +30448,8 @@
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
-      <c r="C71" s="286"/>
-      <c r="D71" s="286"/>
+      <c r="C71" s="291"/>
+      <c r="D71" s="291"/>
       <c r="E71" s="137" t="s">
         <v>176</v>
       </c>
@@ -30433,8 +30478,8 @@
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="286"/>
-      <c r="D72" s="286"/>
+      <c r="C72" s="291"/>
+      <c r="D72" s="291"/>
       <c r="E72" s="137" t="s">
         <v>177</v>
       </c>
@@ -30463,8 +30508,8 @@
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="286"/>
-      <c r="D73" s="332" t="s">
+      <c r="C73" s="291"/>
+      <c r="D73" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E73" s="137" t="s">
@@ -30495,8 +30540,8 @@
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
-      <c r="C74" s="286"/>
-      <c r="D74" s="286"/>
+      <c r="C74" s="291"/>
+      <c r="D74" s="291"/>
       <c r="E74" s="137" t="s">
         <v>168</v>
       </c>
@@ -30525,8 +30570,8 @@
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
-      <c r="C75" s="286"/>
-      <c r="D75" s="332" t="s">
+      <c r="C75" s="291"/>
+      <c r="D75" s="358" t="s">
         <v>370</v>
       </c>
       <c r="E75" s="137" t="s">
@@ -30557,8 +30602,8 @@
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
-      <c r="C76" s="286"/>
-      <c r="D76" s="286"/>
+      <c r="C76" s="291"/>
+      <c r="D76" s="291"/>
       <c r="E76" s="140" t="s">
         <v>365</v>
       </c>
@@ -30587,8 +30632,8 @@
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
-      <c r="C77" s="286"/>
-      <c r="D77" s="286"/>
+      <c r="C77" s="291"/>
+      <c r="D77" s="291"/>
       <c r="E77" s="137" t="s">
         <v>366</v>
       </c>
@@ -30617,8 +30662,8 @@
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
-      <c r="C78" s="286"/>
-      <c r="D78" s="286"/>
+      <c r="C78" s="291"/>
+      <c r="D78" s="291"/>
       <c r="E78" s="137" t="s">
         <v>164</v>
       </c>
@@ -30647,8 +30692,8 @@
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="16"/>
       <c r="B79" s="16"/>
-      <c r="C79" s="286"/>
-      <c r="D79" s="332" t="s">
+      <c r="C79" s="291"/>
+      <c r="D79" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E79" s="137" t="s">
@@ -30679,8 +30724,8 @@
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="286"/>
-      <c r="D80" s="286"/>
+      <c r="C80" s="291"/>
+      <c r="D80" s="291"/>
       <c r="E80" s="137" t="s">
         <v>172</v>
       </c>
@@ -30709,8 +30754,8 @@
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
-      <c r="C81" s="286"/>
-      <c r="D81" s="286"/>
+      <c r="C81" s="291"/>
+      <c r="D81" s="291"/>
       <c r="E81" s="140" t="s">
         <v>173</v>
       </c>
@@ -30739,8 +30784,8 @@
     <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="286"/>
-      <c r="D82" s="286"/>
+      <c r="C82" s="291"/>
+      <c r="D82" s="291"/>
       <c r="E82" s="140" t="s">
         <v>174</v>
       </c>
@@ -30769,8 +30814,8 @@
     <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
-      <c r="C83" s="286"/>
-      <c r="D83" s="286"/>
+      <c r="C83" s="291"/>
+      <c r="D83" s="291"/>
       <c r="E83" s="140" t="s">
         <v>175</v>
       </c>
@@ -30799,8 +30844,8 @@
     <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="286"/>
-      <c r="D84" s="286"/>
+      <c r="C84" s="291"/>
+      <c r="D84" s="291"/>
       <c r="E84" s="137" t="s">
         <v>176</v>
       </c>
@@ -30829,8 +30874,8 @@
     <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
-      <c r="C85" s="286"/>
-      <c r="D85" s="286"/>
+      <c r="C85" s="291"/>
+      <c r="D85" s="291"/>
       <c r="E85" s="137" t="s">
         <v>177</v>
       </c>
@@ -30859,8 +30904,8 @@
     <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="286"/>
-      <c r="D86" s="332" t="s">
+      <c r="C86" s="291"/>
+      <c r="D86" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E86" s="137" t="s">
@@ -30891,8 +30936,8 @@
     <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
-      <c r="C87" s="286"/>
-      <c r="D87" s="286"/>
+      <c r="C87" s="291"/>
+      <c r="D87" s="291"/>
       <c r="E87" s="137" t="s">
         <v>168</v>
       </c>
@@ -30921,8 +30966,8 @@
     <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
-      <c r="C88" s="286"/>
-      <c r="D88" s="332" t="s">
+      <c r="C88" s="291"/>
+      <c r="D88" s="358" t="s">
         <v>372</v>
       </c>
       <c r="E88" s="137" t="s">
@@ -30953,8 +30998,8 @@
     <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
-      <c r="C89" s="286"/>
-      <c r="D89" s="286"/>
+      <c r="C89" s="291"/>
+      <c r="D89" s="291"/>
       <c r="E89" s="140" t="s">
         <v>365</v>
       </c>
@@ -30983,8 +31028,8 @@
     <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="286"/>
-      <c r="D90" s="286"/>
+      <c r="C90" s="291"/>
+      <c r="D90" s="291"/>
       <c r="E90" s="137" t="s">
         <v>366</v>
       </c>
@@ -31013,8 +31058,8 @@
     <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
-      <c r="C91" s="286"/>
-      <c r="D91" s="286"/>
+      <c r="C91" s="291"/>
+      <c r="D91" s="291"/>
       <c r="E91" s="137" t="s">
         <v>164</v>
       </c>
@@ -31043,8 +31088,8 @@
     <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
-      <c r="C92" s="286"/>
-      <c r="D92" s="332" t="s">
+      <c r="C92" s="291"/>
+      <c r="D92" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E92" s="137" t="s">
@@ -31075,8 +31120,8 @@
     <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
-      <c r="C93" s="286"/>
-      <c r="D93" s="286"/>
+      <c r="C93" s="291"/>
+      <c r="D93" s="291"/>
       <c r="E93" s="137" t="s">
         <v>172</v>
       </c>
@@ -31105,8 +31150,8 @@
     <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
-      <c r="C94" s="286"/>
-      <c r="D94" s="286"/>
+      <c r="C94" s="291"/>
+      <c r="D94" s="291"/>
       <c r="E94" s="140" t="s">
         <v>173</v>
       </c>
@@ -31135,8 +31180,8 @@
     <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
-      <c r="C95" s="286"/>
-      <c r="D95" s="286"/>
+      <c r="C95" s="291"/>
+      <c r="D95" s="291"/>
       <c r="E95" s="140" t="s">
         <v>174</v>
       </c>
@@ -31165,8 +31210,8 @@
     <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="286"/>
-      <c r="D96" s="286"/>
+      <c r="C96" s="291"/>
+      <c r="D96" s="291"/>
       <c r="E96" s="140" t="s">
         <v>175</v>
       </c>
@@ -31195,8 +31240,8 @@
     <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
-      <c r="C97" s="286"/>
-      <c r="D97" s="286"/>
+      <c r="C97" s="291"/>
+      <c r="D97" s="291"/>
       <c r="E97" s="137" t="s">
         <v>176</v>
       </c>
@@ -31225,8 +31270,8 @@
     <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
-      <c r="C98" s="286"/>
-      <c r="D98" s="286"/>
+      <c r="C98" s="291"/>
+      <c r="D98" s="291"/>
       <c r="E98" s="137" t="s">
         <v>177</v>
       </c>
@@ -31255,8 +31300,8 @@
     <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
-      <c r="C99" s="286"/>
-      <c r="D99" s="332" t="s">
+      <c r="C99" s="291"/>
+      <c r="D99" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E99" s="137" t="s">
@@ -31287,8 +31332,8 @@
     <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
-      <c r="C100" s="286"/>
-      <c r="D100" s="286"/>
+      <c r="C100" s="291"/>
+      <c r="D100" s="291"/>
       <c r="E100" s="137" t="s">
         <v>168</v>
       </c>
@@ -31317,8 +31362,8 @@
     <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="16"/>
       <c r="B101" s="16"/>
-      <c r="C101" s="286"/>
-      <c r="D101" s="332" t="s">
+      <c r="C101" s="291"/>
+      <c r="D101" s="358" t="s">
         <v>373</v>
       </c>
       <c r="E101" s="137" t="s">
@@ -31349,8 +31394,8 @@
     <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
-      <c r="C102" s="286"/>
-      <c r="D102" s="286"/>
+      <c r="C102" s="291"/>
+      <c r="D102" s="291"/>
       <c r="E102" s="140" t="s">
         <v>365</v>
       </c>
@@ -31379,8 +31424,8 @@
     <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="16"/>
       <c r="B103" s="16"/>
-      <c r="C103" s="286"/>
-      <c r="D103" s="286"/>
+      <c r="C103" s="291"/>
+      <c r="D103" s="291"/>
       <c r="E103" s="137" t="s">
         <v>366</v>
       </c>
@@ -31409,8 +31454,8 @@
     <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
-      <c r="C104" s="286"/>
-      <c r="D104" s="286"/>
+      <c r="C104" s="291"/>
+      <c r="D104" s="291"/>
       <c r="E104" s="137" t="s">
         <v>164</v>
       </c>
@@ -31439,8 +31484,8 @@
     <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="16"/>
       <c r="B105" s="16"/>
-      <c r="C105" s="286"/>
-      <c r="D105" s="332" t="s">
+      <c r="C105" s="291"/>
+      <c r="D105" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E105" s="137" t="s">
@@ -31471,8 +31516,8 @@
     <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="16"/>
       <c r="B106" s="16"/>
-      <c r="C106" s="286"/>
-      <c r="D106" s="286"/>
+      <c r="C106" s="291"/>
+      <c r="D106" s="291"/>
       <c r="E106" s="137" t="s">
         <v>172</v>
       </c>
@@ -31501,8 +31546,8 @@
     <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="16"/>
       <c r="B107" s="16"/>
-      <c r="C107" s="286"/>
-      <c r="D107" s="286"/>
+      <c r="C107" s="291"/>
+      <c r="D107" s="291"/>
       <c r="E107" s="140" t="s">
         <v>173</v>
       </c>
@@ -31531,8 +31576,8 @@
     <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="16"/>
       <c r="B108" s="16"/>
-      <c r="C108" s="286"/>
-      <c r="D108" s="286"/>
+      <c r="C108" s="291"/>
+      <c r="D108" s="291"/>
       <c r="E108" s="140" t="s">
         <v>174</v>
       </c>
@@ -31561,8 +31606,8 @@
     <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
-      <c r="C109" s="286"/>
-      <c r="D109" s="286"/>
+      <c r="C109" s="291"/>
+      <c r="D109" s="291"/>
       <c r="E109" s="140" t="s">
         <v>175</v>
       </c>
@@ -31591,8 +31636,8 @@
     <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
-      <c r="C110" s="286"/>
-      <c r="D110" s="286"/>
+      <c r="C110" s="291"/>
+      <c r="D110" s="291"/>
       <c r="E110" s="137" t="s">
         <v>176</v>
       </c>
@@ -31621,8 +31666,8 @@
     <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
-      <c r="C111" s="286"/>
-      <c r="D111" s="286"/>
+      <c r="C111" s="291"/>
+      <c r="D111" s="291"/>
       <c r="E111" s="137" t="s">
         <v>177</v>
       </c>
@@ -31651,8 +31696,8 @@
     <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
-      <c r="C112" s="286"/>
-      <c r="D112" s="332" t="s">
+      <c r="C112" s="291"/>
+      <c r="D112" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E112" s="137" t="s">
@@ -31683,8 +31728,8 @@
     <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
-      <c r="C113" s="286"/>
-      <c r="D113" s="286"/>
+      <c r="C113" s="291"/>
+      <c r="D113" s="291"/>
       <c r="E113" s="137" t="s">
         <v>168</v>
       </c>
@@ -31713,8 +31758,8 @@
     <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
-      <c r="C114" s="286"/>
-      <c r="D114" s="332" t="s">
+      <c r="C114" s="291"/>
+      <c r="D114" s="358" t="s">
         <v>374</v>
       </c>
       <c r="E114" s="137" t="s">
@@ -31745,8 +31790,8 @@
     <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
-      <c r="C115" s="286"/>
-      <c r="D115" s="286"/>
+      <c r="C115" s="291"/>
+      <c r="D115" s="291"/>
       <c r="E115" s="140" t="s">
         <v>365</v>
       </c>
@@ -31775,8 +31820,8 @@
     <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="16"/>
       <c r="B116" s="16"/>
-      <c r="C116" s="286"/>
-      <c r="D116" s="286"/>
+      <c r="C116" s="291"/>
+      <c r="D116" s="291"/>
       <c r="E116" s="137" t="s">
         <v>366</v>
       </c>
@@ -31805,8 +31850,8 @@
     <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="16"/>
       <c r="B117" s="16"/>
-      <c r="C117" s="286"/>
-      <c r="D117" s="286"/>
+      <c r="C117" s="291"/>
+      <c r="D117" s="291"/>
       <c r="E117" s="137" t="s">
         <v>164</v>
       </c>
@@ -31835,8 +31880,8 @@
     <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16"/>
-      <c r="C118" s="286"/>
-      <c r="D118" s="332" t="s">
+      <c r="C118" s="291"/>
+      <c r="D118" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E118" s="137" t="s">
@@ -31867,8 +31912,8 @@
     <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="16"/>
       <c r="B119" s="16"/>
-      <c r="C119" s="286"/>
-      <c r="D119" s="286"/>
+      <c r="C119" s="291"/>
+      <c r="D119" s="291"/>
       <c r="E119" s="137" t="s">
         <v>172</v>
       </c>
@@ -31897,8 +31942,8 @@
     <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
-      <c r="C120" s="286"/>
-      <c r="D120" s="286"/>
+      <c r="C120" s="291"/>
+      <c r="D120" s="291"/>
       <c r="E120" s="140" t="s">
         <v>173</v>
       </c>
@@ -31927,8 +31972,8 @@
     <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16"/>
-      <c r="C121" s="286"/>
-      <c r="D121" s="286"/>
+      <c r="C121" s="291"/>
+      <c r="D121" s="291"/>
       <c r="E121" s="140" t="s">
         <v>174</v>
       </c>
@@ -31957,8 +32002,8 @@
     <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16"/>
-      <c r="C122" s="286"/>
-      <c r="D122" s="286"/>
+      <c r="C122" s="291"/>
+      <c r="D122" s="291"/>
       <c r="E122" s="140" t="s">
         <v>175</v>
       </c>
@@ -31987,8 +32032,8 @@
     <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="16"/>
       <c r="B123" s="16"/>
-      <c r="C123" s="286"/>
-      <c r="D123" s="286"/>
+      <c r="C123" s="291"/>
+      <c r="D123" s="291"/>
       <c r="E123" s="137" t="s">
         <v>176</v>
       </c>
@@ -32017,8 +32062,8 @@
     <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
-      <c r="C124" s="286"/>
-      <c r="D124" s="286"/>
+      <c r="C124" s="291"/>
+      <c r="D124" s="291"/>
       <c r="E124" s="137" t="s">
         <v>177</v>
       </c>
@@ -32047,8 +32092,8 @@
     <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="16"/>
       <c r="B125" s="16"/>
-      <c r="C125" s="286"/>
-      <c r="D125" s="332" t="s">
+      <c r="C125" s="291"/>
+      <c r="D125" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E125" s="137" t="s">
@@ -32079,8 +32124,8 @@
     <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="16"/>
       <c r="B126" s="16"/>
-      <c r="C126" s="286"/>
-      <c r="D126" s="286"/>
+      <c r="C126" s="291"/>
+      <c r="D126" s="291"/>
       <c r="E126" s="137" t="s">
         <v>168</v>
       </c>
@@ -32109,8 +32154,8 @@
     <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="16"/>
       <c r="B127" s="16"/>
-      <c r="C127" s="286"/>
-      <c r="D127" s="332" t="s">
+      <c r="C127" s="291"/>
+      <c r="D127" s="358" t="s">
         <v>360</v>
       </c>
       <c r="E127" s="137" t="s">
@@ -32141,8 +32186,8 @@
     <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="16"/>
       <c r="B128" s="16"/>
-      <c r="C128" s="286"/>
-      <c r="D128" s="286"/>
+      <c r="C128" s="291"/>
+      <c r="D128" s="291"/>
       <c r="E128" s="137" t="s">
         <v>366</v>
       </c>
@@ -32171,8 +32216,8 @@
     <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="16"/>
       <c r="B129" s="16"/>
-      <c r="C129" s="286"/>
-      <c r="D129" s="286"/>
+      <c r="C129" s="291"/>
+      <c r="D129" s="291"/>
       <c r="E129" s="137" t="s">
         <v>164</v>
       </c>
@@ -32201,8 +32246,8 @@
     <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="16"/>
       <c r="B130" s="16"/>
-      <c r="C130" s="286"/>
-      <c r="D130" s="332" t="s">
+      <c r="C130" s="291"/>
+      <c r="D130" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E130" s="137" t="s">
@@ -32233,8 +32278,8 @@
     <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="16"/>
       <c r="B131" s="16"/>
-      <c r="C131" s="286"/>
-      <c r="D131" s="286"/>
+      <c r="C131" s="291"/>
+      <c r="D131" s="291"/>
       <c r="E131" s="137" t="s">
         <v>172</v>
       </c>
@@ -32263,8 +32308,8 @@
     <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="16"/>
       <c r="B132" s="16"/>
-      <c r="C132" s="286"/>
-      <c r="D132" s="286"/>
+      <c r="C132" s="291"/>
+      <c r="D132" s="291"/>
       <c r="E132" s="140" t="s">
         <v>173</v>
       </c>
@@ -32293,8 +32338,8 @@
     <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="16"/>
       <c r="B133" s="16"/>
-      <c r="C133" s="286"/>
-      <c r="D133" s="286"/>
+      <c r="C133" s="291"/>
+      <c r="D133" s="291"/>
       <c r="E133" s="140" t="s">
         <v>174</v>
       </c>
@@ -32323,8 +32368,8 @@
     <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="16"/>
       <c r="B134" s="16"/>
-      <c r="C134" s="286"/>
-      <c r="D134" s="286"/>
+      <c r="C134" s="291"/>
+      <c r="D134" s="291"/>
       <c r="E134" s="140" t="s">
         <v>175</v>
       </c>
@@ -32353,8 +32398,8 @@
     <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="16"/>
       <c r="B135" s="16"/>
-      <c r="C135" s="286"/>
-      <c r="D135" s="286"/>
+      <c r="C135" s="291"/>
+      <c r="D135" s="291"/>
       <c r="E135" s="137" t="s">
         <v>176</v>
       </c>
@@ -32383,8 +32428,8 @@
     <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="16"/>
       <c r="B136" s="16"/>
-      <c r="C136" s="286"/>
-      <c r="D136" s="286"/>
+      <c r="C136" s="291"/>
+      <c r="D136" s="291"/>
       <c r="E136" s="137" t="s">
         <v>177</v>
       </c>
@@ -32413,8 +32458,8 @@
     <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
-      <c r="C137" s="286"/>
-      <c r="D137" s="332" t="s">
+      <c r="C137" s="291"/>
+      <c r="D137" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E137" s="137" t="s">
@@ -32445,8 +32490,8 @@
     <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16"/>
-      <c r="C138" s="286"/>
-      <c r="D138" s="286"/>
+      <c r="C138" s="291"/>
+      <c r="D138" s="291"/>
       <c r="E138" s="137" t="s">
         <v>168</v>
       </c>
@@ -32475,8 +32520,8 @@
     <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16"/>
-      <c r="C139" s="286"/>
-      <c r="D139" s="332" t="s">
+      <c r="C139" s="291"/>
+      <c r="D139" s="358" t="s">
         <v>361</v>
       </c>
       <c r="E139" s="137" t="s">
@@ -32507,8 +32552,8 @@
     <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16"/>
-      <c r="C140" s="286"/>
-      <c r="D140" s="286"/>
+      <c r="C140" s="291"/>
+      <c r="D140" s="291"/>
       <c r="E140" s="137" t="s">
         <v>366</v>
       </c>
@@ -32537,8 +32582,8 @@
     <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="16"/>
       <c r="B141" s="16"/>
-      <c r="C141" s="286"/>
-      <c r="D141" s="286"/>
+      <c r="C141" s="291"/>
+      <c r="D141" s="291"/>
       <c r="E141" s="137" t="s">
         <v>164</v>
       </c>
@@ -32567,8 +32612,8 @@
     <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="16"/>
       <c r="B142" s="16"/>
-      <c r="C142" s="286"/>
-      <c r="D142" s="332" t="s">
+      <c r="C142" s="291"/>
+      <c r="D142" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E142" s="137" t="s">
@@ -32599,8 +32644,8 @@
     <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
-      <c r="C143" s="286"/>
-      <c r="D143" s="286"/>
+      <c r="C143" s="291"/>
+      <c r="D143" s="291"/>
       <c r="E143" s="137" t="s">
         <v>172</v>
       </c>
@@ -32629,8 +32674,8 @@
     <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16"/>
-      <c r="C144" s="286"/>
-      <c r="D144" s="286"/>
+      <c r="C144" s="291"/>
+      <c r="D144" s="291"/>
       <c r="E144" s="140" t="s">
         <v>173</v>
       </c>
@@ -32659,8 +32704,8 @@
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="16"/>
       <c r="B145" s="16"/>
-      <c r="C145" s="286"/>
-      <c r="D145" s="286"/>
+      <c r="C145" s="291"/>
+      <c r="D145" s="291"/>
       <c r="E145" s="140" t="s">
         <v>174</v>
       </c>
@@ -32689,8 +32734,8 @@
     <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="16"/>
       <c r="B146" s="16"/>
-      <c r="C146" s="286"/>
-      <c r="D146" s="286"/>
+      <c r="C146" s="291"/>
+      <c r="D146" s="291"/>
       <c r="E146" s="140" t="s">
         <v>175</v>
       </c>
@@ -32719,8 +32764,8 @@
     <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="16"/>
       <c r="B147" s="16"/>
-      <c r="C147" s="286"/>
-      <c r="D147" s="286"/>
+      <c r="C147" s="291"/>
+      <c r="D147" s="291"/>
       <c r="E147" s="137" t="s">
         <v>176</v>
       </c>
@@ -32749,8 +32794,8 @@
     <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="16"/>
       <c r="B148" s="16"/>
-      <c r="C148" s="286"/>
-      <c r="D148" s="286"/>
+      <c r="C148" s="291"/>
+      <c r="D148" s="291"/>
       <c r="E148" s="137" t="s">
         <v>177</v>
       </c>
@@ -32779,8 +32824,8 @@
     <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="16"/>
       <c r="B149" s="16"/>
-      <c r="C149" s="286"/>
-      <c r="D149" s="332" t="s">
+      <c r="C149" s="291"/>
+      <c r="D149" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E149" s="137" t="s">
@@ -32811,8 +32856,8 @@
     <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
-      <c r="C150" s="286"/>
-      <c r="D150" s="286"/>
+      <c r="C150" s="291"/>
+      <c r="D150" s="291"/>
       <c r="E150" s="137" t="s">
         <v>168</v>
       </c>
@@ -32841,8 +32886,8 @@
     <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="16"/>
       <c r="B151" s="16"/>
-      <c r="C151" s="286"/>
-      <c r="D151" s="332"/>
+      <c r="C151" s="291"/>
+      <c r="D151" s="358"/>
       <c r="E151" s="137" t="s">
         <v>364</v>
       </c>
@@ -32871,8 +32916,8 @@
     <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="16"/>
       <c r="B152" s="16"/>
-      <c r="C152" s="286"/>
-      <c r="D152" s="286"/>
+      <c r="C152" s="291"/>
+      <c r="D152" s="291"/>
       <c r="E152" s="137" t="s">
         <v>366</v>
       </c>
@@ -32901,8 +32946,8 @@
     <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="16"/>
       <c r="B153" s="16"/>
-      <c r="C153" s="286"/>
-      <c r="D153" s="286"/>
+      <c r="C153" s="291"/>
+      <c r="D153" s="291"/>
       <c r="E153" s="137" t="s">
         <v>164</v>
       </c>
@@ -32931,8 +32976,8 @@
     <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="16"/>
       <c r="B154" s="16"/>
-      <c r="C154" s="286"/>
-      <c r="D154" s="332" t="s">
+      <c r="C154" s="291"/>
+      <c r="D154" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E154" s="137" t="s">
@@ -32963,8 +33008,8 @@
     <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="16"/>
       <c r="B155" s="16"/>
-      <c r="C155" s="286"/>
-      <c r="D155" s="286"/>
+      <c r="C155" s="291"/>
+      <c r="D155" s="291"/>
       <c r="E155" s="137" t="s">
         <v>172</v>
       </c>
@@ -32993,8 +33038,8 @@
     <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="16"/>
       <c r="B156" s="16"/>
-      <c r="C156" s="286"/>
-      <c r="D156" s="286"/>
+      <c r="C156" s="291"/>
+      <c r="D156" s="291"/>
       <c r="E156" s="140" t="s">
         <v>173</v>
       </c>
@@ -33023,8 +33068,8 @@
     <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="16"/>
       <c r="B157" s="16"/>
-      <c r="C157" s="286"/>
-      <c r="D157" s="286"/>
+      <c r="C157" s="291"/>
+      <c r="D157" s="291"/>
       <c r="E157" s="140" t="s">
         <v>174</v>
       </c>
@@ -33053,8 +33098,8 @@
     <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="16"/>
       <c r="B158" s="16"/>
-      <c r="C158" s="286"/>
-      <c r="D158" s="286"/>
+      <c r="C158" s="291"/>
+      <c r="D158" s="291"/>
       <c r="E158" s="140" t="s">
         <v>175</v>
       </c>
@@ -33083,8 +33128,8 @@
     <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16"/>
-      <c r="C159" s="286"/>
-      <c r="D159" s="286"/>
+      <c r="C159" s="291"/>
+      <c r="D159" s="291"/>
       <c r="E159" s="137" t="s">
         <v>176</v>
       </c>
@@ -33113,8 +33158,8 @@
     <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
-      <c r="C160" s="286"/>
-      <c r="D160" s="286"/>
+      <c r="C160" s="291"/>
+      <c r="D160" s="291"/>
       <c r="E160" s="137" t="s">
         <v>177</v>
       </c>
@@ -33143,8 +33188,8 @@
     <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16"/>
-      <c r="C161" s="286"/>
-      <c r="D161" s="332" t="s">
+      <c r="C161" s="291"/>
+      <c r="D161" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E161" s="137" t="s">
@@ -33175,8 +33220,8 @@
     <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16"/>
-      <c r="C162" s="286"/>
-      <c r="D162" s="286"/>
+      <c r="C162" s="291"/>
+      <c r="D162" s="291"/>
       <c r="E162" s="137" t="s">
         <v>168</v>
       </c>
@@ -33205,8 +33250,8 @@
     <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
-      <c r="C163" s="286"/>
-      <c r="D163" s="332"/>
+      <c r="C163" s="291"/>
+      <c r="D163" s="358"/>
       <c r="E163" s="137" t="s">
         <v>364</v>
       </c>
@@ -33235,8 +33280,8 @@
     <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16"/>
-      <c r="C164" s="286"/>
-      <c r="D164" s="286"/>
+      <c r="C164" s="291"/>
+      <c r="D164" s="291"/>
       <c r="E164" s="137" t="s">
         <v>366</v>
       </c>
@@ -33265,8 +33310,8 @@
     <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="16"/>
       <c r="B165" s="16"/>
-      <c r="C165" s="286"/>
-      <c r="D165" s="286"/>
+      <c r="C165" s="291"/>
+      <c r="D165" s="291"/>
       <c r="E165" s="137" t="s">
         <v>164</v>
       </c>
@@ -33295,8 +33340,8 @@
     <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="16"/>
       <c r="B166" s="16"/>
-      <c r="C166" s="286"/>
-      <c r="D166" s="332" t="s">
+      <c r="C166" s="291"/>
+      <c r="D166" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E166" s="137" t="s">
@@ -33327,8 +33372,8 @@
     <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
-      <c r="C167" s="286"/>
-      <c r="D167" s="286"/>
+      <c r="C167" s="291"/>
+      <c r="D167" s="291"/>
       <c r="E167" s="137" t="s">
         <v>172</v>
       </c>
@@ -33357,8 +33402,8 @@
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
-      <c r="C168" s="286"/>
-      <c r="D168" s="286"/>
+      <c r="C168" s="291"/>
+      <c r="D168" s="291"/>
       <c r="E168" s="140" t="s">
         <v>173</v>
       </c>
@@ -33387,8 +33432,8 @@
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
-      <c r="C169" s="286"/>
-      <c r="D169" s="286"/>
+      <c r="C169" s="291"/>
+      <c r="D169" s="291"/>
       <c r="E169" s="140" t="s">
         <v>174</v>
       </c>
@@ -33417,8 +33462,8 @@
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
-      <c r="C170" s="286"/>
-      <c r="D170" s="286"/>
+      <c r="C170" s="291"/>
+      <c r="D170" s="291"/>
       <c r="E170" s="140" t="s">
         <v>175</v>
       </c>
@@ -33447,8 +33492,8 @@
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
-      <c r="C171" s="286"/>
-      <c r="D171" s="286"/>
+      <c r="C171" s="291"/>
+      <c r="D171" s="291"/>
       <c r="E171" s="137" t="s">
         <v>176</v>
       </c>
@@ -33477,8 +33522,8 @@
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
-      <c r="C172" s="286"/>
-      <c r="D172" s="286"/>
+      <c r="C172" s="291"/>
+      <c r="D172" s="291"/>
       <c r="E172" s="137" t="s">
         <v>177</v>
       </c>
@@ -33507,8 +33552,8 @@
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
-      <c r="C173" s="286"/>
-      <c r="D173" s="332" t="s">
+      <c r="C173" s="291"/>
+      <c r="D173" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E173" s="137" t="s">
@@ -33539,8 +33584,8 @@
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
-      <c r="C174" s="286"/>
-      <c r="D174" s="286"/>
+      <c r="C174" s="291"/>
+      <c r="D174" s="291"/>
       <c r="E174" s="137" t="s">
         <v>168</v>
       </c>
@@ -33569,8 +33614,8 @@
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
-      <c r="C175" s="286"/>
-      <c r="D175" s="332"/>
+      <c r="C175" s="291"/>
+      <c r="D175" s="358"/>
       <c r="E175" s="137" t="s">
         <v>364</v>
       </c>
@@ -33599,8 +33644,8 @@
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
-      <c r="C176" s="286"/>
-      <c r="D176" s="286"/>
+      <c r="C176" s="291"/>
+      <c r="D176" s="291"/>
       <c r="E176" s="137" t="s">
         <v>366</v>
       </c>
@@ -33629,8 +33674,8 @@
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
-      <c r="C177" s="286"/>
-      <c r="D177" s="286"/>
+      <c r="C177" s="291"/>
+      <c r="D177" s="291"/>
       <c r="E177" s="137" t="s">
         <v>164</v>
       </c>
@@ -33659,8 +33704,8 @@
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
-      <c r="C178" s="286"/>
-      <c r="D178" s="332" t="s">
+      <c r="C178" s="291"/>
+      <c r="D178" s="358" t="s">
         <v>371</v>
       </c>
       <c r="E178" s="137" t="s">
@@ -33691,8 +33736,8 @@
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
-      <c r="C179" s="286"/>
-      <c r="D179" s="286"/>
+      <c r="C179" s="291"/>
+      <c r="D179" s="291"/>
       <c r="E179" s="137" t="s">
         <v>172</v>
       </c>
@@ -33721,8 +33766,8 @@
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16"/>
-      <c r="C180" s="286"/>
-      <c r="D180" s="286"/>
+      <c r="C180" s="291"/>
+      <c r="D180" s="291"/>
       <c r="E180" s="140" t="s">
         <v>173</v>
       </c>
@@ -33751,8 +33796,8 @@
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16"/>
-      <c r="C181" s="286"/>
-      <c r="D181" s="286"/>
+      <c r="C181" s="291"/>
+      <c r="D181" s="291"/>
       <c r="E181" s="140" t="s">
         <v>174</v>
       </c>
@@ -33781,8 +33826,8 @@
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
-      <c r="C182" s="286"/>
-      <c r="D182" s="286"/>
+      <c r="C182" s="291"/>
+      <c r="D182" s="291"/>
       <c r="E182" s="140" t="s">
         <v>175</v>
       </c>
@@ -33811,8 +33856,8 @@
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
-      <c r="C183" s="286"/>
-      <c r="D183" s="286"/>
+      <c r="C183" s="291"/>
+      <c r="D183" s="291"/>
       <c r="E183" s="137" t="s">
         <v>176</v>
       </c>
@@ -33841,8 +33886,8 @@
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
-      <c r="C184" s="286"/>
-      <c r="D184" s="286"/>
+      <c r="C184" s="291"/>
+      <c r="D184" s="291"/>
       <c r="E184" s="137" t="s">
         <v>177</v>
       </c>
@@ -33871,8 +33916,8 @@
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
-      <c r="C185" s="286"/>
-      <c r="D185" s="332" t="s">
+      <c r="C185" s="291"/>
+      <c r="D185" s="358" t="s">
         <v>165</v>
       </c>
       <c r="E185" s="137" t="s">
@@ -33903,8 +33948,8 @@
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="141"/>
       <c r="B186" s="141"/>
-      <c r="C186" s="331"/>
-      <c r="D186" s="331"/>
+      <c r="C186" s="357"/>
+      <c r="D186" s="357"/>
       <c r="E186" s="142" t="s">
         <v>168</v>
       </c>
@@ -33933,10 +33978,10 @@
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
-      <c r="C187" s="333" t="s">
+      <c r="C187" s="360" t="s">
         <v>375</v>
       </c>
-      <c r="D187" s="332" t="s">
+      <c r="D187" s="358" t="s">
         <v>93</v>
       </c>
       <c r="E187" s="137" t="s">
@@ -33967,8 +34012,8 @@
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
-      <c r="C188" s="286"/>
-      <c r="D188" s="286"/>
+      <c r="C188" s="291"/>
+      <c r="D188" s="291"/>
       <c r="E188" s="137" t="s">
         <v>86</v>
       </c>
@@ -33997,8 +34042,8 @@
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="16"/>
       <c r="B189" s="16"/>
-      <c r="C189" s="286"/>
-      <c r="D189" s="286"/>
+      <c r="C189" s="291"/>
+      <c r="D189" s="291"/>
       <c r="E189" s="137" t="s">
         <v>87</v>
       </c>
@@ -34027,8 +34072,8 @@
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="16"/>
       <c r="B190" s="16"/>
-      <c r="C190" s="286"/>
-      <c r="D190" s="286"/>
+      <c r="C190" s="291"/>
+      <c r="D190" s="291"/>
       <c r="E190" s="137" t="s">
         <v>88</v>
       </c>
@@ -34057,8 +34102,8 @@
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="16"/>
-      <c r="C191" s="286"/>
-      <c r="D191" s="332" t="s">
+      <c r="C191" s="291"/>
+      <c r="D191" s="358" t="s">
         <v>376</v>
       </c>
       <c r="E191" s="137" t="s">
@@ -34089,8 +34134,8 @@
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="16"/>
-      <c r="C192" s="286"/>
-      <c r="D192" s="286"/>
+      <c r="C192" s="291"/>
+      <c r="D192" s="291"/>
       <c r="E192" s="137" t="s">
         <v>378</v>
       </c>
@@ -34119,8 +34164,8 @@
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="16"/>
       <c r="B193" s="16"/>
-      <c r="C193" s="286"/>
-      <c r="D193" s="286"/>
+      <c r="C193" s="291"/>
+      <c r="D193" s="291"/>
       <c r="E193" s="137" t="s">
         <v>379</v>
       </c>
@@ -34149,8 +34194,8 @@
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="16"/>
       <c r="B194" s="16"/>
-      <c r="C194" s="286"/>
-      <c r="D194" s="332" t="s">
+      <c r="C194" s="291"/>
+      <c r="D194" s="358" t="s">
         <v>287</v>
       </c>
       <c r="E194" s="137" t="s">
@@ -34181,8 +34226,8 @@
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="16"/>
       <c r="B195" s="16"/>
-      <c r="C195" s="286"/>
-      <c r="D195" s="286"/>
+      <c r="C195" s="291"/>
+      <c r="D195" s="291"/>
       <c r="E195" s="137" t="s">
         <v>289</v>
       </c>
@@ -34211,8 +34256,8 @@
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="16"/>
       <c r="B196" s="16"/>
-      <c r="C196" s="286"/>
-      <c r="D196" s="332" t="s">
+      <c r="C196" s="291"/>
+      <c r="D196" s="358" t="s">
         <v>126</v>
       </c>
       <c r="E196" s="137" t="s">
@@ -34243,8 +34288,8 @@
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="16"/>
-      <c r="C197" s="286"/>
-      <c r="D197" s="286"/>
+      <c r="C197" s="291"/>
+      <c r="D197" s="291"/>
       <c r="E197" s="137" t="s">
         <v>381</v>
       </c>
@@ -34273,8 +34318,8 @@
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="16"/>
-      <c r="C198" s="286"/>
-      <c r="D198" s="286"/>
+      <c r="C198" s="291"/>
+      <c r="D198" s="291"/>
       <c r="E198" s="137" t="s">
         <v>382</v>
       </c>
@@ -34303,8 +34348,8 @@
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="16"/>
-      <c r="C199" s="286"/>
-      <c r="D199" s="332" t="s">
+      <c r="C199" s="291"/>
+      <c r="D199" s="358" t="s">
         <v>290</v>
       </c>
       <c r="E199" s="137" t="s">
@@ -34335,8 +34380,8 @@
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="16"/>
-      <c r="C200" s="286"/>
-      <c r="D200" s="286"/>
+      <c r="C200" s="291"/>
+      <c r="D200" s="291"/>
       <c r="E200" s="137" t="s">
         <v>292</v>
       </c>
@@ -34365,8 +34410,8 @@
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="16"/>
-      <c r="C201" s="286"/>
-      <c r="D201" s="332" t="s">
+      <c r="C201" s="291"/>
+      <c r="D201" s="358" t="s">
         <v>293</v>
       </c>
       <c r="E201" s="137" t="s">
@@ -34397,8 +34442,8 @@
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="16"/>
       <c r="B202" s="16"/>
-      <c r="C202" s="286"/>
-      <c r="D202" s="286"/>
+      <c r="C202" s="291"/>
+      <c r="D202" s="291"/>
       <c r="E202" s="137" t="s">
         <v>295</v>
       </c>
@@ -34427,8 +34472,8 @@
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="16"/>
       <c r="B203" s="16"/>
-      <c r="C203" s="286"/>
-      <c r="D203" s="286"/>
+      <c r="C203" s="291"/>
+      <c r="D203" s="291"/>
       <c r="E203" s="137" t="s">
         <v>296</v>
       </c>
@@ -34457,8 +34502,8 @@
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="16"/>
       <c r="B204" s="16"/>
-      <c r="C204" s="286"/>
-      <c r="D204" s="286"/>
+      <c r="C204" s="291"/>
+      <c r="D204" s="291"/>
       <c r="E204" s="137" t="s">
         <v>297</v>
       </c>
@@ -34487,8 +34532,8 @@
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="16"/>
       <c r="B205" s="16"/>
-      <c r="C205" s="286"/>
-      <c r="D205" s="332" t="s">
+      <c r="C205" s="291"/>
+      <c r="D205" s="358" t="s">
         <v>298</v>
       </c>
       <c r="E205" s="137" t="s">
@@ -34519,8 +34564,8 @@
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="16"/>
       <c r="B206" s="16"/>
-      <c r="C206" s="286"/>
-      <c r="D206" s="286"/>
+      <c r="C206" s="291"/>
+      <c r="D206" s="291"/>
       <c r="E206" s="137" t="s">
         <v>300</v>
       </c>
@@ -34549,8 +34594,8 @@
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="16"/>
       <c r="B207" s="16"/>
-      <c r="C207" s="286"/>
-      <c r="D207" s="286"/>
+      <c r="C207" s="291"/>
+      <c r="D207" s="291"/>
       <c r="E207" s="137" t="s">
         <v>301</v>
       </c>
@@ -34579,8 +34624,8 @@
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="16"/>
       <c r="B208" s="16"/>
-      <c r="C208" s="286"/>
-      <c r="D208" s="286"/>
+      <c r="C208" s="291"/>
+      <c r="D208" s="291"/>
       <c r="E208" s="137" t="s">
         <v>302</v>
       </c>
@@ -34609,8 +34654,8 @@
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="16"/>
       <c r="B209" s="16"/>
-      <c r="C209" s="286"/>
-      <c r="D209" s="286"/>
+      <c r="C209" s="291"/>
+      <c r="D209" s="291"/>
       <c r="E209" s="137" t="s">
         <v>303</v>
       </c>
@@ -34639,8 +34684,8 @@
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="16"/>
       <c r="B210" s="16"/>
-      <c r="C210" s="286"/>
-      <c r="D210" s="286"/>
+      <c r="C210" s="291"/>
+      <c r="D210" s="291"/>
       <c r="E210" s="137" t="s">
         <v>304</v>
       </c>
@@ -34669,8 +34714,8 @@
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="16"/>
-      <c r="C211" s="286"/>
-      <c r="D211" s="332" t="s">
+      <c r="C211" s="291"/>
+      <c r="D211" s="358" t="s">
         <v>101</v>
       </c>
       <c r="E211" s="137" t="s">
@@ -34701,8 +34746,8 @@
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="16"/>
-      <c r="C212" s="286"/>
-      <c r="D212" s="286"/>
+      <c r="C212" s="291"/>
+      <c r="D212" s="291"/>
       <c r="E212" s="137" t="s">
         <v>384</v>
       </c>
@@ -34731,8 +34776,8 @@
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="16"/>
       <c r="B213" s="16"/>
-      <c r="C213" s="286"/>
-      <c r="D213" s="286"/>
+      <c r="C213" s="291"/>
+      <c r="D213" s="291"/>
       <c r="E213" s="137" t="s">
         <v>385</v>
       </c>
@@ -34761,8 +34806,8 @@
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="16"/>
       <c r="B214" s="16"/>
-      <c r="C214" s="286"/>
-      <c r="D214" s="332" t="s">
+      <c r="C214" s="291"/>
+      <c r="D214" s="358" t="s">
         <v>305</v>
       </c>
       <c r="E214" s="137" t="s">
@@ -34793,8 +34838,8 @@
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="16"/>
       <c r="B215" s="16"/>
-      <c r="C215" s="286"/>
-      <c r="D215" s="286"/>
+      <c r="C215" s="291"/>
+      <c r="D215" s="291"/>
       <c r="E215" s="137" t="s">
         <v>307</v>
       </c>
@@ -34823,8 +34868,8 @@
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="16"/>
       <c r="B216" s="16"/>
-      <c r="C216" s="286"/>
-      <c r="D216" s="332" t="s">
+      <c r="C216" s="291"/>
+      <c r="D216" s="358" t="s">
         <v>308</v>
       </c>
       <c r="E216" s="137" t="s">
@@ -34855,8 +34900,8 @@
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="16"/>
       <c r="B217" s="16"/>
-      <c r="C217" s="286"/>
-      <c r="D217" s="286"/>
+      <c r="C217" s="291"/>
+      <c r="D217" s="291"/>
       <c r="E217" s="137" t="s">
         <v>310</v>
       </c>
@@ -34885,8 +34930,8 @@
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="16"/>
       <c r="B218" s="16"/>
-      <c r="C218" s="286"/>
-      <c r="D218" s="332" t="s">
+      <c r="C218" s="291"/>
+      <c r="D218" s="358" t="s">
         <v>311</v>
       </c>
       <c r="E218" s="137" t="s">
@@ -34917,8 +34962,8 @@
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="16"/>
       <c r="B219" s="16"/>
-      <c r="C219" s="286"/>
-      <c r="D219" s="286"/>
+      <c r="C219" s="291"/>
+      <c r="D219" s="291"/>
       <c r="E219" s="137" t="s">
         <v>313</v>
       </c>
@@ -34947,8 +34992,8 @@
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="16"/>
       <c r="B220" s="16"/>
-      <c r="C220" s="286"/>
-      <c r="D220" s="332" t="s">
+      <c r="C220" s="291"/>
+      <c r="D220" s="358" t="s">
         <v>314</v>
       </c>
       <c r="E220" s="137" t="s">
@@ -34979,8 +35024,8 @@
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="16"/>
       <c r="B221" s="16"/>
-      <c r="C221" s="286"/>
-      <c r="D221" s="286"/>
+      <c r="C221" s="291"/>
+      <c r="D221" s="291"/>
       <c r="E221" s="137" t="s">
         <v>316</v>
       </c>
@@ -35009,8 +35054,8 @@
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="16"/>
       <c r="B222" s="16"/>
-      <c r="C222" s="286"/>
-      <c r="D222" s="286"/>
+      <c r="C222" s="291"/>
+      <c r="D222" s="291"/>
       <c r="E222" s="137" t="s">
         <v>317</v>
       </c>
@@ -35039,8 +35084,8 @@
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="16"/>
       <c r="B223" s="16"/>
-      <c r="C223" s="286"/>
-      <c r="D223" s="286"/>
+      <c r="C223" s="291"/>
+      <c r="D223" s="291"/>
       <c r="E223" s="137" t="s">
         <v>318</v>
       </c>
@@ -35069,8 +35114,8 @@
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="16"/>
       <c r="B224" s="16"/>
-      <c r="C224" s="286"/>
-      <c r="D224" s="286"/>
+      <c r="C224" s="291"/>
+      <c r="D224" s="291"/>
       <c r="E224" s="137" t="s">
         <v>319</v>
       </c>
@@ -35099,8 +35144,8 @@
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="16"/>
       <c r="B225" s="16"/>
-      <c r="C225" s="286"/>
-      <c r="D225" s="286"/>
+      <c r="C225" s="291"/>
+      <c r="D225" s="291"/>
       <c r="E225" s="137" t="s">
         <v>320</v>
       </c>
@@ -35129,8 +35174,8 @@
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="16"/>
       <c r="B226" s="16"/>
-      <c r="C226" s="286"/>
-      <c r="D226" s="332" t="s">
+      <c r="C226" s="291"/>
+      <c r="D226" s="358" t="s">
         <v>251</v>
       </c>
       <c r="E226" s="137" t="s">
@@ -35161,8 +35206,8 @@
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="141"/>
       <c r="B227" s="141"/>
-      <c r="C227" s="331"/>
-      <c r="D227" s="331"/>
+      <c r="C227" s="357"/>
+      <c r="D227" s="357"/>
       <c r="E227" s="142" t="s">
         <v>386</v>
       </c>
@@ -35191,10 +35236,10 @@
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="16"/>
       <c r="B228" s="16"/>
-      <c r="C228" s="333" t="s">
+      <c r="C228" s="360" t="s">
         <v>242</v>
       </c>
-      <c r="D228" s="332" t="s">
+      <c r="D228" s="358" t="s">
         <v>342</v>
       </c>
       <c r="E228" s="137" t="s">
@@ -35225,8 +35270,8 @@
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="16"/>
       <c r="B229" s="16"/>
-      <c r="C229" s="286"/>
-      <c r="D229" s="286"/>
+      <c r="C229" s="291"/>
+      <c r="D229" s="291"/>
       <c r="E229" s="137" t="s">
         <v>388</v>
       </c>
@@ -35255,8 +35300,8 @@
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="16"/>
       <c r="B230" s="16"/>
-      <c r="C230" s="286"/>
-      <c r="D230" s="286"/>
+      <c r="C230" s="291"/>
+      <c r="D230" s="291"/>
       <c r="E230" s="137" t="s">
         <v>389</v>
       </c>
@@ -35285,8 +35330,8 @@
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="16"/>
       <c r="B231" s="16"/>
-      <c r="C231" s="286"/>
-      <c r="D231" s="332" t="s">
+      <c r="C231" s="291"/>
+      <c r="D231" s="358" t="s">
         <v>93</v>
       </c>
       <c r="E231" s="137" t="s">
@@ -35317,8 +35362,8 @@
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="16"/>
       <c r="B232" s="16"/>
-      <c r="C232" s="286"/>
-      <c r="D232" s="286"/>
+      <c r="C232" s="291"/>
+      <c r="D232" s="291"/>
       <c r="E232" s="137" t="s">
         <v>388</v>
       </c>
@@ -35347,8 +35392,8 @@
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="16"/>
       <c r="B233" s="16"/>
-      <c r="C233" s="286"/>
-      <c r="D233" s="286"/>
+      <c r="C233" s="291"/>
+      <c r="D233" s="291"/>
       <c r="E233" s="137" t="s">
         <v>389</v>
       </c>
@@ -35377,8 +35422,8 @@
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="16"/>
       <c r="B234" s="16"/>
-      <c r="C234" s="286"/>
-      <c r="D234" s="286"/>
+      <c r="C234" s="291"/>
+      <c r="D234" s="291"/>
       <c r="E234" s="137" t="s">
         <v>87</v>
       </c>
@@ -35407,8 +35452,8 @@
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="16"/>
       <c r="B235" s="16"/>
-      <c r="C235" s="286"/>
-      <c r="D235" s="332" t="s">
+      <c r="C235" s="291"/>
+      <c r="D235" s="358" t="s">
         <v>376</v>
       </c>
       <c r="E235" s="137" t="s">
@@ -35439,8 +35484,8 @@
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="16"/>
       <c r="B236" s="16"/>
-      <c r="C236" s="286"/>
-      <c r="D236" s="286"/>
+      <c r="C236" s="291"/>
+      <c r="D236" s="291"/>
       <c r="E236" s="137" t="s">
         <v>391</v>
       </c>
@@ -35469,8 +35514,8 @@
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16"/>
       <c r="B237" s="16"/>
-      <c r="C237" s="286"/>
-      <c r="D237" s="286"/>
+      <c r="C237" s="291"/>
+      <c r="D237" s="291"/>
       <c r="E237" s="137" t="s">
         <v>392</v>
       </c>
@@ -35499,8 +35544,8 @@
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="16"/>
       <c r="B238" s="16"/>
-      <c r="C238" s="286"/>
-      <c r="D238" s="286"/>
+      <c r="C238" s="291"/>
+      <c r="D238" s="291"/>
       <c r="E238" s="137" t="s">
         <v>393</v>
       </c>
@@ -35529,8 +35574,8 @@
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="16"/>
       <c r="B239" s="16"/>
-      <c r="C239" s="286"/>
-      <c r="D239" s="286"/>
+      <c r="C239" s="291"/>
+      <c r="D239" s="291"/>
       <c r="E239" s="137" t="s">
         <v>87</v>
       </c>
@@ -35559,8 +35604,8 @@
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="16"/>
       <c r="B240" s="16"/>
-      <c r="C240" s="286"/>
-      <c r="D240" s="332" t="s">
+      <c r="C240" s="291"/>
+      <c r="D240" s="358" t="s">
         <v>54</v>
       </c>
       <c r="E240" s="137" t="s">
@@ -35591,8 +35636,8 @@
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="16"/>
       <c r="B241" s="16"/>
-      <c r="C241" s="286"/>
-      <c r="D241" s="286"/>
+      <c r="C241" s="291"/>
+      <c r="D241" s="291"/>
       <c r="E241" s="137" t="s">
         <v>390</v>
       </c>
@@ -35621,8 +35666,8 @@
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="16"/>
       <c r="B242" s="16"/>
-      <c r="C242" s="286"/>
-      <c r="D242" s="286"/>
+      <c r="C242" s="291"/>
+      <c r="D242" s="291"/>
       <c r="E242" s="137" t="s">
         <v>387</v>
       </c>
@@ -35651,8 +35696,8 @@
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="16"/>
       <c r="B243" s="16"/>
-      <c r="C243" s="286"/>
-      <c r="D243" s="286"/>
+      <c r="C243" s="291"/>
+      <c r="D243" s="291"/>
       <c r="E243" s="137" t="s">
         <v>101</v>
       </c>
@@ -35681,8 +35726,8 @@
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="16"/>
       <c r="B244" s="16"/>
-      <c r="C244" s="286"/>
-      <c r="D244" s="286"/>
+      <c r="C244" s="291"/>
+      <c r="D244" s="291"/>
       <c r="E244" s="137" t="s">
         <v>395</v>
       </c>
@@ -35711,8 +35756,8 @@
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="16"/>
       <c r="B245" s="16"/>
-      <c r="C245" s="286"/>
-      <c r="D245" s="332" t="s">
+      <c r="C245" s="291"/>
+      <c r="D245" s="358" t="s">
         <v>101</v>
       </c>
       <c r="E245" s="137" t="s">
@@ -35743,8 +35788,8 @@
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="16"/>
       <c r="B246" s="16"/>
-      <c r="C246" s="286"/>
-      <c r="D246" s="286"/>
+      <c r="C246" s="291"/>
+      <c r="D246" s="291"/>
       <c r="E246" s="137" t="s">
         <v>397</v>
       </c>
@@ -35773,8 +35818,8 @@
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="16"/>
       <c r="B247" s="16"/>
-      <c r="C247" s="286"/>
-      <c r="D247" s="286"/>
+      <c r="C247" s="291"/>
+      <c r="D247" s="291"/>
       <c r="E247" s="137" t="s">
         <v>398</v>
       </c>
@@ -35803,8 +35848,8 @@
     <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="16"/>
       <c r="B248" s="16"/>
-      <c r="C248" s="286"/>
-      <c r="D248" s="286"/>
+      <c r="C248" s="291"/>
+      <c r="D248" s="291"/>
       <c r="E248" s="137" t="s">
         <v>399</v>
       </c>
@@ -35833,8 +35878,8 @@
     <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="16"/>
       <c r="B249" s="16"/>
-      <c r="C249" s="286"/>
-      <c r="D249" s="286"/>
+      <c r="C249" s="291"/>
+      <c r="D249" s="291"/>
       <c r="E249" s="137" t="s">
         <v>400</v>
       </c>
@@ -35863,8 +35908,8 @@
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="16"/>
       <c r="B250" s="16"/>
-      <c r="C250" s="286"/>
-      <c r="D250" s="286"/>
+      <c r="C250" s="291"/>
+      <c r="D250" s="291"/>
       <c r="E250" s="137" t="s">
         <v>401</v>
       </c>
@@ -35893,8 +35938,8 @@
     <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="16"/>
       <c r="B251" s="16"/>
-      <c r="C251" s="286"/>
-      <c r="D251" s="332" t="s">
+      <c r="C251" s="291"/>
+      <c r="D251" s="358" t="s">
         <v>402</v>
       </c>
       <c r="E251" s="137" t="s">
@@ -35925,8 +35970,8 @@
     <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="16"/>
       <c r="B252" s="16"/>
-      <c r="C252" s="286"/>
-      <c r="D252" s="286"/>
+      <c r="C252" s="291"/>
+      <c r="D252" s="291"/>
       <c r="E252" s="137" t="s">
         <v>404</v>
       </c>
@@ -35955,8 +36000,8 @@
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="16"/>
       <c r="B253" s="16"/>
-      <c r="C253" s="286"/>
-      <c r="D253" s="286"/>
+      <c r="C253" s="291"/>
+      <c r="D253" s="291"/>
       <c r="E253" s="137" t="s">
         <v>405</v>
       </c>
@@ -35985,8 +36030,8 @@
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="16"/>
       <c r="B254" s="16"/>
-      <c r="C254" s="286"/>
-      <c r="D254" s="286"/>
+      <c r="C254" s="291"/>
+      <c r="D254" s="291"/>
       <c r="E254" s="137" t="s">
         <v>406</v>
       </c>
@@ -36015,8 +36060,8 @@
     <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="16"/>
       <c r="B255" s="16"/>
-      <c r="C255" s="286"/>
-      <c r="D255" s="286"/>
+      <c r="C255" s="291"/>
+      <c r="D255" s="291"/>
       <c r="E255" s="137" t="s">
         <v>407</v>
       </c>
@@ -36045,8 +36090,8 @@
     <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
-      <c r="C256" s="286"/>
-      <c r="D256" s="332" t="s">
+      <c r="C256" s="291"/>
+      <c r="D256" s="358" t="s">
         <v>314</v>
       </c>
       <c r="E256" s="137" t="s">
@@ -36077,8 +36122,8 @@
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="16"/>
       <c r="B257" s="16"/>
-      <c r="C257" s="286"/>
-      <c r="D257" s="286"/>
+      <c r="C257" s="291"/>
+      <c r="D257" s="291"/>
       <c r="E257" s="137" t="s">
         <v>409</v>
       </c>
@@ -36107,8 +36152,8 @@
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16"/>
       <c r="B258" s="16"/>
-      <c r="C258" s="286"/>
-      <c r="D258" s="286"/>
+      <c r="C258" s="291"/>
+      <c r="D258" s="291"/>
       <c r="E258" s="137" t="s">
         <v>410</v>
       </c>
@@ -36137,8 +36182,8 @@
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="16"/>
       <c r="B259" s="16"/>
-      <c r="C259" s="286"/>
-      <c r="D259" s="286"/>
+      <c r="C259" s="291"/>
+      <c r="D259" s="291"/>
       <c r="E259" s="137" t="s">
         <v>411</v>
       </c>
@@ -36167,8 +36212,8 @@
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="16"/>
       <c r="B260" s="16"/>
-      <c r="C260" s="286"/>
-      <c r="D260" s="332" t="s">
+      <c r="C260" s="291"/>
+      <c r="D260" s="358" t="s">
         <v>305</v>
       </c>
       <c r="E260" s="137" t="s">
@@ -36199,8 +36244,8 @@
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="16"/>
       <c r="B261" s="16"/>
-      <c r="C261" s="286"/>
-      <c r="D261" s="286"/>
+      <c r="C261" s="291"/>
+      <c r="D261" s="291"/>
       <c r="E261" s="137" t="s">
         <v>413</v>
       </c>
@@ -36229,8 +36274,8 @@
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="16"/>
       <c r="B262" s="16"/>
-      <c r="C262" s="286"/>
-      <c r="D262" s="286"/>
+      <c r="C262" s="291"/>
+      <c r="D262" s="291"/>
       <c r="E262" s="137" t="s">
         <v>414</v>
       </c>
@@ -36259,8 +36304,8 @@
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="16"/>
       <c r="B263" s="16"/>
-      <c r="C263" s="286"/>
-      <c r="D263" s="286"/>
+      <c r="C263" s="291"/>
+      <c r="D263" s="291"/>
       <c r="E263" s="137" t="s">
         <v>415</v>
       </c>
@@ -36289,8 +36334,8 @@
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="16"/>
       <c r="B264" s="16"/>
-      <c r="C264" s="286"/>
-      <c r="D264" s="332" t="s">
+      <c r="C264" s="291"/>
+      <c r="D264" s="358" t="s">
         <v>287</v>
       </c>
       <c r="E264" s="137" t="s">
@@ -36321,8 +36366,8 @@
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="16"/>
       <c r="B265" s="16"/>
-      <c r="C265" s="286"/>
-      <c r="D265" s="286"/>
+      <c r="C265" s="291"/>
+      <c r="D265" s="291"/>
       <c r="E265" s="137" t="s">
         <v>417</v>
       </c>
@@ -56930,24 +56975,40 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C3:C48"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D21"/>
-    <mergeCell ref="D22:D31"/>
-    <mergeCell ref="D44:D48"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D78"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D88:D91"/>
-    <mergeCell ref="D92:D98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="D178:D184"/>
+    <mergeCell ref="D256:D259"/>
+    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="D264:D265"/>
+    <mergeCell ref="D211:D213"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="D216:D217"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="D220:D225"/>
+    <mergeCell ref="D226:D227"/>
+    <mergeCell ref="D228:D230"/>
+    <mergeCell ref="D231:D234"/>
+    <mergeCell ref="D235:D239"/>
+    <mergeCell ref="D240:D244"/>
+    <mergeCell ref="D245:D250"/>
+    <mergeCell ref="D251:D255"/>
+    <mergeCell ref="C187:C227"/>
+    <mergeCell ref="C228:C265"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D53:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D187:D190"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="D196:D198"/>
+    <mergeCell ref="D199:D200"/>
+    <mergeCell ref="D201:D204"/>
+    <mergeCell ref="D205:D210"/>
     <mergeCell ref="D118:D124"/>
     <mergeCell ref="D125:D126"/>
     <mergeCell ref="D101:D104"/>
@@ -56964,40 +57025,24 @@
     <mergeCell ref="D161:D162"/>
     <mergeCell ref="D163:D165"/>
     <mergeCell ref="D166:D172"/>
-    <mergeCell ref="C187:C227"/>
-    <mergeCell ref="C228:C265"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="D53:D59"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D187:D190"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="D196:D198"/>
-    <mergeCell ref="D199:D200"/>
-    <mergeCell ref="D201:D204"/>
-    <mergeCell ref="D205:D210"/>
-    <mergeCell ref="D264:D265"/>
-    <mergeCell ref="D211:D213"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="D216:D217"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="D220:D225"/>
-    <mergeCell ref="D226:D227"/>
-    <mergeCell ref="D228:D230"/>
-    <mergeCell ref="D231:D234"/>
-    <mergeCell ref="D235:D239"/>
-    <mergeCell ref="D240:D244"/>
-    <mergeCell ref="D245:D250"/>
-    <mergeCell ref="D251:D255"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D175:D177"/>
-    <mergeCell ref="D178:D184"/>
-    <mergeCell ref="D256:D259"/>
-    <mergeCell ref="D260:D263"/>
+    <mergeCell ref="D88:D91"/>
+    <mergeCell ref="D92:D98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D79:D85"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C3:C48"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D21"/>
+    <mergeCell ref="D22:D31"/>
+    <mergeCell ref="D44:D48"/>
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
